--- a/backups/progress_backup_product_2.xlsx
+++ b/backups/progress_backup_product_2.xlsx
@@ -16,13 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -81,11 +88,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -455,7 +462,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N998"/>
+  <dimension ref="A1:M998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +483,6 @@
     <col width="37.14785714285715" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
     <col width="37.14785714285715" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
     <col width="37.14785714285715" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -545,25 +551,24 @@
           <t>Full Description</t>
         </is>
       </c>
-      <c r="N1" s="5" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Seamless Pattern</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Floral</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Cherry Blossoms</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
         </is>
@@ -577,25 +582,24 @@
       <c r="K2" s="5" t="n"/>
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Digital Paper</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Floral</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>2nd Digital Paper</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
         </is>
@@ -609,13 +613,28 @@
       <c r="K3" s="5" t="n"/>
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -625,13 +644,28 @@
       <c r="K4" s="5" t="n"/>
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -641,13 +675,28 @@
       <c r="K5" s="5" t="n"/>
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -657,13 +706,28 @@
       <c r="K6" s="5" t="n"/>
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -673,13 +737,28 @@
       <c r="K7" s="5" t="n"/>
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -689,13 +768,28 @@
       <c r="K8" s="5" t="n"/>
       <c r="L8" s="5" t="n"/>
       <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E9" s="5" t="n"/>
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="5" t="n"/>
@@ -705,13 +799,28 @@
       <c r="K9" s="5" t="n"/>
       <c r="L9" s="5" t="n"/>
       <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E10" s="5" t="n"/>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="n"/>
@@ -721,13 +830,28 @@
       <c r="K10" s="5" t="n"/>
       <c r="L10" s="5" t="n"/>
       <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="n"/>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="n"/>
@@ -737,13 +861,28 @@
       <c r="K11" s="5" t="n"/>
       <c r="L11" s="5" t="n"/>
       <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E12" s="5" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
@@ -753,13 +892,28 @@
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
       <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -769,13 +923,28 @@
       <c r="K13" s="5" t="n"/>
       <c r="L13" s="5" t="n"/>
       <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E14" s="5" t="n"/>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
@@ -785,13 +954,28 @@
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
       <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
@@ -801,13 +985,28 @@
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
       <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="n"/>
@@ -817,13 +1016,28 @@
       <c r="K16" s="5" t="n"/>
       <c r="L16" s="5" t="n"/>
       <c r="M16" s="5" t="n"/>
-      <c r="N16" s="5" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E17" s="5" t="n"/>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
@@ -833,7 +1047,6 @@
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
       <c r="M17" s="5" t="n"/>
-      <c r="N17" s="5" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="5" t="n"/>
@@ -849,7 +1062,6 @@
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="5" t="n"/>
@@ -865,7 +1077,6 @@
       <c r="K19" s="5" t="n"/>
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="5" t="n"/>
@@ -881,7 +1092,6 @@
       <c r="K20" s="5" t="n"/>
       <c r="L20" s="5" t="n"/>
       <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="5" t="n"/>
@@ -897,7 +1107,6 @@
       <c r="K21" s="5" t="n"/>
       <c r="L21" s="5" t="n"/>
       <c r="M21" s="5" t="n"/>
-      <c r="N21" s="5" t="n"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="5" t="n"/>
@@ -913,7 +1122,6 @@
       <c r="K22" s="5" t="n"/>
       <c r="L22" s="5" t="n"/>
       <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="5" t="n"/>
@@ -929,7 +1137,6 @@
       <c r="K23" s="5" t="n"/>
       <c r="L23" s="5" t="n"/>
       <c r="M23" s="5" t="n"/>
-      <c r="N23" s="5" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="5" t="n"/>
@@ -945,7 +1152,6 @@
       <c r="K24" s="5" t="n"/>
       <c r="L24" s="5" t="n"/>
       <c r="M24" s="5" t="n"/>
-      <c r="N24" s="5" t="n"/>
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="5" t="n"/>
@@ -961,7 +1167,6 @@
       <c r="K25" s="5" t="n"/>
       <c r="L25" s="5" t="n"/>
       <c r="M25" s="5" t="n"/>
-      <c r="N25" s="5" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="5" t="n"/>
@@ -977,7 +1182,6 @@
       <c r="K26" s="5" t="n"/>
       <c r="L26" s="5" t="n"/>
       <c r="M26" s="5" t="n"/>
-      <c r="N26" s="5" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="5" t="n"/>
@@ -993,7 +1197,6 @@
       <c r="K27" s="5" t="n"/>
       <c r="L27" s="5" t="n"/>
       <c r="M27" s="5" t="n"/>
-      <c r="N27" s="5" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="A28" s="5" t="n"/>
@@ -1009,7 +1212,6 @@
       <c r="K28" s="5" t="n"/>
       <c r="L28" s="5" t="n"/>
       <c r="M28" s="5" t="n"/>
-      <c r="N28" s="5" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="5" t="n"/>
@@ -1025,7 +1227,6 @@
       <c r="K29" s="5" t="n"/>
       <c r="L29" s="5" t="n"/>
       <c r="M29" s="5" t="n"/>
-      <c r="N29" s="5" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="5" t="n"/>
@@ -1041,7 +1242,6 @@
       <c r="K30" s="5" t="n"/>
       <c r="L30" s="5" t="n"/>
       <c r="M30" s="5" t="n"/>
-      <c r="N30" s="5" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="5" t="n"/>
@@ -1057,7 +1257,6 @@
       <c r="K31" s="5" t="n"/>
       <c r="L31" s="5" t="n"/>
       <c r="M31" s="5" t="n"/>
-      <c r="N31" s="5" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1">
       <c r="A32" s="5" t="n"/>
@@ -1073,7 +1272,6 @@
       <c r="K32" s="5" t="n"/>
       <c r="L32" s="5" t="n"/>
       <c r="M32" s="5" t="n"/>
-      <c r="N32" s="5" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1">
       <c r="A33" s="5" t="n"/>
@@ -1089,7 +1287,6 @@
       <c r="K33" s="5" t="n"/>
       <c r="L33" s="5" t="n"/>
       <c r="M33" s="5" t="n"/>
-      <c r="N33" s="5" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="5" t="n"/>
@@ -1105,7 +1302,6 @@
       <c r="K34" s="5" t="n"/>
       <c r="L34" s="5" t="n"/>
       <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
     </row>
     <row r="35" ht="18" customHeight="1">
       <c r="A35" s="5" t="n"/>
@@ -1121,7 +1317,6 @@
       <c r="K35" s="5" t="n"/>
       <c r="L35" s="5" t="n"/>
       <c r="M35" s="5" t="n"/>
-      <c r="N35" s="5" t="n"/>
     </row>
     <row r="36" ht="18" customHeight="1">
       <c r="A36" s="5" t="n"/>
@@ -1137,7 +1332,6 @@
       <c r="K36" s="5" t="n"/>
       <c r="L36" s="5" t="n"/>
       <c r="M36" s="5" t="n"/>
-      <c r="N36" s="5" t="n"/>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="A37" s="5" t="n"/>
@@ -1153,7 +1347,6 @@
       <c r="K37" s="5" t="n"/>
       <c r="L37" s="5" t="n"/>
       <c r="M37" s="5" t="n"/>
-      <c r="N37" s="5" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="A38" s="5" t="n"/>
@@ -1169,7 +1362,6 @@
       <c r="K38" s="5" t="n"/>
       <c r="L38" s="5" t="n"/>
       <c r="M38" s="5" t="n"/>
-      <c r="N38" s="5" t="n"/>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="A39" s="5" t="n"/>
@@ -1185,7 +1377,6 @@
       <c r="K39" s="5" t="n"/>
       <c r="L39" s="5" t="n"/>
       <c r="M39" s="5" t="n"/>
-      <c r="N39" s="5" t="n"/>
     </row>
     <row r="40" ht="18" customHeight="1">
       <c r="A40" s="5" t="n"/>
@@ -1201,7 +1392,6 @@
       <c r="K40" s="5" t="n"/>
       <c r="L40" s="5" t="n"/>
       <c r="M40" s="5" t="n"/>
-      <c r="N40" s="5" t="n"/>
     </row>
     <row r="41" ht="18" customHeight="1">
       <c r="A41" s="5" t="n"/>
@@ -1217,7 +1407,6 @@
       <c r="K41" s="5" t="n"/>
       <c r="L41" s="5" t="n"/>
       <c r="M41" s="5" t="n"/>
-      <c r="N41" s="5" t="n"/>
     </row>
     <row r="42" ht="18" customHeight="1">
       <c r="A42" s="5" t="n"/>
@@ -1233,7 +1422,6 @@
       <c r="K42" s="5" t="n"/>
       <c r="L42" s="5" t="n"/>
       <c r="M42" s="5" t="n"/>
-      <c r="N42" s="5" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="A43" s="5" t="n"/>
@@ -1249,7 +1437,6 @@
       <c r="K43" s="5" t="n"/>
       <c r="L43" s="5" t="n"/>
       <c r="M43" s="5" t="n"/>
-      <c r="N43" s="5" t="n"/>
     </row>
     <row r="44" ht="18" customHeight="1">
       <c r="A44" s="5" t="n"/>
@@ -1265,7 +1452,6 @@
       <c r="K44" s="5" t="n"/>
       <c r="L44" s="5" t="n"/>
       <c r="M44" s="5" t="n"/>
-      <c r="N44" s="5" t="n"/>
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" s="5" t="n"/>
@@ -1281,9 +1467,8 @@
       <c r="K45" s="5" t="n"/>
       <c r="L45" s="5" t="n"/>
       <c r="M45" s="5" t="n"/>
-      <c r="N45" s="5" t="n"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" ht="18" customHeight="1">
       <c r="A46" s="5" t="n"/>
       <c r="B46" s="5" t="n"/>
       <c r="C46" s="5" t="n"/>
@@ -1297,9 +1482,8 @@
       <c r="K46" s="5" t="n"/>
       <c r="L46" s="5" t="n"/>
       <c r="M46" s="5" t="n"/>
-      <c r="N46" s="5" t="n"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" ht="18" customHeight="1">
       <c r="A47" s="5" t="n"/>
       <c r="B47" s="5" t="n"/>
       <c r="C47" s="5" t="n"/>
@@ -1313,9 +1497,8 @@
       <c r="K47" s="5" t="n"/>
       <c r="L47" s="5" t="n"/>
       <c r="M47" s="5" t="n"/>
-      <c r="N47" s="5" t="n"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" ht="18" customHeight="1">
       <c r="A48" s="5" t="n"/>
       <c r="B48" s="5" t="n"/>
       <c r="C48" s="5" t="n"/>
@@ -1329,7 +1512,6 @@
       <c r="K48" s="5" t="n"/>
       <c r="L48" s="5" t="n"/>
       <c r="M48" s="5" t="n"/>
-      <c r="N48" s="5" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="n"/>
@@ -1345,7 +1527,6 @@
       <c r="K49" s="5" t="n"/>
       <c r="L49" s="5" t="n"/>
       <c r="M49" s="5" t="n"/>
-      <c r="N49" s="5" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="n"/>
@@ -1361,7 +1542,6 @@
       <c r="K50" s="5" t="n"/>
       <c r="L50" s="5" t="n"/>
       <c r="M50" s="5" t="n"/>
-      <c r="N50" s="5" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="n"/>
@@ -1377,7 +1557,6 @@
       <c r="K51" s="5" t="n"/>
       <c r="L51" s="5" t="n"/>
       <c r="M51" s="5" t="n"/>
-      <c r="N51" s="5" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="n"/>
@@ -1393,7 +1572,6 @@
       <c r="K52" s="5" t="n"/>
       <c r="L52" s="5" t="n"/>
       <c r="M52" s="5" t="n"/>
-      <c r="N52" s="5" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="n"/>
@@ -1409,7 +1587,6 @@
       <c r="K53" s="5" t="n"/>
       <c r="L53" s="5" t="n"/>
       <c r="M53" s="5" t="n"/>
-      <c r="N53" s="5" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="n"/>
@@ -1425,7 +1602,6 @@
       <c r="K54" s="5" t="n"/>
       <c r="L54" s="5" t="n"/>
       <c r="M54" s="5" t="n"/>
-      <c r="N54" s="5" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="n"/>
@@ -1441,7 +1617,6 @@
       <c r="K55" s="5" t="n"/>
       <c r="L55" s="5" t="n"/>
       <c r="M55" s="5" t="n"/>
-      <c r="N55" s="5" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="n"/>
@@ -1457,7 +1632,6 @@
       <c r="K56" s="5" t="n"/>
       <c r="L56" s="5" t="n"/>
       <c r="M56" s="5" t="n"/>
-      <c r="N56" s="5" t="n"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="n"/>
@@ -1473,7 +1647,6 @@
       <c r="K57" s="5" t="n"/>
       <c r="L57" s="5" t="n"/>
       <c r="M57" s="5" t="n"/>
-      <c r="N57" s="5" t="n"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="n"/>
@@ -1489,7 +1662,6 @@
       <c r="K58" s="5" t="n"/>
       <c r="L58" s="5" t="n"/>
       <c r="M58" s="5" t="n"/>
-      <c r="N58" s="5" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="n"/>
@@ -1505,7 +1677,6 @@
       <c r="K59" s="5" t="n"/>
       <c r="L59" s="5" t="n"/>
       <c r="M59" s="5" t="n"/>
-      <c r="N59" s="5" t="n"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="n"/>
@@ -1521,7 +1692,6 @@
       <c r="K60" s="5" t="n"/>
       <c r="L60" s="5" t="n"/>
       <c r="M60" s="5" t="n"/>
-      <c r="N60" s="5" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="n"/>
@@ -1537,7 +1707,6 @@
       <c r="K61" s="5" t="n"/>
       <c r="L61" s="5" t="n"/>
       <c r="M61" s="5" t="n"/>
-      <c r="N61" s="5" t="n"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="n"/>
@@ -1553,7 +1722,6 @@
       <c r="K62" s="5" t="n"/>
       <c r="L62" s="5" t="n"/>
       <c r="M62" s="5" t="n"/>
-      <c r="N62" s="5" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="n"/>
@@ -1569,7 +1737,6 @@
       <c r="K63" s="5" t="n"/>
       <c r="L63" s="5" t="n"/>
       <c r="M63" s="5" t="n"/>
-      <c r="N63" s="5" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="n"/>
@@ -1585,7 +1752,6 @@
       <c r="K64" s="5" t="n"/>
       <c r="L64" s="5" t="n"/>
       <c r="M64" s="5" t="n"/>
-      <c r="N64" s="5" t="n"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="n"/>
@@ -1601,7 +1767,6 @@
       <c r="K65" s="5" t="n"/>
       <c r="L65" s="5" t="n"/>
       <c r="M65" s="5" t="n"/>
-      <c r="N65" s="5" t="n"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="n"/>
@@ -1617,7 +1782,6 @@
       <c r="K66" s="5" t="n"/>
       <c r="L66" s="5" t="n"/>
       <c r="M66" s="5" t="n"/>
-      <c r="N66" s="5" t="n"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="n"/>
@@ -1633,7 +1797,6 @@
       <c r="K67" s="5" t="n"/>
       <c r="L67" s="5" t="n"/>
       <c r="M67" s="5" t="n"/>
-      <c r="N67" s="5" t="n"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="n"/>
@@ -1649,7 +1812,6 @@
       <c r="K68" s="5" t="n"/>
       <c r="L68" s="5" t="n"/>
       <c r="M68" s="5" t="n"/>
-      <c r="N68" s="5" t="n"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="5" t="n"/>
@@ -1665,7 +1827,6 @@
       <c r="K69" s="5" t="n"/>
       <c r="L69" s="5" t="n"/>
       <c r="M69" s="5" t="n"/>
-      <c r="N69" s="5" t="n"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="5" t="n"/>
@@ -1681,7 +1842,6 @@
       <c r="K70" s="5" t="n"/>
       <c r="L70" s="5" t="n"/>
       <c r="M70" s="5" t="n"/>
-      <c r="N70" s="5" t="n"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5" t="n"/>
@@ -1697,7 +1857,6 @@
       <c r="K71" s="5" t="n"/>
       <c r="L71" s="5" t="n"/>
       <c r="M71" s="5" t="n"/>
-      <c r="N71" s="5" t="n"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="n"/>
@@ -1713,7 +1872,6 @@
       <c r="K72" s="5" t="n"/>
       <c r="L72" s="5" t="n"/>
       <c r="M72" s="5" t="n"/>
-      <c r="N72" s="5" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="5" t="n"/>
@@ -1729,7 +1887,6 @@
       <c r="K73" s="5" t="n"/>
       <c r="L73" s="5" t="n"/>
       <c r="M73" s="5" t="n"/>
-      <c r="N73" s="5" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="5" t="n"/>
@@ -1745,7 +1902,6 @@
       <c r="K74" s="5" t="n"/>
       <c r="L74" s="5" t="n"/>
       <c r="M74" s="5" t="n"/>
-      <c r="N74" s="5" t="n"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="n"/>
@@ -1761,7 +1917,6 @@
       <c r="K75" s="5" t="n"/>
       <c r="L75" s="5" t="n"/>
       <c r="M75" s="5" t="n"/>
-      <c r="N75" s="5" t="n"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="n"/>
@@ -1777,7 +1932,6 @@
       <c r="K76" s="5" t="n"/>
       <c r="L76" s="5" t="n"/>
       <c r="M76" s="5" t="n"/>
-      <c r="N76" s="5" t="n"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="n"/>
@@ -1793,7 +1947,6 @@
       <c r="K77" s="5" t="n"/>
       <c r="L77" s="5" t="n"/>
       <c r="M77" s="5" t="n"/>
-      <c r="N77" s="5" t="n"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="n"/>
@@ -1809,7 +1962,6 @@
       <c r="K78" s="5" t="n"/>
       <c r="L78" s="5" t="n"/>
       <c r="M78" s="5" t="n"/>
-      <c r="N78" s="5" t="n"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="n"/>
@@ -1825,7 +1977,6 @@
       <c r="K79" s="5" t="n"/>
       <c r="L79" s="5" t="n"/>
       <c r="M79" s="5" t="n"/>
-      <c r="N79" s="5" t="n"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="n"/>
@@ -1841,7 +1992,6 @@
       <c r="K80" s="5" t="n"/>
       <c r="L80" s="5" t="n"/>
       <c r="M80" s="5" t="n"/>
-      <c r="N80" s="5" t="n"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="n"/>
@@ -1857,7 +2007,6 @@
       <c r="K81" s="5" t="n"/>
       <c r="L81" s="5" t="n"/>
       <c r="M81" s="5" t="n"/>
-      <c r="N81" s="5" t="n"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="n"/>
@@ -1873,7 +2022,6 @@
       <c r="K82" s="5" t="n"/>
       <c r="L82" s="5" t="n"/>
       <c r="M82" s="5" t="n"/>
-      <c r="N82" s="5" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="n"/>
@@ -1889,7 +2037,6 @@
       <c r="K83" s="5" t="n"/>
       <c r="L83" s="5" t="n"/>
       <c r="M83" s="5" t="n"/>
-      <c r="N83" s="5" t="n"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="n"/>
@@ -1905,7 +2052,6 @@
       <c r="K84" s="5" t="n"/>
       <c r="L84" s="5" t="n"/>
       <c r="M84" s="5" t="n"/>
-      <c r="N84" s="5" t="n"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="n"/>
@@ -1921,7 +2067,6 @@
       <c r="K85" s="5" t="n"/>
       <c r="L85" s="5" t="n"/>
       <c r="M85" s="5" t="n"/>
-      <c r="N85" s="5" t="n"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="n"/>
@@ -1937,7 +2082,6 @@
       <c r="K86" s="5" t="n"/>
       <c r="L86" s="5" t="n"/>
       <c r="M86" s="5" t="n"/>
-      <c r="N86" s="5" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="n"/>
@@ -1953,7 +2097,6 @@
       <c r="K87" s="5" t="n"/>
       <c r="L87" s="5" t="n"/>
       <c r="M87" s="5" t="n"/>
-      <c r="N87" s="5" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="5" t="n"/>
@@ -1969,7 +2112,6 @@
       <c r="K88" s="5" t="n"/>
       <c r="L88" s="5" t="n"/>
       <c r="M88" s="5" t="n"/>
-      <c r="N88" s="5" t="n"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="5" t="n"/>
@@ -1985,7 +2127,6 @@
       <c r="K89" s="5" t="n"/>
       <c r="L89" s="5" t="n"/>
       <c r="M89" s="5" t="n"/>
-      <c r="N89" s="5" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="5" t="n"/>
@@ -2001,7 +2142,6 @@
       <c r="K90" s="5" t="n"/>
       <c r="L90" s="5" t="n"/>
       <c r="M90" s="5" t="n"/>
-      <c r="N90" s="5" t="n"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="n"/>
@@ -2017,7 +2157,6 @@
       <c r="K91" s="5" t="n"/>
       <c r="L91" s="5" t="n"/>
       <c r="M91" s="5" t="n"/>
-      <c r="N91" s="5" t="n"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="n"/>
@@ -2033,7 +2172,6 @@
       <c r="K92" s="5" t="n"/>
       <c r="L92" s="5" t="n"/>
       <c r="M92" s="5" t="n"/>
-      <c r="N92" s="5" t="n"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="n"/>
@@ -2049,7 +2187,6 @@
       <c r="K93" s="5" t="n"/>
       <c r="L93" s="5" t="n"/>
       <c r="M93" s="5" t="n"/>
-      <c r="N93" s="5" t="n"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="5" t="n"/>
@@ -2065,7 +2202,6 @@
       <c r="K94" s="5" t="n"/>
       <c r="L94" s="5" t="n"/>
       <c r="M94" s="5" t="n"/>
-      <c r="N94" s="5" t="n"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="5" t="n"/>
@@ -2081,7 +2217,6 @@
       <c r="K95" s="5" t="n"/>
       <c r="L95" s="5" t="n"/>
       <c r="M95" s="5" t="n"/>
-      <c r="N95" s="5" t="n"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="n"/>
@@ -2097,7 +2232,6 @@
       <c r="K96" s="5" t="n"/>
       <c r="L96" s="5" t="n"/>
       <c r="M96" s="5" t="n"/>
-      <c r="N96" s="5" t="n"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="n"/>
@@ -2113,7 +2247,6 @@
       <c r="K97" s="5" t="n"/>
       <c r="L97" s="5" t="n"/>
       <c r="M97" s="5" t="n"/>
-      <c r="N97" s="5" t="n"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="n"/>
@@ -2129,7 +2262,6 @@
       <c r="K98" s="5" t="n"/>
       <c r="L98" s="5" t="n"/>
       <c r="M98" s="5" t="n"/>
-      <c r="N98" s="5" t="n"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="n"/>
@@ -2145,7 +2277,6 @@
       <c r="K99" s="5" t="n"/>
       <c r="L99" s="5" t="n"/>
       <c r="M99" s="5" t="n"/>
-      <c r="N99" s="5" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="n"/>
@@ -2161,7 +2292,6 @@
       <c r="K100" s="5" t="n"/>
       <c r="L100" s="5" t="n"/>
       <c r="M100" s="5" t="n"/>
-      <c r="N100" s="5" t="n"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="n"/>
@@ -2177,7 +2307,6 @@
       <c r="K101" s="5" t="n"/>
       <c r="L101" s="5" t="n"/>
       <c r="M101" s="5" t="n"/>
-      <c r="N101" s="5" t="n"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="5" t="n"/>
@@ -2193,7 +2322,6 @@
       <c r="K102" s="5" t="n"/>
       <c r="L102" s="5" t="n"/>
       <c r="M102" s="5" t="n"/>
-      <c r="N102" s="5" t="n"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="5" t="n"/>
@@ -2209,7 +2337,6 @@
       <c r="K103" s="5" t="n"/>
       <c r="L103" s="5" t="n"/>
       <c r="M103" s="5" t="n"/>
-      <c r="N103" s="5" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="5" t="n"/>
@@ -2225,7 +2352,6 @@
       <c r="K104" s="5" t="n"/>
       <c r="L104" s="5" t="n"/>
       <c r="M104" s="5" t="n"/>
-      <c r="N104" s="5" t="n"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="5" t="n"/>
@@ -2241,7 +2367,6 @@
       <c r="K105" s="5" t="n"/>
       <c r="L105" s="5" t="n"/>
       <c r="M105" s="5" t="n"/>
-      <c r="N105" s="5" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="5" t="n"/>
@@ -2257,7 +2382,6 @@
       <c r="K106" s="5" t="n"/>
       <c r="L106" s="5" t="n"/>
       <c r="M106" s="5" t="n"/>
-      <c r="N106" s="5" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="5" t="n"/>
@@ -2273,7 +2397,6 @@
       <c r="K107" s="5" t="n"/>
       <c r="L107" s="5" t="n"/>
       <c r="M107" s="5" t="n"/>
-      <c r="N107" s="5" t="n"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="5" t="n"/>
@@ -2289,7 +2412,6 @@
       <c r="K108" s="5" t="n"/>
       <c r="L108" s="5" t="n"/>
       <c r="M108" s="5" t="n"/>
-      <c r="N108" s="5" t="n"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="5" t="n"/>
@@ -2305,7 +2427,6 @@
       <c r="K109" s="5" t="n"/>
       <c r="L109" s="5" t="n"/>
       <c r="M109" s="5" t="n"/>
-      <c r="N109" s="5" t="n"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="5" t="n"/>
@@ -2321,7 +2442,6 @@
       <c r="K110" s="5" t="n"/>
       <c r="L110" s="5" t="n"/>
       <c r="M110" s="5" t="n"/>
-      <c r="N110" s="5" t="n"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="5" t="n"/>
@@ -2337,7 +2457,6 @@
       <c r="K111" s="5" t="n"/>
       <c r="L111" s="5" t="n"/>
       <c r="M111" s="5" t="n"/>
-      <c r="N111" s="5" t="n"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="5" t="n"/>
@@ -2353,7 +2472,6 @@
       <c r="K112" s="5" t="n"/>
       <c r="L112" s="5" t="n"/>
       <c r="M112" s="5" t="n"/>
-      <c r="N112" s="5" t="n"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="5" t="n"/>
@@ -2369,7 +2487,6 @@
       <c r="K113" s="5" t="n"/>
       <c r="L113" s="5" t="n"/>
       <c r="M113" s="5" t="n"/>
-      <c r="N113" s="5" t="n"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="5" t="n"/>
@@ -2385,7 +2502,6 @@
       <c r="K114" s="5" t="n"/>
       <c r="L114" s="5" t="n"/>
       <c r="M114" s="5" t="n"/>
-      <c r="N114" s="5" t="n"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="5" t="n"/>
@@ -2401,7 +2517,6 @@
       <c r="K115" s="5" t="n"/>
       <c r="L115" s="5" t="n"/>
       <c r="M115" s="5" t="n"/>
-      <c r="N115" s="5" t="n"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="5" t="n"/>
@@ -2417,7 +2532,6 @@
       <c r="K116" s="5" t="n"/>
       <c r="L116" s="5" t="n"/>
       <c r="M116" s="5" t="n"/>
-      <c r="N116" s="5" t="n"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="5" t="n"/>
@@ -2433,7 +2547,6 @@
       <c r="K117" s="5" t="n"/>
       <c r="L117" s="5" t="n"/>
       <c r="M117" s="5" t="n"/>
-      <c r="N117" s="5" t="n"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="5" t="n"/>
@@ -2449,7 +2562,6 @@
       <c r="K118" s="5" t="n"/>
       <c r="L118" s="5" t="n"/>
       <c r="M118" s="5" t="n"/>
-      <c r="N118" s="5" t="n"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="5" t="n"/>
@@ -2465,7 +2577,6 @@
       <c r="K119" s="5" t="n"/>
       <c r="L119" s="5" t="n"/>
       <c r="M119" s="5" t="n"/>
-      <c r="N119" s="5" t="n"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="5" t="n"/>
@@ -2481,7 +2592,6 @@
       <c r="K120" s="5" t="n"/>
       <c r="L120" s="5" t="n"/>
       <c r="M120" s="5" t="n"/>
-      <c r="N120" s="5" t="n"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="5" t="n"/>
@@ -2497,7 +2607,6 @@
       <c r="K121" s="5" t="n"/>
       <c r="L121" s="5" t="n"/>
       <c r="M121" s="5" t="n"/>
-      <c r="N121" s="5" t="n"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="5" t="n"/>
@@ -2513,7 +2622,6 @@
       <c r="K122" s="5" t="n"/>
       <c r="L122" s="5" t="n"/>
       <c r="M122" s="5" t="n"/>
-      <c r="N122" s="5" t="n"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="5" t="n"/>
@@ -2529,7 +2637,6 @@
       <c r="K123" s="5" t="n"/>
       <c r="L123" s="5" t="n"/>
       <c r="M123" s="5" t="n"/>
-      <c r="N123" s="5" t="n"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="5" t="n"/>
@@ -2545,7 +2652,6 @@
       <c r="K124" s="5" t="n"/>
       <c r="L124" s="5" t="n"/>
       <c r="M124" s="5" t="n"/>
-      <c r="N124" s="5" t="n"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="5" t="n"/>
@@ -2561,7 +2667,6 @@
       <c r="K125" s="5" t="n"/>
       <c r="L125" s="5" t="n"/>
       <c r="M125" s="5" t="n"/>
-      <c r="N125" s="5" t="n"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="5" t="n"/>
@@ -2577,7 +2682,6 @@
       <c r="K126" s="5" t="n"/>
       <c r="L126" s="5" t="n"/>
       <c r="M126" s="5" t="n"/>
-      <c r="N126" s="5" t="n"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="5" t="n"/>
@@ -2593,7 +2697,6 @@
       <c r="K127" s="5" t="n"/>
       <c r="L127" s="5" t="n"/>
       <c r="M127" s="5" t="n"/>
-      <c r="N127" s="5" t="n"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5" t="n"/>
@@ -2609,7 +2712,6 @@
       <c r="K128" s="5" t="n"/>
       <c r="L128" s="5" t="n"/>
       <c r="M128" s="5" t="n"/>
-      <c r="N128" s="5" t="n"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5" t="n"/>
@@ -2625,7 +2727,6 @@
       <c r="K129" s="5" t="n"/>
       <c r="L129" s="5" t="n"/>
       <c r="M129" s="5" t="n"/>
-      <c r="N129" s="5" t="n"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5" t="n"/>
@@ -2641,7 +2742,6 @@
       <c r="K130" s="5" t="n"/>
       <c r="L130" s="5" t="n"/>
       <c r="M130" s="5" t="n"/>
-      <c r="N130" s="5" t="n"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="5" t="n"/>
@@ -2657,7 +2757,6 @@
       <c r="K131" s="5" t="n"/>
       <c r="L131" s="5" t="n"/>
       <c r="M131" s="5" t="n"/>
-      <c r="N131" s="5" t="n"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="5" t="n"/>
@@ -2673,7 +2772,6 @@
       <c r="K132" s="5" t="n"/>
       <c r="L132" s="5" t="n"/>
       <c r="M132" s="5" t="n"/>
-      <c r="N132" s="5" t="n"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="5" t="n"/>
@@ -2689,7 +2787,6 @@
       <c r="K133" s="5" t="n"/>
       <c r="L133" s="5" t="n"/>
       <c r="M133" s="5" t="n"/>
-      <c r="N133" s="5" t="n"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="5" t="n"/>
@@ -2705,7 +2802,6 @@
       <c r="K134" s="5" t="n"/>
       <c r="L134" s="5" t="n"/>
       <c r="M134" s="5" t="n"/>
-      <c r="N134" s="5" t="n"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="5" t="n"/>
@@ -2721,7 +2817,6 @@
       <c r="K135" s="5" t="n"/>
       <c r="L135" s="5" t="n"/>
       <c r="M135" s="5" t="n"/>
-      <c r="N135" s="5" t="n"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="5" t="n"/>
@@ -2737,7 +2832,6 @@
       <c r="K136" s="5" t="n"/>
       <c r="L136" s="5" t="n"/>
       <c r="M136" s="5" t="n"/>
-      <c r="N136" s="5" t="n"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="5" t="n"/>
@@ -2753,7 +2847,6 @@
       <c r="K137" s="5" t="n"/>
       <c r="L137" s="5" t="n"/>
       <c r="M137" s="5" t="n"/>
-      <c r="N137" s="5" t="n"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="5" t="n"/>
@@ -2769,7 +2862,6 @@
       <c r="K138" s="5" t="n"/>
       <c r="L138" s="5" t="n"/>
       <c r="M138" s="5" t="n"/>
-      <c r="N138" s="5" t="n"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="5" t="n"/>
@@ -2785,7 +2877,6 @@
       <c r="K139" s="5" t="n"/>
       <c r="L139" s="5" t="n"/>
       <c r="M139" s="5" t="n"/>
-      <c r="N139" s="5" t="n"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5" t="n"/>
@@ -2801,7 +2892,6 @@
       <c r="K140" s="5" t="n"/>
       <c r="L140" s="5" t="n"/>
       <c r="M140" s="5" t="n"/>
-      <c r="N140" s="5" t="n"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="5" t="n"/>
@@ -2817,7 +2907,6 @@
       <c r="K141" s="5" t="n"/>
       <c r="L141" s="5" t="n"/>
       <c r="M141" s="5" t="n"/>
-      <c r="N141" s="5" t="n"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="5" t="n"/>
@@ -2833,7 +2922,6 @@
       <c r="K142" s="5" t="n"/>
       <c r="L142" s="5" t="n"/>
       <c r="M142" s="5" t="n"/>
-      <c r="N142" s="5" t="n"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="5" t="n"/>
@@ -2849,7 +2937,6 @@
       <c r="K143" s="5" t="n"/>
       <c r="L143" s="5" t="n"/>
       <c r="M143" s="5" t="n"/>
-      <c r="N143" s="5" t="n"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="5" t="n"/>
@@ -2865,7 +2952,6 @@
       <c r="K144" s="5" t="n"/>
       <c r="L144" s="5" t="n"/>
       <c r="M144" s="5" t="n"/>
-      <c r="N144" s="5" t="n"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="5" t="n"/>
@@ -2881,7 +2967,6 @@
       <c r="K145" s="5" t="n"/>
       <c r="L145" s="5" t="n"/>
       <c r="M145" s="5" t="n"/>
-      <c r="N145" s="5" t="n"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="5" t="n"/>
@@ -2897,7 +2982,6 @@
       <c r="K146" s="5" t="n"/>
       <c r="L146" s="5" t="n"/>
       <c r="M146" s="5" t="n"/>
-      <c r="N146" s="5" t="n"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="5" t="n"/>
@@ -2913,7 +2997,6 @@
       <c r="K147" s="5" t="n"/>
       <c r="L147" s="5" t="n"/>
       <c r="M147" s="5" t="n"/>
-      <c r="N147" s="5" t="n"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="5" t="n"/>
@@ -2929,7 +3012,6 @@
       <c r="K148" s="5" t="n"/>
       <c r="L148" s="5" t="n"/>
       <c r="M148" s="5" t="n"/>
-      <c r="N148" s="5" t="n"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="5" t="n"/>
@@ -2945,7 +3027,6 @@
       <c r="K149" s="5" t="n"/>
       <c r="L149" s="5" t="n"/>
       <c r="M149" s="5" t="n"/>
-      <c r="N149" s="5" t="n"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="5" t="n"/>
@@ -2961,7 +3042,6 @@
       <c r="K150" s="5" t="n"/>
       <c r="L150" s="5" t="n"/>
       <c r="M150" s="5" t="n"/>
-      <c r="N150" s="5" t="n"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="5" t="n"/>
@@ -2977,7 +3057,6 @@
       <c r="K151" s="5" t="n"/>
       <c r="L151" s="5" t="n"/>
       <c r="M151" s="5" t="n"/>
-      <c r="N151" s="5" t="n"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="5" t="n"/>
@@ -2993,7 +3072,6 @@
       <c r="K152" s="5" t="n"/>
       <c r="L152" s="5" t="n"/>
       <c r="M152" s="5" t="n"/>
-      <c r="N152" s="5" t="n"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="5" t="n"/>
@@ -3009,7 +3087,6 @@
       <c r="K153" s="5" t="n"/>
       <c r="L153" s="5" t="n"/>
       <c r="M153" s="5" t="n"/>
-      <c r="N153" s="5" t="n"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="5" t="n"/>
@@ -3025,7 +3102,6 @@
       <c r="K154" s="5" t="n"/>
       <c r="L154" s="5" t="n"/>
       <c r="M154" s="5" t="n"/>
-      <c r="N154" s="5" t="n"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="5" t="n"/>
@@ -3041,7 +3117,6 @@
       <c r="K155" s="5" t="n"/>
       <c r="L155" s="5" t="n"/>
       <c r="M155" s="5" t="n"/>
-      <c r="N155" s="5" t="n"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="5" t="n"/>
@@ -3057,7 +3132,6 @@
       <c r="K156" s="5" t="n"/>
       <c r="L156" s="5" t="n"/>
       <c r="M156" s="5" t="n"/>
-      <c r="N156" s="5" t="n"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="5" t="n"/>
@@ -3073,7 +3147,6 @@
       <c r="K157" s="5" t="n"/>
       <c r="L157" s="5" t="n"/>
       <c r="M157" s="5" t="n"/>
-      <c r="N157" s="5" t="n"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="5" t="n"/>
@@ -3089,7 +3162,6 @@
       <c r="K158" s="5" t="n"/>
       <c r="L158" s="5" t="n"/>
       <c r="M158" s="5" t="n"/>
-      <c r="N158" s="5" t="n"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="5" t="n"/>
@@ -3105,7 +3177,6 @@
       <c r="K159" s="5" t="n"/>
       <c r="L159" s="5" t="n"/>
       <c r="M159" s="5" t="n"/>
-      <c r="N159" s="5" t="n"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="5" t="n"/>
@@ -3121,7 +3192,6 @@
       <c r="K160" s="5" t="n"/>
       <c r="L160" s="5" t="n"/>
       <c r="M160" s="5" t="n"/>
-      <c r="N160" s="5" t="n"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="5" t="n"/>
@@ -3137,7 +3207,6 @@
       <c r="K161" s="5" t="n"/>
       <c r="L161" s="5" t="n"/>
       <c r="M161" s="5" t="n"/>
-      <c r="N161" s="5" t="n"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="5" t="n"/>
@@ -3153,7 +3222,6 @@
       <c r="K162" s="5" t="n"/>
       <c r="L162" s="5" t="n"/>
       <c r="M162" s="5" t="n"/>
-      <c r="N162" s="5" t="n"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="5" t="n"/>
@@ -3169,7 +3237,6 @@
       <c r="K163" s="5" t="n"/>
       <c r="L163" s="5" t="n"/>
       <c r="M163" s="5" t="n"/>
-      <c r="N163" s="5" t="n"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="5" t="n"/>
@@ -3185,7 +3252,6 @@
       <c r="K164" s="5" t="n"/>
       <c r="L164" s="5" t="n"/>
       <c r="M164" s="5" t="n"/>
-      <c r="N164" s="5" t="n"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="5" t="n"/>
@@ -3201,7 +3267,6 @@
       <c r="K165" s="5" t="n"/>
       <c r="L165" s="5" t="n"/>
       <c r="M165" s="5" t="n"/>
-      <c r="N165" s="5" t="n"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="5" t="n"/>
@@ -3217,7 +3282,6 @@
       <c r="K166" s="5" t="n"/>
       <c r="L166" s="5" t="n"/>
       <c r="M166" s="5" t="n"/>
-      <c r="N166" s="5" t="n"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="5" t="n"/>
@@ -3233,7 +3297,6 @@
       <c r="K167" s="5" t="n"/>
       <c r="L167" s="5" t="n"/>
       <c r="M167" s="5" t="n"/>
-      <c r="N167" s="5" t="n"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="5" t="n"/>
@@ -3249,7 +3312,6 @@
       <c r="K168" s="5" t="n"/>
       <c r="L168" s="5" t="n"/>
       <c r="M168" s="5" t="n"/>
-      <c r="N168" s="5" t="n"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="5" t="n"/>
@@ -3265,7 +3327,6 @@
       <c r="K169" s="5" t="n"/>
       <c r="L169" s="5" t="n"/>
       <c r="M169" s="5" t="n"/>
-      <c r="N169" s="5" t="n"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="5" t="n"/>
@@ -3281,7 +3342,6 @@
       <c r="K170" s="5" t="n"/>
       <c r="L170" s="5" t="n"/>
       <c r="M170" s="5" t="n"/>
-      <c r="N170" s="5" t="n"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="5" t="n"/>
@@ -3297,7 +3357,6 @@
       <c r="K171" s="5" t="n"/>
       <c r="L171" s="5" t="n"/>
       <c r="M171" s="5" t="n"/>
-      <c r="N171" s="5" t="n"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="5" t="n"/>
@@ -3313,7 +3372,6 @@
       <c r="K172" s="5" t="n"/>
       <c r="L172" s="5" t="n"/>
       <c r="M172" s="5" t="n"/>
-      <c r="N172" s="5" t="n"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="5" t="n"/>
@@ -3329,7 +3387,6 @@
       <c r="K173" s="5" t="n"/>
       <c r="L173" s="5" t="n"/>
       <c r="M173" s="5" t="n"/>
-      <c r="N173" s="5" t="n"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="5" t="n"/>
@@ -3345,7 +3402,6 @@
       <c r="K174" s="5" t="n"/>
       <c r="L174" s="5" t="n"/>
       <c r="M174" s="5" t="n"/>
-      <c r="N174" s="5" t="n"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="5" t="n"/>
@@ -3361,7 +3417,6 @@
       <c r="K175" s="5" t="n"/>
       <c r="L175" s="5" t="n"/>
       <c r="M175" s="5" t="n"/>
-      <c r="N175" s="5" t="n"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="5" t="n"/>
@@ -3377,7 +3432,6 @@
       <c r="K176" s="5" t="n"/>
       <c r="L176" s="5" t="n"/>
       <c r="M176" s="5" t="n"/>
-      <c r="N176" s="5" t="n"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="5" t="n"/>
@@ -3393,7 +3447,6 @@
       <c r="K177" s="5" t="n"/>
       <c r="L177" s="5" t="n"/>
       <c r="M177" s="5" t="n"/>
-      <c r="N177" s="5" t="n"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="5" t="n"/>
@@ -3409,7 +3462,6 @@
       <c r="K178" s="5" t="n"/>
       <c r="L178" s="5" t="n"/>
       <c r="M178" s="5" t="n"/>
-      <c r="N178" s="5" t="n"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="5" t="n"/>
@@ -3425,7 +3477,6 @@
       <c r="K179" s="5" t="n"/>
       <c r="L179" s="5" t="n"/>
       <c r="M179" s="5" t="n"/>
-      <c r="N179" s="5" t="n"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="5" t="n"/>
@@ -3441,7 +3492,6 @@
       <c r="K180" s="5" t="n"/>
       <c r="L180" s="5" t="n"/>
       <c r="M180" s="5" t="n"/>
-      <c r="N180" s="5" t="n"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="5" t="n"/>
@@ -3457,7 +3507,6 @@
       <c r="K181" s="5" t="n"/>
       <c r="L181" s="5" t="n"/>
       <c r="M181" s="5" t="n"/>
-      <c r="N181" s="5" t="n"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="5" t="n"/>
@@ -3473,7 +3522,6 @@
       <c r="K182" s="5" t="n"/>
       <c r="L182" s="5" t="n"/>
       <c r="M182" s="5" t="n"/>
-      <c r="N182" s="5" t="n"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="5" t="n"/>
@@ -3489,7 +3537,6 @@
       <c r="K183" s="5" t="n"/>
       <c r="L183" s="5" t="n"/>
       <c r="M183" s="5" t="n"/>
-      <c r="N183" s="5" t="n"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="5" t="n"/>
@@ -3505,7 +3552,6 @@
       <c r="K184" s="5" t="n"/>
       <c r="L184" s="5" t="n"/>
       <c r="M184" s="5" t="n"/>
-      <c r="N184" s="5" t="n"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="5" t="n"/>
@@ -3521,7 +3567,6 @@
       <c r="K185" s="5" t="n"/>
       <c r="L185" s="5" t="n"/>
       <c r="M185" s="5" t="n"/>
-      <c r="N185" s="5" t="n"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="5" t="n"/>
@@ -3537,7 +3582,6 @@
       <c r="K186" s="5" t="n"/>
       <c r="L186" s="5" t="n"/>
       <c r="M186" s="5" t="n"/>
-      <c r="N186" s="5" t="n"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="5" t="n"/>
@@ -3553,7 +3597,6 @@
       <c r="K187" s="5" t="n"/>
       <c r="L187" s="5" t="n"/>
       <c r="M187" s="5" t="n"/>
-      <c r="N187" s="5" t="n"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="5" t="n"/>
@@ -3569,7 +3612,6 @@
       <c r="K188" s="5" t="n"/>
       <c r="L188" s="5" t="n"/>
       <c r="M188" s="5" t="n"/>
-      <c r="N188" s="5" t="n"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="5" t="n"/>
@@ -3585,7 +3627,6 @@
       <c r="K189" s="5" t="n"/>
       <c r="L189" s="5" t="n"/>
       <c r="M189" s="5" t="n"/>
-      <c r="N189" s="5" t="n"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="5" t="n"/>
@@ -3601,7 +3642,6 @@
       <c r="K190" s="5" t="n"/>
       <c r="L190" s="5" t="n"/>
       <c r="M190" s="5" t="n"/>
-      <c r="N190" s="5" t="n"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="5" t="n"/>
@@ -3617,7 +3657,6 @@
       <c r="K191" s="5" t="n"/>
       <c r="L191" s="5" t="n"/>
       <c r="M191" s="5" t="n"/>
-      <c r="N191" s="5" t="n"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="5" t="n"/>
@@ -3633,7 +3672,6 @@
       <c r="K192" s="5" t="n"/>
       <c r="L192" s="5" t="n"/>
       <c r="M192" s="5" t="n"/>
-      <c r="N192" s="5" t="n"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="5" t="n"/>
@@ -3649,7 +3687,6 @@
       <c r="K193" s="5" t="n"/>
       <c r="L193" s="5" t="n"/>
       <c r="M193" s="5" t="n"/>
-      <c r="N193" s="5" t="n"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="5" t="n"/>
@@ -3665,7 +3702,6 @@
       <c r="K194" s="5" t="n"/>
       <c r="L194" s="5" t="n"/>
       <c r="M194" s="5" t="n"/>
-      <c r="N194" s="5" t="n"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="5" t="n"/>
@@ -3681,7 +3717,6 @@
       <c r="K195" s="5" t="n"/>
       <c r="L195" s="5" t="n"/>
       <c r="M195" s="5" t="n"/>
-      <c r="N195" s="5" t="n"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="5" t="n"/>
@@ -3697,7 +3732,6 @@
       <c r="K196" s="5" t="n"/>
       <c r="L196" s="5" t="n"/>
       <c r="M196" s="5" t="n"/>
-      <c r="N196" s="5" t="n"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="5" t="n"/>
@@ -3713,7 +3747,6 @@
       <c r="K197" s="5" t="n"/>
       <c r="L197" s="5" t="n"/>
       <c r="M197" s="5" t="n"/>
-      <c r="N197" s="5" t="n"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="5" t="n"/>
@@ -3729,7 +3762,6 @@
       <c r="K198" s="5" t="n"/>
       <c r="L198" s="5" t="n"/>
       <c r="M198" s="5" t="n"/>
-      <c r="N198" s="5" t="n"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="5" t="n"/>
@@ -3745,7 +3777,6 @@
       <c r="K199" s="5" t="n"/>
       <c r="L199" s="5" t="n"/>
       <c r="M199" s="5" t="n"/>
-      <c r="N199" s="5" t="n"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="5" t="n"/>
@@ -3761,7 +3792,6 @@
       <c r="K200" s="5" t="n"/>
       <c r="L200" s="5" t="n"/>
       <c r="M200" s="5" t="n"/>
-      <c r="N200" s="5" t="n"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="5" t="n"/>
@@ -3777,7 +3807,6 @@
       <c r="K201" s="5" t="n"/>
       <c r="L201" s="5" t="n"/>
       <c r="M201" s="5" t="n"/>
-      <c r="N201" s="5" t="n"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="5" t="n"/>
@@ -3793,7 +3822,6 @@
       <c r="K202" s="5" t="n"/>
       <c r="L202" s="5" t="n"/>
       <c r="M202" s="5" t="n"/>
-      <c r="N202" s="5" t="n"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="5" t="n"/>
@@ -3809,7 +3837,6 @@
       <c r="K203" s="5" t="n"/>
       <c r="L203" s="5" t="n"/>
       <c r="M203" s="5" t="n"/>
-      <c r="N203" s="5" t="n"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="5" t="n"/>
@@ -3825,7 +3852,6 @@
       <c r="K204" s="5" t="n"/>
       <c r="L204" s="5" t="n"/>
       <c r="M204" s="5" t="n"/>
-      <c r="N204" s="5" t="n"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="5" t="n"/>
@@ -3841,7 +3867,6 @@
       <c r="K205" s="5" t="n"/>
       <c r="L205" s="5" t="n"/>
       <c r="M205" s="5" t="n"/>
-      <c r="N205" s="5" t="n"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="5" t="n"/>
@@ -3857,7 +3882,6 @@
       <c r="K206" s="5" t="n"/>
       <c r="L206" s="5" t="n"/>
       <c r="M206" s="5" t="n"/>
-      <c r="N206" s="5" t="n"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="5" t="n"/>
@@ -3873,7 +3897,6 @@
       <c r="K207" s="5" t="n"/>
       <c r="L207" s="5" t="n"/>
       <c r="M207" s="5" t="n"/>
-      <c r="N207" s="5" t="n"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="5" t="n"/>
@@ -3889,7 +3912,6 @@
       <c r="K208" s="5" t="n"/>
       <c r="L208" s="5" t="n"/>
       <c r="M208" s="5" t="n"/>
-      <c r="N208" s="5" t="n"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="5" t="n"/>
@@ -3905,7 +3927,6 @@
       <c r="K209" s="5" t="n"/>
       <c r="L209" s="5" t="n"/>
       <c r="M209" s="5" t="n"/>
-      <c r="N209" s="5" t="n"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="5" t="n"/>
@@ -3921,7 +3942,6 @@
       <c r="K210" s="5" t="n"/>
       <c r="L210" s="5" t="n"/>
       <c r="M210" s="5" t="n"/>
-      <c r="N210" s="5" t="n"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="5" t="n"/>
@@ -3937,7 +3957,6 @@
       <c r="K211" s="5" t="n"/>
       <c r="L211" s="5" t="n"/>
       <c r="M211" s="5" t="n"/>
-      <c r="N211" s="5" t="n"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="5" t="n"/>
@@ -3953,7 +3972,6 @@
       <c r="K212" s="5" t="n"/>
       <c r="L212" s="5" t="n"/>
       <c r="M212" s="5" t="n"/>
-      <c r="N212" s="5" t="n"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="5" t="n"/>
@@ -3969,7 +3987,6 @@
       <c r="K213" s="5" t="n"/>
       <c r="L213" s="5" t="n"/>
       <c r="M213" s="5" t="n"/>
-      <c r="N213" s="5" t="n"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="5" t="n"/>
@@ -3985,7 +4002,6 @@
       <c r="K214" s="5" t="n"/>
       <c r="L214" s="5" t="n"/>
       <c r="M214" s="5" t="n"/>
-      <c r="N214" s="5" t="n"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="5" t="n"/>
@@ -4001,7 +4017,6 @@
       <c r="K215" s="5" t="n"/>
       <c r="L215" s="5" t="n"/>
       <c r="M215" s="5" t="n"/>
-      <c r="N215" s="5" t="n"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="5" t="n"/>
@@ -4017,7 +4032,6 @@
       <c r="K216" s="5" t="n"/>
       <c r="L216" s="5" t="n"/>
       <c r="M216" s="5" t="n"/>
-      <c r="N216" s="5" t="n"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="5" t="n"/>
@@ -4033,7 +4047,6 @@
       <c r="K217" s="5" t="n"/>
       <c r="L217" s="5" t="n"/>
       <c r="M217" s="5" t="n"/>
-      <c r="N217" s="5" t="n"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="5" t="n"/>
@@ -4049,7 +4062,6 @@
       <c r="K218" s="5" t="n"/>
       <c r="L218" s="5" t="n"/>
       <c r="M218" s="5" t="n"/>
-      <c r="N218" s="5" t="n"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="5" t="n"/>
@@ -4065,7 +4077,6 @@
       <c r="K219" s="5" t="n"/>
       <c r="L219" s="5" t="n"/>
       <c r="M219" s="5" t="n"/>
-      <c r="N219" s="5" t="n"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="5" t="n"/>
@@ -4081,7 +4092,6 @@
       <c r="K220" s="5" t="n"/>
       <c r="L220" s="5" t="n"/>
       <c r="M220" s="5" t="n"/>
-      <c r="N220" s="5" t="n"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="5" t="n"/>
@@ -4097,7 +4107,6 @@
       <c r="K221" s="5" t="n"/>
       <c r="L221" s="5" t="n"/>
       <c r="M221" s="5" t="n"/>
-      <c r="N221" s="5" t="n"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="5" t="n"/>
@@ -4113,7 +4122,6 @@
       <c r="K222" s="5" t="n"/>
       <c r="L222" s="5" t="n"/>
       <c r="M222" s="5" t="n"/>
-      <c r="N222" s="5" t="n"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="5" t="n"/>
@@ -4129,7 +4137,6 @@
       <c r="K223" s="5" t="n"/>
       <c r="L223" s="5" t="n"/>
       <c r="M223" s="5" t="n"/>
-      <c r="N223" s="5" t="n"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="5" t="n"/>
@@ -4145,7 +4152,6 @@
       <c r="K224" s="5" t="n"/>
       <c r="L224" s="5" t="n"/>
       <c r="M224" s="5" t="n"/>
-      <c r="N224" s="5" t="n"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="5" t="n"/>
@@ -4161,7 +4167,6 @@
       <c r="K225" s="5" t="n"/>
       <c r="L225" s="5" t="n"/>
       <c r="M225" s="5" t="n"/>
-      <c r="N225" s="5" t="n"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="5" t="n"/>
@@ -4177,7 +4182,6 @@
       <c r="K226" s="5" t="n"/>
       <c r="L226" s="5" t="n"/>
       <c r="M226" s="5" t="n"/>
-      <c r="N226" s="5" t="n"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="5" t="n"/>
@@ -4193,7 +4197,6 @@
       <c r="K227" s="5" t="n"/>
       <c r="L227" s="5" t="n"/>
       <c r="M227" s="5" t="n"/>
-      <c r="N227" s="5" t="n"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="5" t="n"/>
@@ -4209,7 +4212,6 @@
       <c r="K228" s="5" t="n"/>
       <c r="L228" s="5" t="n"/>
       <c r="M228" s="5" t="n"/>
-      <c r="N228" s="5" t="n"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="5" t="n"/>
@@ -4225,7 +4227,6 @@
       <c r="K229" s="5" t="n"/>
       <c r="L229" s="5" t="n"/>
       <c r="M229" s="5" t="n"/>
-      <c r="N229" s="5" t="n"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="5" t="n"/>
@@ -4241,7 +4242,6 @@
       <c r="K230" s="5" t="n"/>
       <c r="L230" s="5" t="n"/>
       <c r="M230" s="5" t="n"/>
-      <c r="N230" s="5" t="n"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="5" t="n"/>
@@ -4257,7 +4257,6 @@
       <c r="K231" s="5" t="n"/>
       <c r="L231" s="5" t="n"/>
       <c r="M231" s="5" t="n"/>
-      <c r="N231" s="5" t="n"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="5" t="n"/>
@@ -4273,7 +4272,6 @@
       <c r="K232" s="5" t="n"/>
       <c r="L232" s="5" t="n"/>
       <c r="M232" s="5" t="n"/>
-      <c r="N232" s="5" t="n"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="5" t="n"/>
@@ -4289,7 +4287,6 @@
       <c r="K233" s="5" t="n"/>
       <c r="L233" s="5" t="n"/>
       <c r="M233" s="5" t="n"/>
-      <c r="N233" s="5" t="n"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="5" t="n"/>
@@ -4305,7 +4302,6 @@
       <c r="K234" s="5" t="n"/>
       <c r="L234" s="5" t="n"/>
       <c r="M234" s="5" t="n"/>
-      <c r="N234" s="5" t="n"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="5" t="n"/>
@@ -4321,7 +4317,6 @@
       <c r="K235" s="5" t="n"/>
       <c r="L235" s="5" t="n"/>
       <c r="M235" s="5" t="n"/>
-      <c r="N235" s="5" t="n"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="5" t="n"/>
@@ -4337,7 +4332,6 @@
       <c r="K236" s="5" t="n"/>
       <c r="L236" s="5" t="n"/>
       <c r="M236" s="5" t="n"/>
-      <c r="N236" s="5" t="n"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="5" t="n"/>
@@ -4353,7 +4347,6 @@
       <c r="K237" s="5" t="n"/>
       <c r="L237" s="5" t="n"/>
       <c r="M237" s="5" t="n"/>
-      <c r="N237" s="5" t="n"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="5" t="n"/>
@@ -4369,7 +4362,6 @@
       <c r="K238" s="5" t="n"/>
       <c r="L238" s="5" t="n"/>
       <c r="M238" s="5" t="n"/>
-      <c r="N238" s="5" t="n"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="5" t="n"/>
@@ -4385,7 +4377,6 @@
       <c r="K239" s="5" t="n"/>
       <c r="L239" s="5" t="n"/>
       <c r="M239" s="5" t="n"/>
-      <c r="N239" s="5" t="n"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="5" t="n"/>
@@ -4401,7 +4392,6 @@
       <c r="K240" s="5" t="n"/>
       <c r="L240" s="5" t="n"/>
       <c r="M240" s="5" t="n"/>
-      <c r="N240" s="5" t="n"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="5" t="n"/>
@@ -4417,7 +4407,6 @@
       <c r="K241" s="5" t="n"/>
       <c r="L241" s="5" t="n"/>
       <c r="M241" s="5" t="n"/>
-      <c r="N241" s="5" t="n"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="5" t="n"/>
@@ -4433,7 +4422,6 @@
       <c r="K242" s="5" t="n"/>
       <c r="L242" s="5" t="n"/>
       <c r="M242" s="5" t="n"/>
-      <c r="N242" s="5" t="n"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="5" t="n"/>
@@ -4449,7 +4437,6 @@
       <c r="K243" s="5" t="n"/>
       <c r="L243" s="5" t="n"/>
       <c r="M243" s="5" t="n"/>
-      <c r="N243" s="5" t="n"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="5" t="n"/>
@@ -4465,7 +4452,6 @@
       <c r="K244" s="5" t="n"/>
       <c r="L244" s="5" t="n"/>
       <c r="M244" s="5" t="n"/>
-      <c r="N244" s="5" t="n"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="5" t="n"/>
@@ -4481,7 +4467,6 @@
       <c r="K245" s="5" t="n"/>
       <c r="L245" s="5" t="n"/>
       <c r="M245" s="5" t="n"/>
-      <c r="N245" s="5" t="n"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="5" t="n"/>
@@ -4497,7 +4482,6 @@
       <c r="K246" s="5" t="n"/>
       <c r="L246" s="5" t="n"/>
       <c r="M246" s="5" t="n"/>
-      <c r="N246" s="5" t="n"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="5" t="n"/>
@@ -4513,7 +4497,6 @@
       <c r="K247" s="5" t="n"/>
       <c r="L247" s="5" t="n"/>
       <c r="M247" s="5" t="n"/>
-      <c r="N247" s="5" t="n"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="5" t="n"/>
@@ -4529,7 +4512,6 @@
       <c r="K248" s="5" t="n"/>
       <c r="L248" s="5" t="n"/>
       <c r="M248" s="5" t="n"/>
-      <c r="N248" s="5" t="n"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="5" t="n"/>
@@ -4545,7 +4527,6 @@
       <c r="K249" s="5" t="n"/>
       <c r="L249" s="5" t="n"/>
       <c r="M249" s="5" t="n"/>
-      <c r="N249" s="5" t="n"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="5" t="n"/>
@@ -4561,7 +4542,6 @@
       <c r="K250" s="5" t="n"/>
       <c r="L250" s="5" t="n"/>
       <c r="M250" s="5" t="n"/>
-      <c r="N250" s="5" t="n"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="5" t="n"/>
@@ -4577,7 +4557,6 @@
       <c r="K251" s="5" t="n"/>
       <c r="L251" s="5" t="n"/>
       <c r="M251" s="5" t="n"/>
-      <c r="N251" s="5" t="n"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="5" t="n"/>
@@ -4593,7 +4572,6 @@
       <c r="K252" s="5" t="n"/>
       <c r="L252" s="5" t="n"/>
       <c r="M252" s="5" t="n"/>
-      <c r="N252" s="5" t="n"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="5" t="n"/>
@@ -4609,7 +4587,6 @@
       <c r="K253" s="5" t="n"/>
       <c r="L253" s="5" t="n"/>
       <c r="M253" s="5" t="n"/>
-      <c r="N253" s="5" t="n"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="5" t="n"/>
@@ -4625,7 +4602,6 @@
       <c r="K254" s="5" t="n"/>
       <c r="L254" s="5" t="n"/>
       <c r="M254" s="5" t="n"/>
-      <c r="N254" s="5" t="n"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="5" t="n"/>
@@ -4641,7 +4617,6 @@
       <c r="K255" s="5" t="n"/>
       <c r="L255" s="5" t="n"/>
       <c r="M255" s="5" t="n"/>
-      <c r="N255" s="5" t="n"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="5" t="n"/>
@@ -4657,7 +4632,6 @@
       <c r="K256" s="5" t="n"/>
       <c r="L256" s="5" t="n"/>
       <c r="M256" s="5" t="n"/>
-      <c r="N256" s="5" t="n"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="5" t="n"/>
@@ -4673,7 +4647,6 @@
       <c r="K257" s="5" t="n"/>
       <c r="L257" s="5" t="n"/>
       <c r="M257" s="5" t="n"/>
-      <c r="N257" s="5" t="n"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="5" t="n"/>
@@ -4689,7 +4662,6 @@
       <c r="K258" s="5" t="n"/>
       <c r="L258" s="5" t="n"/>
       <c r="M258" s="5" t="n"/>
-      <c r="N258" s="5" t="n"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="5" t="n"/>
@@ -4705,7 +4677,6 @@
       <c r="K259" s="5" t="n"/>
       <c r="L259" s="5" t="n"/>
       <c r="M259" s="5" t="n"/>
-      <c r="N259" s="5" t="n"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="5" t="n"/>
@@ -4721,7 +4692,6 @@
       <c r="K260" s="5" t="n"/>
       <c r="L260" s="5" t="n"/>
       <c r="M260" s="5" t="n"/>
-      <c r="N260" s="5" t="n"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="5" t="n"/>
@@ -4737,7 +4707,6 @@
       <c r="K261" s="5" t="n"/>
       <c r="L261" s="5" t="n"/>
       <c r="M261" s="5" t="n"/>
-      <c r="N261" s="5" t="n"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="5" t="n"/>
@@ -4753,7 +4722,6 @@
       <c r="K262" s="5" t="n"/>
       <c r="L262" s="5" t="n"/>
       <c r="M262" s="5" t="n"/>
-      <c r="N262" s="5" t="n"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="5" t="n"/>
@@ -4769,7 +4737,6 @@
       <c r="K263" s="5" t="n"/>
       <c r="L263" s="5" t="n"/>
       <c r="M263" s="5" t="n"/>
-      <c r="N263" s="5" t="n"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="5" t="n"/>
@@ -4785,7 +4752,6 @@
       <c r="K264" s="5" t="n"/>
       <c r="L264" s="5" t="n"/>
       <c r="M264" s="5" t="n"/>
-      <c r="N264" s="5" t="n"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="5" t="n"/>
@@ -4801,7 +4767,6 @@
       <c r="K265" s="5" t="n"/>
       <c r="L265" s="5" t="n"/>
       <c r="M265" s="5" t="n"/>
-      <c r="N265" s="5" t="n"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="5" t="n"/>
@@ -4817,7 +4782,6 @@
       <c r="K266" s="5" t="n"/>
       <c r="L266" s="5" t="n"/>
       <c r="M266" s="5" t="n"/>
-      <c r="N266" s="5" t="n"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="5" t="n"/>
@@ -4833,7 +4797,6 @@
       <c r="K267" s="5" t="n"/>
       <c r="L267" s="5" t="n"/>
       <c r="M267" s="5" t="n"/>
-      <c r="N267" s="5" t="n"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="5" t="n"/>
@@ -4849,7 +4812,6 @@
       <c r="K268" s="5" t="n"/>
       <c r="L268" s="5" t="n"/>
       <c r="M268" s="5" t="n"/>
-      <c r="N268" s="5" t="n"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="5" t="n"/>
@@ -4865,7 +4827,6 @@
       <c r="K269" s="5" t="n"/>
       <c r="L269" s="5" t="n"/>
       <c r="M269" s="5" t="n"/>
-      <c r="N269" s="5" t="n"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="5" t="n"/>
@@ -4881,7 +4842,6 @@
       <c r="K270" s="5" t="n"/>
       <c r="L270" s="5" t="n"/>
       <c r="M270" s="5" t="n"/>
-      <c r="N270" s="5" t="n"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="5" t="n"/>
@@ -4897,7 +4857,6 @@
       <c r="K271" s="5" t="n"/>
       <c r="L271" s="5" t="n"/>
       <c r="M271" s="5" t="n"/>
-      <c r="N271" s="5" t="n"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="5" t="n"/>
@@ -4913,7 +4872,6 @@
       <c r="K272" s="5" t="n"/>
       <c r="L272" s="5" t="n"/>
       <c r="M272" s="5" t="n"/>
-      <c r="N272" s="5" t="n"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="5" t="n"/>
@@ -4929,7 +4887,6 @@
       <c r="K273" s="5" t="n"/>
       <c r="L273" s="5" t="n"/>
       <c r="M273" s="5" t="n"/>
-      <c r="N273" s="5" t="n"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="5" t="n"/>
@@ -4945,7 +4902,6 @@
       <c r="K274" s="5" t="n"/>
       <c r="L274" s="5" t="n"/>
       <c r="M274" s="5" t="n"/>
-      <c r="N274" s="5" t="n"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="5" t="n"/>
@@ -4961,7 +4917,6 @@
       <c r="K275" s="5" t="n"/>
       <c r="L275" s="5" t="n"/>
       <c r="M275" s="5" t="n"/>
-      <c r="N275" s="5" t="n"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="5" t="n"/>
@@ -4977,7 +4932,6 @@
       <c r="K276" s="5" t="n"/>
       <c r="L276" s="5" t="n"/>
       <c r="M276" s="5" t="n"/>
-      <c r="N276" s="5" t="n"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="5" t="n"/>
@@ -4993,7 +4947,6 @@
       <c r="K277" s="5" t="n"/>
       <c r="L277" s="5" t="n"/>
       <c r="M277" s="5" t="n"/>
-      <c r="N277" s="5" t="n"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="5" t="n"/>
@@ -5009,7 +4962,6 @@
       <c r="K278" s="5" t="n"/>
       <c r="L278" s="5" t="n"/>
       <c r="M278" s="5" t="n"/>
-      <c r="N278" s="5" t="n"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="5" t="n"/>
@@ -5025,7 +4977,6 @@
       <c r="K279" s="5" t="n"/>
       <c r="L279" s="5" t="n"/>
       <c r="M279" s="5" t="n"/>
-      <c r="N279" s="5" t="n"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="5" t="n"/>
@@ -5041,7 +4992,6 @@
       <c r="K280" s="5" t="n"/>
       <c r="L280" s="5" t="n"/>
       <c r="M280" s="5" t="n"/>
-      <c r="N280" s="5" t="n"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="5" t="n"/>
@@ -5057,7 +5007,6 @@
       <c r="K281" s="5" t="n"/>
       <c r="L281" s="5" t="n"/>
       <c r="M281" s="5" t="n"/>
-      <c r="N281" s="5" t="n"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="5" t="n"/>
@@ -5073,7 +5022,6 @@
       <c r="K282" s="5" t="n"/>
       <c r="L282" s="5" t="n"/>
       <c r="M282" s="5" t="n"/>
-      <c r="N282" s="5" t="n"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="5" t="n"/>
@@ -5089,7 +5037,6 @@
       <c r="K283" s="5" t="n"/>
       <c r="L283" s="5" t="n"/>
       <c r="M283" s="5" t="n"/>
-      <c r="N283" s="5" t="n"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="5" t="n"/>
@@ -5105,7 +5052,6 @@
       <c r="K284" s="5" t="n"/>
       <c r="L284" s="5" t="n"/>
       <c r="M284" s="5" t="n"/>
-      <c r="N284" s="5" t="n"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="5" t="n"/>
@@ -5121,7 +5067,6 @@
       <c r="K285" s="5" t="n"/>
       <c r="L285" s="5" t="n"/>
       <c r="M285" s="5" t="n"/>
-      <c r="N285" s="5" t="n"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="5" t="n"/>
@@ -5137,7 +5082,6 @@
       <c r="K286" s="5" t="n"/>
       <c r="L286" s="5" t="n"/>
       <c r="M286" s="5" t="n"/>
-      <c r="N286" s="5" t="n"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="5" t="n"/>
@@ -5153,7 +5097,6 @@
       <c r="K287" s="5" t="n"/>
       <c r="L287" s="5" t="n"/>
       <c r="M287" s="5" t="n"/>
-      <c r="N287" s="5" t="n"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="5" t="n"/>
@@ -5169,7 +5112,6 @@
       <c r="K288" s="5" t="n"/>
       <c r="L288" s="5" t="n"/>
       <c r="M288" s="5" t="n"/>
-      <c r="N288" s="5" t="n"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="5" t="n"/>
@@ -5185,7 +5127,6 @@
       <c r="K289" s="5" t="n"/>
       <c r="L289" s="5" t="n"/>
       <c r="M289" s="5" t="n"/>
-      <c r="N289" s="5" t="n"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="5" t="n"/>
@@ -5201,7 +5142,6 @@
       <c r="K290" s="5" t="n"/>
       <c r="L290" s="5" t="n"/>
       <c r="M290" s="5" t="n"/>
-      <c r="N290" s="5" t="n"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="5" t="n"/>
@@ -5217,7 +5157,6 @@
       <c r="K291" s="5" t="n"/>
       <c r="L291" s="5" t="n"/>
       <c r="M291" s="5" t="n"/>
-      <c r="N291" s="5" t="n"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="5" t="n"/>
@@ -5233,7 +5172,6 @@
       <c r="K292" s="5" t="n"/>
       <c r="L292" s="5" t="n"/>
       <c r="M292" s="5" t="n"/>
-      <c r="N292" s="5" t="n"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="5" t="n"/>
@@ -5249,7 +5187,6 @@
       <c r="K293" s="5" t="n"/>
       <c r="L293" s="5" t="n"/>
       <c r="M293" s="5" t="n"/>
-      <c r="N293" s="5" t="n"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="5" t="n"/>
@@ -5265,7 +5202,6 @@
       <c r="K294" s="5" t="n"/>
       <c r="L294" s="5" t="n"/>
       <c r="M294" s="5" t="n"/>
-      <c r="N294" s="5" t="n"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="5" t="n"/>
@@ -5281,7 +5217,6 @@
       <c r="K295" s="5" t="n"/>
       <c r="L295" s="5" t="n"/>
       <c r="M295" s="5" t="n"/>
-      <c r="N295" s="5" t="n"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="5" t="n"/>
@@ -5297,7 +5232,6 @@
       <c r="K296" s="5" t="n"/>
       <c r="L296" s="5" t="n"/>
       <c r="M296" s="5" t="n"/>
-      <c r="N296" s="5" t="n"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="5" t="n"/>
@@ -5313,7 +5247,6 @@
       <c r="K297" s="5" t="n"/>
       <c r="L297" s="5" t="n"/>
       <c r="M297" s="5" t="n"/>
-      <c r="N297" s="5" t="n"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="5" t="n"/>
@@ -5329,7 +5262,6 @@
       <c r="K298" s="5" t="n"/>
       <c r="L298" s="5" t="n"/>
       <c r="M298" s="5" t="n"/>
-      <c r="N298" s="5" t="n"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="5" t="n"/>
@@ -5345,7 +5277,6 @@
       <c r="K299" s="5" t="n"/>
       <c r="L299" s="5" t="n"/>
       <c r="M299" s="5" t="n"/>
-      <c r="N299" s="5" t="n"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="5" t="n"/>
@@ -5361,7 +5292,6 @@
       <c r="K300" s="5" t="n"/>
       <c r="L300" s="5" t="n"/>
       <c r="M300" s="5" t="n"/>
-      <c r="N300" s="5" t="n"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="5" t="n"/>
@@ -5377,7 +5307,6 @@
       <c r="K301" s="5" t="n"/>
       <c r="L301" s="5" t="n"/>
       <c r="M301" s="5" t="n"/>
-      <c r="N301" s="5" t="n"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="5" t="n"/>
@@ -5393,7 +5322,6 @@
       <c r="K302" s="5" t="n"/>
       <c r="L302" s="5" t="n"/>
       <c r="M302" s="5" t="n"/>
-      <c r="N302" s="5" t="n"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="5" t="n"/>
@@ -5409,7 +5337,6 @@
       <c r="K303" s="5" t="n"/>
       <c r="L303" s="5" t="n"/>
       <c r="M303" s="5" t="n"/>
-      <c r="N303" s="5" t="n"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="5" t="n"/>
@@ -5425,7 +5352,6 @@
       <c r="K304" s="5" t="n"/>
       <c r="L304" s="5" t="n"/>
       <c r="M304" s="5" t="n"/>
-      <c r="N304" s="5" t="n"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="5" t="n"/>
@@ -5441,7 +5367,6 @@
       <c r="K305" s="5" t="n"/>
       <c r="L305" s="5" t="n"/>
       <c r="M305" s="5" t="n"/>
-      <c r="N305" s="5" t="n"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="5" t="n"/>
@@ -5457,7 +5382,6 @@
       <c r="K306" s="5" t="n"/>
       <c r="L306" s="5" t="n"/>
       <c r="M306" s="5" t="n"/>
-      <c r="N306" s="5" t="n"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="5" t="n"/>
@@ -5473,7 +5397,6 @@
       <c r="K307" s="5" t="n"/>
       <c r="L307" s="5" t="n"/>
       <c r="M307" s="5" t="n"/>
-      <c r="N307" s="5" t="n"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="5" t="n"/>
@@ -5489,7 +5412,6 @@
       <c r="K308" s="5" t="n"/>
       <c r="L308" s="5" t="n"/>
       <c r="M308" s="5" t="n"/>
-      <c r="N308" s="5" t="n"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="5" t="n"/>
@@ -5505,7 +5427,6 @@
       <c r="K309" s="5" t="n"/>
       <c r="L309" s="5" t="n"/>
       <c r="M309" s="5" t="n"/>
-      <c r="N309" s="5" t="n"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="5" t="n"/>
@@ -5521,7 +5442,6 @@
       <c r="K310" s="5" t="n"/>
       <c r="L310" s="5" t="n"/>
       <c r="M310" s="5" t="n"/>
-      <c r="N310" s="5" t="n"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="5" t="n"/>
@@ -5537,7 +5457,6 @@
       <c r="K311" s="5" t="n"/>
       <c r="L311" s="5" t="n"/>
       <c r="M311" s="5" t="n"/>
-      <c r="N311" s="5" t="n"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="5" t="n"/>
@@ -5553,7 +5472,6 @@
       <c r="K312" s="5" t="n"/>
       <c r="L312" s="5" t="n"/>
       <c r="M312" s="5" t="n"/>
-      <c r="N312" s="5" t="n"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="5" t="n"/>
@@ -5569,7 +5487,6 @@
       <c r="K313" s="5" t="n"/>
       <c r="L313" s="5" t="n"/>
       <c r="M313" s="5" t="n"/>
-      <c r="N313" s="5" t="n"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="5" t="n"/>
@@ -5585,7 +5502,6 @@
       <c r="K314" s="5" t="n"/>
       <c r="L314" s="5" t="n"/>
       <c r="M314" s="5" t="n"/>
-      <c r="N314" s="5" t="n"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="5" t="n"/>
@@ -5601,7 +5517,6 @@
       <c r="K315" s="5" t="n"/>
       <c r="L315" s="5" t="n"/>
       <c r="M315" s="5" t="n"/>
-      <c r="N315" s="5" t="n"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="5" t="n"/>
@@ -5617,7 +5532,6 @@
       <c r="K316" s="5" t="n"/>
       <c r="L316" s="5" t="n"/>
       <c r="M316" s="5" t="n"/>
-      <c r="N316" s="5" t="n"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="5" t="n"/>
@@ -5633,7 +5547,6 @@
       <c r="K317" s="5" t="n"/>
       <c r="L317" s="5" t="n"/>
       <c r="M317" s="5" t="n"/>
-      <c r="N317" s="5" t="n"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="5" t="n"/>
@@ -5649,7 +5562,6 @@
       <c r="K318" s="5" t="n"/>
       <c r="L318" s="5" t="n"/>
       <c r="M318" s="5" t="n"/>
-      <c r="N318" s="5" t="n"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="5" t="n"/>
@@ -5665,7 +5577,6 @@
       <c r="K319" s="5" t="n"/>
       <c r="L319" s="5" t="n"/>
       <c r="M319" s="5" t="n"/>
-      <c r="N319" s="5" t="n"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="5" t="n"/>
@@ -5681,7 +5592,6 @@
       <c r="K320" s="5" t="n"/>
       <c r="L320" s="5" t="n"/>
       <c r="M320" s="5" t="n"/>
-      <c r="N320" s="5" t="n"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="5" t="n"/>
@@ -5697,7 +5607,6 @@
       <c r="K321" s="5" t="n"/>
       <c r="L321" s="5" t="n"/>
       <c r="M321" s="5" t="n"/>
-      <c r="N321" s="5" t="n"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="5" t="n"/>
@@ -5713,7 +5622,6 @@
       <c r="K322" s="5" t="n"/>
       <c r="L322" s="5" t="n"/>
       <c r="M322" s="5" t="n"/>
-      <c r="N322" s="5" t="n"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="5" t="n"/>
@@ -5729,7 +5637,6 @@
       <c r="K323" s="5" t="n"/>
       <c r="L323" s="5" t="n"/>
       <c r="M323" s="5" t="n"/>
-      <c r="N323" s="5" t="n"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="5" t="n"/>
@@ -5745,7 +5652,6 @@
       <c r="K324" s="5" t="n"/>
       <c r="L324" s="5" t="n"/>
       <c r="M324" s="5" t="n"/>
-      <c r="N324" s="5" t="n"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="5" t="n"/>
@@ -5761,7 +5667,6 @@
       <c r="K325" s="5" t="n"/>
       <c r="L325" s="5" t="n"/>
       <c r="M325" s="5" t="n"/>
-      <c r="N325" s="5" t="n"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="5" t="n"/>
@@ -5777,7 +5682,6 @@
       <c r="K326" s="5" t="n"/>
       <c r="L326" s="5" t="n"/>
       <c r="M326" s="5" t="n"/>
-      <c r="N326" s="5" t="n"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="5" t="n"/>
@@ -5793,7 +5697,6 @@
       <c r="K327" s="5" t="n"/>
       <c r="L327" s="5" t="n"/>
       <c r="M327" s="5" t="n"/>
-      <c r="N327" s="5" t="n"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="5" t="n"/>
@@ -5809,7 +5712,6 @@
       <c r="K328" s="5" t="n"/>
       <c r="L328" s="5" t="n"/>
       <c r="M328" s="5" t="n"/>
-      <c r="N328" s="5" t="n"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="5" t="n"/>
@@ -5825,7 +5727,6 @@
       <c r="K329" s="5" t="n"/>
       <c r="L329" s="5" t="n"/>
       <c r="M329" s="5" t="n"/>
-      <c r="N329" s="5" t="n"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="5" t="n"/>
@@ -5841,7 +5742,6 @@
       <c r="K330" s="5" t="n"/>
       <c r="L330" s="5" t="n"/>
       <c r="M330" s="5" t="n"/>
-      <c r="N330" s="5" t="n"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="5" t="n"/>
@@ -5857,7 +5757,6 @@
       <c r="K331" s="5" t="n"/>
       <c r="L331" s="5" t="n"/>
       <c r="M331" s="5" t="n"/>
-      <c r="N331" s="5" t="n"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="5" t="n"/>
@@ -5873,7 +5772,6 @@
       <c r="K332" s="5" t="n"/>
       <c r="L332" s="5" t="n"/>
       <c r="M332" s="5" t="n"/>
-      <c r="N332" s="5" t="n"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="5" t="n"/>
@@ -5889,7 +5787,6 @@
       <c r="K333" s="5" t="n"/>
       <c r="L333" s="5" t="n"/>
       <c r="M333" s="5" t="n"/>
-      <c r="N333" s="5" t="n"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="5" t="n"/>
@@ -5905,7 +5802,6 @@
       <c r="K334" s="5" t="n"/>
       <c r="L334" s="5" t="n"/>
       <c r="M334" s="5" t="n"/>
-      <c r="N334" s="5" t="n"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="5" t="n"/>
@@ -5921,7 +5817,6 @@
       <c r="K335" s="5" t="n"/>
       <c r="L335" s="5" t="n"/>
       <c r="M335" s="5" t="n"/>
-      <c r="N335" s="5" t="n"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="5" t="n"/>
@@ -5937,7 +5832,6 @@
       <c r="K336" s="5" t="n"/>
       <c r="L336" s="5" t="n"/>
       <c r="M336" s="5" t="n"/>
-      <c r="N336" s="5" t="n"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="5" t="n"/>
@@ -5953,7 +5847,6 @@
       <c r="K337" s="5" t="n"/>
       <c r="L337" s="5" t="n"/>
       <c r="M337" s="5" t="n"/>
-      <c r="N337" s="5" t="n"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="5" t="n"/>
@@ -5969,7 +5862,6 @@
       <c r="K338" s="5" t="n"/>
       <c r="L338" s="5" t="n"/>
       <c r="M338" s="5" t="n"/>
-      <c r="N338" s="5" t="n"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="5" t="n"/>
@@ -5985,7 +5877,6 @@
       <c r="K339" s="5" t="n"/>
       <c r="L339" s="5" t="n"/>
       <c r="M339" s="5" t="n"/>
-      <c r="N339" s="5" t="n"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="5" t="n"/>
@@ -6001,7 +5892,6 @@
       <c r="K340" s="5" t="n"/>
       <c r="L340" s="5" t="n"/>
       <c r="M340" s="5" t="n"/>
-      <c r="N340" s="5" t="n"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="5" t="n"/>
@@ -6017,7 +5907,6 @@
       <c r="K341" s="5" t="n"/>
       <c r="L341" s="5" t="n"/>
       <c r="M341" s="5" t="n"/>
-      <c r="N341" s="5" t="n"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="5" t="n"/>
@@ -6033,7 +5922,6 @@
       <c r="K342" s="5" t="n"/>
       <c r="L342" s="5" t="n"/>
       <c r="M342" s="5" t="n"/>
-      <c r="N342" s="5" t="n"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="5" t="n"/>
@@ -6049,7 +5937,6 @@
       <c r="K343" s="5" t="n"/>
       <c r="L343" s="5" t="n"/>
       <c r="M343" s="5" t="n"/>
-      <c r="N343" s="5" t="n"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="5" t="n"/>
@@ -6065,7 +5952,6 @@
       <c r="K344" s="5" t="n"/>
       <c r="L344" s="5" t="n"/>
       <c r="M344" s="5" t="n"/>
-      <c r="N344" s="5" t="n"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="5" t="n"/>
@@ -6081,7 +5967,6 @@
       <c r="K345" s="5" t="n"/>
       <c r="L345" s="5" t="n"/>
       <c r="M345" s="5" t="n"/>
-      <c r="N345" s="5" t="n"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="5" t="n"/>
@@ -6097,7 +5982,6 @@
       <c r="K346" s="5" t="n"/>
       <c r="L346" s="5" t="n"/>
       <c r="M346" s="5" t="n"/>
-      <c r="N346" s="5" t="n"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="5" t="n"/>
@@ -6113,7 +5997,6 @@
       <c r="K347" s="5" t="n"/>
       <c r="L347" s="5" t="n"/>
       <c r="M347" s="5" t="n"/>
-      <c r="N347" s="5" t="n"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="5" t="n"/>
@@ -6129,7 +6012,6 @@
       <c r="K348" s="5" t="n"/>
       <c r="L348" s="5" t="n"/>
       <c r="M348" s="5" t="n"/>
-      <c r="N348" s="5" t="n"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="5" t="n"/>
@@ -6145,7 +6027,6 @@
       <c r="K349" s="5" t="n"/>
       <c r="L349" s="5" t="n"/>
       <c r="M349" s="5" t="n"/>
-      <c r="N349" s="5" t="n"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="5" t="n"/>
@@ -6161,7 +6042,6 @@
       <c r="K350" s="5" t="n"/>
       <c r="L350" s="5" t="n"/>
       <c r="M350" s="5" t="n"/>
-      <c r="N350" s="5" t="n"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="5" t="n"/>
@@ -6177,7 +6057,6 @@
       <c r="K351" s="5" t="n"/>
       <c r="L351" s="5" t="n"/>
       <c r="M351" s="5" t="n"/>
-      <c r="N351" s="5" t="n"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="5" t="n"/>
@@ -6193,7 +6072,6 @@
       <c r="K352" s="5" t="n"/>
       <c r="L352" s="5" t="n"/>
       <c r="M352" s="5" t="n"/>
-      <c r="N352" s="5" t="n"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="5" t="n"/>
@@ -6209,7 +6087,6 @@
       <c r="K353" s="5" t="n"/>
       <c r="L353" s="5" t="n"/>
       <c r="M353" s="5" t="n"/>
-      <c r="N353" s="5" t="n"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="5" t="n"/>
@@ -6225,7 +6102,6 @@
       <c r="K354" s="5" t="n"/>
       <c r="L354" s="5" t="n"/>
       <c r="M354" s="5" t="n"/>
-      <c r="N354" s="5" t="n"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="5" t="n"/>
@@ -6241,7 +6117,6 @@
       <c r="K355" s="5" t="n"/>
       <c r="L355" s="5" t="n"/>
       <c r="M355" s="5" t="n"/>
-      <c r="N355" s="5" t="n"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="5" t="n"/>
@@ -6257,7 +6132,6 @@
       <c r="K356" s="5" t="n"/>
       <c r="L356" s="5" t="n"/>
       <c r="M356" s="5" t="n"/>
-      <c r="N356" s="5" t="n"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="5" t="n"/>
@@ -6273,7 +6147,6 @@
       <c r="K357" s="5" t="n"/>
       <c r="L357" s="5" t="n"/>
       <c r="M357" s="5" t="n"/>
-      <c r="N357" s="5" t="n"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="5" t="n"/>
@@ -6289,7 +6162,6 @@
       <c r="K358" s="5" t="n"/>
       <c r="L358" s="5" t="n"/>
       <c r="M358" s="5" t="n"/>
-      <c r="N358" s="5" t="n"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="5" t="n"/>
@@ -6305,7 +6177,6 @@
       <c r="K359" s="5" t="n"/>
       <c r="L359" s="5" t="n"/>
       <c r="M359" s="5" t="n"/>
-      <c r="N359" s="5" t="n"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="5" t="n"/>
@@ -6321,7 +6192,6 @@
       <c r="K360" s="5" t="n"/>
       <c r="L360" s="5" t="n"/>
       <c r="M360" s="5" t="n"/>
-      <c r="N360" s="5" t="n"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="5" t="n"/>
@@ -6337,7 +6207,6 @@
       <c r="K361" s="5" t="n"/>
       <c r="L361" s="5" t="n"/>
       <c r="M361" s="5" t="n"/>
-      <c r="N361" s="5" t="n"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="5" t="n"/>
@@ -6353,7 +6222,6 @@
       <c r="K362" s="5" t="n"/>
       <c r="L362" s="5" t="n"/>
       <c r="M362" s="5" t="n"/>
-      <c r="N362" s="5" t="n"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="5" t="n"/>
@@ -6369,7 +6237,6 @@
       <c r="K363" s="5" t="n"/>
       <c r="L363" s="5" t="n"/>
       <c r="M363" s="5" t="n"/>
-      <c r="N363" s="5" t="n"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="5" t="n"/>
@@ -6385,7 +6252,6 @@
       <c r="K364" s="5" t="n"/>
       <c r="L364" s="5" t="n"/>
       <c r="M364" s="5" t="n"/>
-      <c r="N364" s="5" t="n"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="5" t="n"/>
@@ -6401,7 +6267,6 @@
       <c r="K365" s="5" t="n"/>
       <c r="L365" s="5" t="n"/>
       <c r="M365" s="5" t="n"/>
-      <c r="N365" s="5" t="n"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="5" t="n"/>
@@ -6417,7 +6282,6 @@
       <c r="K366" s="5" t="n"/>
       <c r="L366" s="5" t="n"/>
       <c r="M366" s="5" t="n"/>
-      <c r="N366" s="5" t="n"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="5" t="n"/>
@@ -6433,7 +6297,6 @@
       <c r="K367" s="5" t="n"/>
       <c r="L367" s="5" t="n"/>
       <c r="M367" s="5" t="n"/>
-      <c r="N367" s="5" t="n"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="5" t="n"/>
@@ -6449,7 +6312,6 @@
       <c r="K368" s="5" t="n"/>
       <c r="L368" s="5" t="n"/>
       <c r="M368" s="5" t="n"/>
-      <c r="N368" s="5" t="n"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="5" t="n"/>
@@ -6465,7 +6327,6 @@
       <c r="K369" s="5" t="n"/>
       <c r="L369" s="5" t="n"/>
       <c r="M369" s="5" t="n"/>
-      <c r="N369" s="5" t="n"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="5" t="n"/>
@@ -6481,7 +6342,6 @@
       <c r="K370" s="5" t="n"/>
       <c r="L370" s="5" t="n"/>
       <c r="M370" s="5" t="n"/>
-      <c r="N370" s="5" t="n"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="5" t="n"/>
@@ -6497,7 +6357,6 @@
       <c r="K371" s="5" t="n"/>
       <c r="L371" s="5" t="n"/>
       <c r="M371" s="5" t="n"/>
-      <c r="N371" s="5" t="n"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="5" t="n"/>
@@ -6513,7 +6372,6 @@
       <c r="K372" s="5" t="n"/>
       <c r="L372" s="5" t="n"/>
       <c r="M372" s="5" t="n"/>
-      <c r="N372" s="5" t="n"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="5" t="n"/>
@@ -6529,7 +6387,6 @@
       <c r="K373" s="5" t="n"/>
       <c r="L373" s="5" t="n"/>
       <c r="M373" s="5" t="n"/>
-      <c r="N373" s="5" t="n"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="5" t="n"/>
@@ -6545,7 +6402,6 @@
       <c r="K374" s="5" t="n"/>
       <c r="L374" s="5" t="n"/>
       <c r="M374" s="5" t="n"/>
-      <c r="N374" s="5" t="n"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="5" t="n"/>
@@ -6561,7 +6417,6 @@
       <c r="K375" s="5" t="n"/>
       <c r="L375" s="5" t="n"/>
       <c r="M375" s="5" t="n"/>
-      <c r="N375" s="5" t="n"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="5" t="n"/>
@@ -6577,7 +6432,6 @@
       <c r="K376" s="5" t="n"/>
       <c r="L376" s="5" t="n"/>
       <c r="M376" s="5" t="n"/>
-      <c r="N376" s="5" t="n"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="5" t="n"/>
@@ -6593,7 +6447,6 @@
       <c r="K377" s="5" t="n"/>
       <c r="L377" s="5" t="n"/>
       <c r="M377" s="5" t="n"/>
-      <c r="N377" s="5" t="n"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="5" t="n"/>
@@ -6609,7 +6462,6 @@
       <c r="K378" s="5" t="n"/>
       <c r="L378" s="5" t="n"/>
       <c r="M378" s="5" t="n"/>
-      <c r="N378" s="5" t="n"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="5" t="n"/>
@@ -6625,7 +6477,6 @@
       <c r="K379" s="5" t="n"/>
       <c r="L379" s="5" t="n"/>
       <c r="M379" s="5" t="n"/>
-      <c r="N379" s="5" t="n"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="5" t="n"/>
@@ -6641,7 +6492,6 @@
       <c r="K380" s="5" t="n"/>
       <c r="L380" s="5" t="n"/>
       <c r="M380" s="5" t="n"/>
-      <c r="N380" s="5" t="n"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="5" t="n"/>
@@ -6657,7 +6507,6 @@
       <c r="K381" s="5" t="n"/>
       <c r="L381" s="5" t="n"/>
       <c r="M381" s="5" t="n"/>
-      <c r="N381" s="5" t="n"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="5" t="n"/>
@@ -6673,7 +6522,6 @@
       <c r="K382" s="5" t="n"/>
       <c r="L382" s="5" t="n"/>
       <c r="M382" s="5" t="n"/>
-      <c r="N382" s="5" t="n"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="5" t="n"/>
@@ -6689,7 +6537,6 @@
       <c r="K383" s="5" t="n"/>
       <c r="L383" s="5" t="n"/>
       <c r="M383" s="5" t="n"/>
-      <c r="N383" s="5" t="n"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="5" t="n"/>
@@ -6705,7 +6552,6 @@
       <c r="K384" s="5" t="n"/>
       <c r="L384" s="5" t="n"/>
       <c r="M384" s="5" t="n"/>
-      <c r="N384" s="5" t="n"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="5" t="n"/>
@@ -6721,7 +6567,6 @@
       <c r="K385" s="5" t="n"/>
       <c r="L385" s="5" t="n"/>
       <c r="M385" s="5" t="n"/>
-      <c r="N385" s="5" t="n"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="5" t="n"/>
@@ -6737,7 +6582,6 @@
       <c r="K386" s="5" t="n"/>
       <c r="L386" s="5" t="n"/>
       <c r="M386" s="5" t="n"/>
-      <c r="N386" s="5" t="n"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="5" t="n"/>
@@ -6753,7 +6597,6 @@
       <c r="K387" s="5" t="n"/>
       <c r="L387" s="5" t="n"/>
       <c r="M387" s="5" t="n"/>
-      <c r="N387" s="5" t="n"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="5" t="n"/>
@@ -6769,7 +6612,6 @@
       <c r="K388" s="5" t="n"/>
       <c r="L388" s="5" t="n"/>
       <c r="M388" s="5" t="n"/>
-      <c r="N388" s="5" t="n"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="5" t="n"/>
@@ -6785,7 +6627,6 @@
       <c r="K389" s="5" t="n"/>
       <c r="L389" s="5" t="n"/>
       <c r="M389" s="5" t="n"/>
-      <c r="N389" s="5" t="n"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="5" t="n"/>
@@ -6801,7 +6642,6 @@
       <c r="K390" s="5" t="n"/>
       <c r="L390" s="5" t="n"/>
       <c r="M390" s="5" t="n"/>
-      <c r="N390" s="5" t="n"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="5" t="n"/>
@@ -6817,7 +6657,6 @@
       <c r="K391" s="5" t="n"/>
       <c r="L391" s="5" t="n"/>
       <c r="M391" s="5" t="n"/>
-      <c r="N391" s="5" t="n"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="5" t="n"/>
@@ -6833,7 +6672,6 @@
       <c r="K392" s="5" t="n"/>
       <c r="L392" s="5" t="n"/>
       <c r="M392" s="5" t="n"/>
-      <c r="N392" s="5" t="n"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="5" t="n"/>
@@ -6849,7 +6687,6 @@
       <c r="K393" s="5" t="n"/>
       <c r="L393" s="5" t="n"/>
       <c r="M393" s="5" t="n"/>
-      <c r="N393" s="5" t="n"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="5" t="n"/>
@@ -6865,7 +6702,6 @@
       <c r="K394" s="5" t="n"/>
       <c r="L394" s="5" t="n"/>
       <c r="M394" s="5" t="n"/>
-      <c r="N394" s="5" t="n"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="5" t="n"/>
@@ -6881,7 +6717,6 @@
       <c r="K395" s="5" t="n"/>
       <c r="L395" s="5" t="n"/>
       <c r="M395" s="5" t="n"/>
-      <c r="N395" s="5" t="n"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="5" t="n"/>
@@ -6897,7 +6732,6 @@
       <c r="K396" s="5" t="n"/>
       <c r="L396" s="5" t="n"/>
       <c r="M396" s="5" t="n"/>
-      <c r="N396" s="5" t="n"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="5" t="n"/>
@@ -6913,7 +6747,6 @@
       <c r="K397" s="5" t="n"/>
       <c r="L397" s="5" t="n"/>
       <c r="M397" s="5" t="n"/>
-      <c r="N397" s="5" t="n"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="5" t="n"/>
@@ -6929,7 +6762,6 @@
       <c r="K398" s="5" t="n"/>
       <c r="L398" s="5" t="n"/>
       <c r="M398" s="5" t="n"/>
-      <c r="N398" s="5" t="n"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="5" t="n"/>
@@ -6945,7 +6777,6 @@
       <c r="K399" s="5" t="n"/>
       <c r="L399" s="5" t="n"/>
       <c r="M399" s="5" t="n"/>
-      <c r="N399" s="5" t="n"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="5" t="n"/>
@@ -6961,7 +6792,6 @@
       <c r="K400" s="5" t="n"/>
       <c r="L400" s="5" t="n"/>
       <c r="M400" s="5" t="n"/>
-      <c r="N400" s="5" t="n"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="5" t="n"/>
@@ -6977,7 +6807,6 @@
       <c r="K401" s="5" t="n"/>
       <c r="L401" s="5" t="n"/>
       <c r="M401" s="5" t="n"/>
-      <c r="N401" s="5" t="n"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="5" t="n"/>
@@ -6993,7 +6822,6 @@
       <c r="K402" s="5" t="n"/>
       <c r="L402" s="5" t="n"/>
       <c r="M402" s="5" t="n"/>
-      <c r="N402" s="5" t="n"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="5" t="n"/>
@@ -7009,7 +6837,6 @@
       <c r="K403" s="5" t="n"/>
       <c r="L403" s="5" t="n"/>
       <c r="M403" s="5" t="n"/>
-      <c r="N403" s="5" t="n"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="5" t="n"/>
@@ -7025,7 +6852,6 @@
       <c r="K404" s="5" t="n"/>
       <c r="L404" s="5" t="n"/>
       <c r="M404" s="5" t="n"/>
-      <c r="N404" s="5" t="n"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="5" t="n"/>
@@ -7041,7 +6867,6 @@
       <c r="K405" s="5" t="n"/>
       <c r="L405" s="5" t="n"/>
       <c r="M405" s="5" t="n"/>
-      <c r="N405" s="5" t="n"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="5" t="n"/>
@@ -7057,7 +6882,6 @@
       <c r="K406" s="5" t="n"/>
       <c r="L406" s="5" t="n"/>
       <c r="M406" s="5" t="n"/>
-      <c r="N406" s="5" t="n"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="5" t="n"/>
@@ -7073,7 +6897,6 @@
       <c r="K407" s="5" t="n"/>
       <c r="L407" s="5" t="n"/>
       <c r="M407" s="5" t="n"/>
-      <c r="N407" s="5" t="n"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="5" t="n"/>
@@ -7089,7 +6912,6 @@
       <c r="K408" s="5" t="n"/>
       <c r="L408" s="5" t="n"/>
       <c r="M408" s="5" t="n"/>
-      <c r="N408" s="5" t="n"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="5" t="n"/>
@@ -7105,7 +6927,6 @@
       <c r="K409" s="5" t="n"/>
       <c r="L409" s="5" t="n"/>
       <c r="M409" s="5" t="n"/>
-      <c r="N409" s="5" t="n"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="5" t="n"/>
@@ -7121,7 +6942,6 @@
       <c r="K410" s="5" t="n"/>
       <c r="L410" s="5" t="n"/>
       <c r="M410" s="5" t="n"/>
-      <c r="N410" s="5" t="n"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="5" t="n"/>
@@ -7137,7 +6957,6 @@
       <c r="K411" s="5" t="n"/>
       <c r="L411" s="5" t="n"/>
       <c r="M411" s="5" t="n"/>
-      <c r="N411" s="5" t="n"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="5" t="n"/>
@@ -7153,7 +6972,6 @@
       <c r="K412" s="5" t="n"/>
       <c r="L412" s="5" t="n"/>
       <c r="M412" s="5" t="n"/>
-      <c r="N412" s="5" t="n"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="5" t="n"/>
@@ -7169,7 +6987,6 @@
       <c r="K413" s="5" t="n"/>
       <c r="L413" s="5" t="n"/>
       <c r="M413" s="5" t="n"/>
-      <c r="N413" s="5" t="n"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="5" t="n"/>
@@ -7185,7 +7002,6 @@
       <c r="K414" s="5" t="n"/>
       <c r="L414" s="5" t="n"/>
       <c r="M414" s="5" t="n"/>
-      <c r="N414" s="5" t="n"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="5" t="n"/>
@@ -7201,7 +7017,6 @@
       <c r="K415" s="5" t="n"/>
       <c r="L415" s="5" t="n"/>
       <c r="M415" s="5" t="n"/>
-      <c r="N415" s="5" t="n"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="5" t="n"/>
@@ -7217,7 +7032,6 @@
       <c r="K416" s="5" t="n"/>
       <c r="L416" s="5" t="n"/>
       <c r="M416" s="5" t="n"/>
-      <c r="N416" s="5" t="n"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="5" t="n"/>
@@ -7233,7 +7047,6 @@
       <c r="K417" s="5" t="n"/>
       <c r="L417" s="5" t="n"/>
       <c r="M417" s="5" t="n"/>
-      <c r="N417" s="5" t="n"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="5" t="n"/>
@@ -7249,7 +7062,6 @@
       <c r="K418" s="5" t="n"/>
       <c r="L418" s="5" t="n"/>
       <c r="M418" s="5" t="n"/>
-      <c r="N418" s="5" t="n"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="5" t="n"/>
@@ -7265,7 +7077,6 @@
       <c r="K419" s="5" t="n"/>
       <c r="L419" s="5" t="n"/>
       <c r="M419" s="5" t="n"/>
-      <c r="N419" s="5" t="n"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="5" t="n"/>
@@ -7281,7 +7092,6 @@
       <c r="K420" s="5" t="n"/>
       <c r="L420" s="5" t="n"/>
       <c r="M420" s="5" t="n"/>
-      <c r="N420" s="5" t="n"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="5" t="n"/>
@@ -7297,7 +7107,6 @@
       <c r="K421" s="5" t="n"/>
       <c r="L421" s="5" t="n"/>
       <c r="M421" s="5" t="n"/>
-      <c r="N421" s="5" t="n"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="5" t="n"/>
@@ -7313,7 +7122,6 @@
       <c r="K422" s="5" t="n"/>
       <c r="L422" s="5" t="n"/>
       <c r="M422" s="5" t="n"/>
-      <c r="N422" s="5" t="n"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="5" t="n"/>
@@ -7329,7 +7137,6 @@
       <c r="K423" s="5" t="n"/>
       <c r="L423" s="5" t="n"/>
       <c r="M423" s="5" t="n"/>
-      <c r="N423" s="5" t="n"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="5" t="n"/>
@@ -7345,7 +7152,6 @@
       <c r="K424" s="5" t="n"/>
       <c r="L424" s="5" t="n"/>
       <c r="M424" s="5" t="n"/>
-      <c r="N424" s="5" t="n"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="5" t="n"/>
@@ -7361,7 +7167,6 @@
       <c r="K425" s="5" t="n"/>
       <c r="L425" s="5" t="n"/>
       <c r="M425" s="5" t="n"/>
-      <c r="N425" s="5" t="n"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="5" t="n"/>
@@ -7377,7 +7182,6 @@
       <c r="K426" s="5" t="n"/>
       <c r="L426" s="5" t="n"/>
       <c r="M426" s="5" t="n"/>
-      <c r="N426" s="5" t="n"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="5" t="n"/>
@@ -7393,7 +7197,6 @@
       <c r="K427" s="5" t="n"/>
       <c r="L427" s="5" t="n"/>
       <c r="M427" s="5" t="n"/>
-      <c r="N427" s="5" t="n"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="5" t="n"/>
@@ -7409,7 +7212,6 @@
       <c r="K428" s="5" t="n"/>
       <c r="L428" s="5" t="n"/>
       <c r="M428" s="5" t="n"/>
-      <c r="N428" s="5" t="n"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="5" t="n"/>
@@ -7425,7 +7227,6 @@
       <c r="K429" s="5" t="n"/>
       <c r="L429" s="5" t="n"/>
       <c r="M429" s="5" t="n"/>
-      <c r="N429" s="5" t="n"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="5" t="n"/>
@@ -7441,7 +7242,6 @@
       <c r="K430" s="5" t="n"/>
       <c r="L430" s="5" t="n"/>
       <c r="M430" s="5" t="n"/>
-      <c r="N430" s="5" t="n"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="5" t="n"/>
@@ -7457,7 +7257,6 @@
       <c r="K431" s="5" t="n"/>
       <c r="L431" s="5" t="n"/>
       <c r="M431" s="5" t="n"/>
-      <c r="N431" s="5" t="n"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="5" t="n"/>
@@ -7473,7 +7272,6 @@
       <c r="K432" s="5" t="n"/>
       <c r="L432" s="5" t="n"/>
       <c r="M432" s="5" t="n"/>
-      <c r="N432" s="5" t="n"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="5" t="n"/>
@@ -7489,7 +7287,6 @@
       <c r="K433" s="5" t="n"/>
       <c r="L433" s="5" t="n"/>
       <c r="M433" s="5" t="n"/>
-      <c r="N433" s="5" t="n"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="5" t="n"/>
@@ -7505,7 +7302,6 @@
       <c r="K434" s="5" t="n"/>
       <c r="L434" s="5" t="n"/>
       <c r="M434" s="5" t="n"/>
-      <c r="N434" s="5" t="n"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="5" t="n"/>
@@ -7521,7 +7317,6 @@
       <c r="K435" s="5" t="n"/>
       <c r="L435" s="5" t="n"/>
       <c r="M435" s="5" t="n"/>
-      <c r="N435" s="5" t="n"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="5" t="n"/>
@@ -7537,7 +7332,6 @@
       <c r="K436" s="5" t="n"/>
       <c r="L436" s="5" t="n"/>
       <c r="M436" s="5" t="n"/>
-      <c r="N436" s="5" t="n"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="5" t="n"/>
@@ -7553,7 +7347,6 @@
       <c r="K437" s="5" t="n"/>
       <c r="L437" s="5" t="n"/>
       <c r="M437" s="5" t="n"/>
-      <c r="N437" s="5" t="n"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="5" t="n"/>
@@ -7569,7 +7362,6 @@
       <c r="K438" s="5" t="n"/>
       <c r="L438" s="5" t="n"/>
       <c r="M438" s="5" t="n"/>
-      <c r="N438" s="5" t="n"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="5" t="n"/>
@@ -7585,7 +7377,6 @@
       <c r="K439" s="5" t="n"/>
       <c r="L439" s="5" t="n"/>
       <c r="M439" s="5" t="n"/>
-      <c r="N439" s="5" t="n"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="5" t="n"/>
@@ -7601,7 +7392,6 @@
       <c r="K440" s="5" t="n"/>
       <c r="L440" s="5" t="n"/>
       <c r="M440" s="5" t="n"/>
-      <c r="N440" s="5" t="n"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="5" t="n"/>
@@ -7617,7 +7407,6 @@
       <c r="K441" s="5" t="n"/>
       <c r="L441" s="5" t="n"/>
       <c r="M441" s="5" t="n"/>
-      <c r="N441" s="5" t="n"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="5" t="n"/>
@@ -7633,7 +7422,6 @@
       <c r="K442" s="5" t="n"/>
       <c r="L442" s="5" t="n"/>
       <c r="M442" s="5" t="n"/>
-      <c r="N442" s="5" t="n"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="5" t="n"/>
@@ -7649,7 +7437,6 @@
       <c r="K443" s="5" t="n"/>
       <c r="L443" s="5" t="n"/>
       <c r="M443" s="5" t="n"/>
-      <c r="N443" s="5" t="n"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="5" t="n"/>
@@ -7665,7 +7452,6 @@
       <c r="K444" s="5" t="n"/>
       <c r="L444" s="5" t="n"/>
       <c r="M444" s="5" t="n"/>
-      <c r="N444" s="5" t="n"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="5" t="n"/>
@@ -7681,7 +7467,6 @@
       <c r="K445" s="5" t="n"/>
       <c r="L445" s="5" t="n"/>
       <c r="M445" s="5" t="n"/>
-      <c r="N445" s="5" t="n"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="5" t="n"/>
@@ -7697,7 +7482,6 @@
       <c r="K446" s="5" t="n"/>
       <c r="L446" s="5" t="n"/>
       <c r="M446" s="5" t="n"/>
-      <c r="N446" s="5" t="n"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="5" t="n"/>
@@ -7713,7 +7497,6 @@
       <c r="K447" s="5" t="n"/>
       <c r="L447" s="5" t="n"/>
       <c r="M447" s="5" t="n"/>
-      <c r="N447" s="5" t="n"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="5" t="n"/>
@@ -7729,7 +7512,6 @@
       <c r="K448" s="5" t="n"/>
       <c r="L448" s="5" t="n"/>
       <c r="M448" s="5" t="n"/>
-      <c r="N448" s="5" t="n"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="5" t="n"/>
@@ -7745,7 +7527,6 @@
       <c r="K449" s="5" t="n"/>
       <c r="L449" s="5" t="n"/>
       <c r="M449" s="5" t="n"/>
-      <c r="N449" s="5" t="n"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="5" t="n"/>
@@ -7761,7 +7542,6 @@
       <c r="K450" s="5" t="n"/>
       <c r="L450" s="5" t="n"/>
       <c r="M450" s="5" t="n"/>
-      <c r="N450" s="5" t="n"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="5" t="n"/>
@@ -7777,7 +7557,6 @@
       <c r="K451" s="5" t="n"/>
       <c r="L451" s="5" t="n"/>
       <c r="M451" s="5" t="n"/>
-      <c r="N451" s="5" t="n"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="5" t="n"/>
@@ -7793,7 +7572,6 @@
       <c r="K452" s="5" t="n"/>
       <c r="L452" s="5" t="n"/>
       <c r="M452" s="5" t="n"/>
-      <c r="N452" s="5" t="n"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="5" t="n"/>
@@ -7809,7 +7587,6 @@
       <c r="K453" s="5" t="n"/>
       <c r="L453" s="5" t="n"/>
       <c r="M453" s="5" t="n"/>
-      <c r="N453" s="5" t="n"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="5" t="n"/>
@@ -7825,7 +7602,6 @@
       <c r="K454" s="5" t="n"/>
       <c r="L454" s="5" t="n"/>
       <c r="M454" s="5" t="n"/>
-      <c r="N454" s="5" t="n"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="5" t="n"/>
@@ -7841,7 +7617,6 @@
       <c r="K455" s="5" t="n"/>
       <c r="L455" s="5" t="n"/>
       <c r="M455" s="5" t="n"/>
-      <c r="N455" s="5" t="n"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="5" t="n"/>
@@ -7857,7 +7632,6 @@
       <c r="K456" s="5" t="n"/>
       <c r="L456" s="5" t="n"/>
       <c r="M456" s="5" t="n"/>
-      <c r="N456" s="5" t="n"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="5" t="n"/>
@@ -7873,7 +7647,6 @@
       <c r="K457" s="5" t="n"/>
       <c r="L457" s="5" t="n"/>
       <c r="M457" s="5" t="n"/>
-      <c r="N457" s="5" t="n"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="5" t="n"/>
@@ -7889,7 +7662,6 @@
       <c r="K458" s="5" t="n"/>
       <c r="L458" s="5" t="n"/>
       <c r="M458" s="5" t="n"/>
-      <c r="N458" s="5" t="n"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="5" t="n"/>
@@ -7905,7 +7677,6 @@
       <c r="K459" s="5" t="n"/>
       <c r="L459" s="5" t="n"/>
       <c r="M459" s="5" t="n"/>
-      <c r="N459" s="5" t="n"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="5" t="n"/>
@@ -7921,7 +7692,6 @@
       <c r="K460" s="5" t="n"/>
       <c r="L460" s="5" t="n"/>
       <c r="M460" s="5" t="n"/>
-      <c r="N460" s="5" t="n"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="5" t="n"/>
@@ -7937,7 +7707,6 @@
       <c r="K461" s="5" t="n"/>
       <c r="L461" s="5" t="n"/>
       <c r="M461" s="5" t="n"/>
-      <c r="N461" s="5" t="n"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="5" t="n"/>
@@ -7953,7 +7722,6 @@
       <c r="K462" s="5" t="n"/>
       <c r="L462" s="5" t="n"/>
       <c r="M462" s="5" t="n"/>
-      <c r="N462" s="5" t="n"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="5" t="n"/>
@@ -7969,7 +7737,6 @@
       <c r="K463" s="5" t="n"/>
       <c r="L463" s="5" t="n"/>
       <c r="M463" s="5" t="n"/>
-      <c r="N463" s="5" t="n"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="5" t="n"/>
@@ -7985,7 +7752,6 @@
       <c r="K464" s="5" t="n"/>
       <c r="L464" s="5" t="n"/>
       <c r="M464" s="5" t="n"/>
-      <c r="N464" s="5" t="n"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="5" t="n"/>
@@ -8001,7 +7767,6 @@
       <c r="K465" s="5" t="n"/>
       <c r="L465" s="5" t="n"/>
       <c r="M465" s="5" t="n"/>
-      <c r="N465" s="5" t="n"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="5" t="n"/>
@@ -8017,7 +7782,6 @@
       <c r="K466" s="5" t="n"/>
       <c r="L466" s="5" t="n"/>
       <c r="M466" s="5" t="n"/>
-      <c r="N466" s="5" t="n"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="5" t="n"/>
@@ -8033,7 +7797,6 @@
       <c r="K467" s="5" t="n"/>
       <c r="L467" s="5" t="n"/>
       <c r="M467" s="5" t="n"/>
-      <c r="N467" s="5" t="n"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="5" t="n"/>
@@ -8049,7 +7812,6 @@
       <c r="K468" s="5" t="n"/>
       <c r="L468" s="5" t="n"/>
       <c r="M468" s="5" t="n"/>
-      <c r="N468" s="5" t="n"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="5" t="n"/>
@@ -8065,7 +7827,6 @@
       <c r="K469" s="5" t="n"/>
       <c r="L469" s="5" t="n"/>
       <c r="M469" s="5" t="n"/>
-      <c r="N469" s="5" t="n"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="5" t="n"/>
@@ -8081,7 +7842,6 @@
       <c r="K470" s="5" t="n"/>
       <c r="L470" s="5" t="n"/>
       <c r="M470" s="5" t="n"/>
-      <c r="N470" s="5" t="n"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="5" t="n"/>
@@ -8097,7 +7857,6 @@
       <c r="K471" s="5" t="n"/>
       <c r="L471" s="5" t="n"/>
       <c r="M471" s="5" t="n"/>
-      <c r="N471" s="5" t="n"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="5" t="n"/>
@@ -8113,7 +7872,6 @@
       <c r="K472" s="5" t="n"/>
       <c r="L472" s="5" t="n"/>
       <c r="M472" s="5" t="n"/>
-      <c r="N472" s="5" t="n"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="5" t="n"/>
@@ -8129,7 +7887,6 @@
       <c r="K473" s="5" t="n"/>
       <c r="L473" s="5" t="n"/>
       <c r="M473" s="5" t="n"/>
-      <c r="N473" s="5" t="n"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="5" t="n"/>
@@ -8145,7 +7902,6 @@
       <c r="K474" s="5" t="n"/>
       <c r="L474" s="5" t="n"/>
       <c r="M474" s="5" t="n"/>
-      <c r="N474" s="5" t="n"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="5" t="n"/>
@@ -8161,7 +7917,6 @@
       <c r="K475" s="5" t="n"/>
       <c r="L475" s="5" t="n"/>
       <c r="M475" s="5" t="n"/>
-      <c r="N475" s="5" t="n"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="5" t="n"/>
@@ -8177,7 +7932,6 @@
       <c r="K476" s="5" t="n"/>
       <c r="L476" s="5" t="n"/>
       <c r="M476" s="5" t="n"/>
-      <c r="N476" s="5" t="n"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="5" t="n"/>
@@ -8193,7 +7947,6 @@
       <c r="K477" s="5" t="n"/>
       <c r="L477" s="5" t="n"/>
       <c r="M477" s="5" t="n"/>
-      <c r="N477" s="5" t="n"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="5" t="n"/>
@@ -8209,7 +7962,6 @@
       <c r="K478" s="5" t="n"/>
       <c r="L478" s="5" t="n"/>
       <c r="M478" s="5" t="n"/>
-      <c r="N478" s="5" t="n"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="5" t="n"/>
@@ -8225,7 +7977,6 @@
       <c r="K479" s="5" t="n"/>
       <c r="L479" s="5" t="n"/>
       <c r="M479" s="5" t="n"/>
-      <c r="N479" s="5" t="n"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="5" t="n"/>
@@ -8241,7 +7992,6 @@
       <c r="K480" s="5" t="n"/>
       <c r="L480" s="5" t="n"/>
       <c r="M480" s="5" t="n"/>
-      <c r="N480" s="5" t="n"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="5" t="n"/>
@@ -8257,7 +8007,6 @@
       <c r="K481" s="5" t="n"/>
       <c r="L481" s="5" t="n"/>
       <c r="M481" s="5" t="n"/>
-      <c r="N481" s="5" t="n"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="5" t="n"/>
@@ -8273,7 +8022,6 @@
       <c r="K482" s="5" t="n"/>
       <c r="L482" s="5" t="n"/>
       <c r="M482" s="5" t="n"/>
-      <c r="N482" s="5" t="n"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="5" t="n"/>
@@ -8289,7 +8037,6 @@
       <c r="K483" s="5" t="n"/>
       <c r="L483" s="5" t="n"/>
       <c r="M483" s="5" t="n"/>
-      <c r="N483" s="5" t="n"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="5" t="n"/>
@@ -8305,7 +8052,6 @@
       <c r="K484" s="5" t="n"/>
       <c r="L484" s="5" t="n"/>
       <c r="M484" s="5" t="n"/>
-      <c r="N484" s="5" t="n"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="5" t="n"/>
@@ -8321,7 +8067,6 @@
       <c r="K485" s="5" t="n"/>
       <c r="L485" s="5" t="n"/>
       <c r="M485" s="5" t="n"/>
-      <c r="N485" s="5" t="n"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="5" t="n"/>
@@ -8337,7 +8082,6 @@
       <c r="K486" s="5" t="n"/>
       <c r="L486" s="5" t="n"/>
       <c r="M486" s="5" t="n"/>
-      <c r="N486" s="5" t="n"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="5" t="n"/>
@@ -8353,7 +8097,6 @@
       <c r="K487" s="5" t="n"/>
       <c r="L487" s="5" t="n"/>
       <c r="M487" s="5" t="n"/>
-      <c r="N487" s="5" t="n"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="5" t="n"/>
@@ -8369,7 +8112,6 @@
       <c r="K488" s="5" t="n"/>
       <c r="L488" s="5" t="n"/>
       <c r="M488" s="5" t="n"/>
-      <c r="N488" s="5" t="n"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="5" t="n"/>
@@ -8385,7 +8127,6 @@
       <c r="K489" s="5" t="n"/>
       <c r="L489" s="5" t="n"/>
       <c r="M489" s="5" t="n"/>
-      <c r="N489" s="5" t="n"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="5" t="n"/>
@@ -8401,7 +8142,6 @@
       <c r="K490" s="5" t="n"/>
       <c r="L490" s="5" t="n"/>
       <c r="M490" s="5" t="n"/>
-      <c r="N490" s="5" t="n"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="5" t="n"/>
@@ -8417,7 +8157,6 @@
       <c r="K491" s="5" t="n"/>
       <c r="L491" s="5" t="n"/>
       <c r="M491" s="5" t="n"/>
-      <c r="N491" s="5" t="n"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="5" t="n"/>
@@ -8433,7 +8172,6 @@
       <c r="K492" s="5" t="n"/>
       <c r="L492" s="5" t="n"/>
       <c r="M492" s="5" t="n"/>
-      <c r="N492" s="5" t="n"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="5" t="n"/>
@@ -8449,7 +8187,6 @@
       <c r="K493" s="5" t="n"/>
       <c r="L493" s="5" t="n"/>
       <c r="M493" s="5" t="n"/>
-      <c r="N493" s="5" t="n"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="5" t="n"/>
@@ -8465,7 +8202,6 @@
       <c r="K494" s="5" t="n"/>
       <c r="L494" s="5" t="n"/>
       <c r="M494" s="5" t="n"/>
-      <c r="N494" s="5" t="n"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="5" t="n"/>
@@ -8481,7 +8217,6 @@
       <c r="K495" s="5" t="n"/>
       <c r="L495" s="5" t="n"/>
       <c r="M495" s="5" t="n"/>
-      <c r="N495" s="5" t="n"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="5" t="n"/>
@@ -8497,7 +8232,6 @@
       <c r="K496" s="5" t="n"/>
       <c r="L496" s="5" t="n"/>
       <c r="M496" s="5" t="n"/>
-      <c r="N496" s="5" t="n"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="5" t="n"/>
@@ -8513,7 +8247,6 @@
       <c r="K497" s="5" t="n"/>
       <c r="L497" s="5" t="n"/>
       <c r="M497" s="5" t="n"/>
-      <c r="N497" s="5" t="n"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="5" t="n"/>
@@ -8529,7 +8262,6 @@
       <c r="K498" s="5" t="n"/>
       <c r="L498" s="5" t="n"/>
       <c r="M498" s="5" t="n"/>
-      <c r="N498" s="5" t="n"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="5" t="n"/>
@@ -8545,7 +8277,6 @@
       <c r="K499" s="5" t="n"/>
       <c r="L499" s="5" t="n"/>
       <c r="M499" s="5" t="n"/>
-      <c r="N499" s="5" t="n"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="5" t="n"/>
@@ -8561,7 +8292,6 @@
       <c r="K500" s="5" t="n"/>
       <c r="L500" s="5" t="n"/>
       <c r="M500" s="5" t="n"/>
-      <c r="N500" s="5" t="n"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="5" t="n"/>
@@ -8577,7 +8307,6 @@
       <c r="K501" s="5" t="n"/>
       <c r="L501" s="5" t="n"/>
       <c r="M501" s="5" t="n"/>
-      <c r="N501" s="5" t="n"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="5" t="n"/>
@@ -8593,7 +8322,6 @@
       <c r="K502" s="5" t="n"/>
       <c r="L502" s="5" t="n"/>
       <c r="M502" s="5" t="n"/>
-      <c r="N502" s="5" t="n"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="5" t="n"/>
@@ -8609,7 +8337,6 @@
       <c r="K503" s="5" t="n"/>
       <c r="L503" s="5" t="n"/>
       <c r="M503" s="5" t="n"/>
-      <c r="N503" s="5" t="n"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="5" t="n"/>
@@ -8625,7 +8352,6 @@
       <c r="K504" s="5" t="n"/>
       <c r="L504" s="5" t="n"/>
       <c r="M504" s="5" t="n"/>
-      <c r="N504" s="5" t="n"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="5" t="n"/>
@@ -8641,7 +8367,6 @@
       <c r="K505" s="5" t="n"/>
       <c r="L505" s="5" t="n"/>
       <c r="M505" s="5" t="n"/>
-      <c r="N505" s="5" t="n"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="5" t="n"/>
@@ -8657,7 +8382,6 @@
       <c r="K506" s="5" t="n"/>
       <c r="L506" s="5" t="n"/>
       <c r="M506" s="5" t="n"/>
-      <c r="N506" s="5" t="n"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="5" t="n"/>
@@ -8673,7 +8397,6 @@
       <c r="K507" s="5" t="n"/>
       <c r="L507" s="5" t="n"/>
       <c r="M507" s="5" t="n"/>
-      <c r="N507" s="5" t="n"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="5" t="n"/>
@@ -8689,7 +8412,6 @@
       <c r="K508" s="5" t="n"/>
       <c r="L508" s="5" t="n"/>
       <c r="M508" s="5" t="n"/>
-      <c r="N508" s="5" t="n"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="5" t="n"/>
@@ -8705,7 +8427,6 @@
       <c r="K509" s="5" t="n"/>
       <c r="L509" s="5" t="n"/>
       <c r="M509" s="5" t="n"/>
-      <c r="N509" s="5" t="n"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="5" t="n"/>
@@ -8721,7 +8442,6 @@
       <c r="K510" s="5" t="n"/>
       <c r="L510" s="5" t="n"/>
       <c r="M510" s="5" t="n"/>
-      <c r="N510" s="5" t="n"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="5" t="n"/>
@@ -8737,7 +8457,6 @@
       <c r="K511" s="5" t="n"/>
       <c r="L511" s="5" t="n"/>
       <c r="M511" s="5" t="n"/>
-      <c r="N511" s="5" t="n"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="5" t="n"/>
@@ -8753,7 +8472,6 @@
       <c r="K512" s="5" t="n"/>
       <c r="L512" s="5" t="n"/>
       <c r="M512" s="5" t="n"/>
-      <c r="N512" s="5" t="n"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="5" t="n"/>
@@ -8769,7 +8487,6 @@
       <c r="K513" s="5" t="n"/>
       <c r="L513" s="5" t="n"/>
       <c r="M513" s="5" t="n"/>
-      <c r="N513" s="5" t="n"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="5" t="n"/>
@@ -8785,7 +8502,6 @@
       <c r="K514" s="5" t="n"/>
       <c r="L514" s="5" t="n"/>
       <c r="M514" s="5" t="n"/>
-      <c r="N514" s="5" t="n"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="5" t="n"/>
@@ -8801,7 +8517,6 @@
       <c r="K515" s="5" t="n"/>
       <c r="L515" s="5" t="n"/>
       <c r="M515" s="5" t="n"/>
-      <c r="N515" s="5" t="n"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="5" t="n"/>
@@ -8817,7 +8532,6 @@
       <c r="K516" s="5" t="n"/>
       <c r="L516" s="5" t="n"/>
       <c r="M516" s="5" t="n"/>
-      <c r="N516" s="5" t="n"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="5" t="n"/>
@@ -8833,7 +8547,6 @@
       <c r="K517" s="5" t="n"/>
       <c r="L517" s="5" t="n"/>
       <c r="M517" s="5" t="n"/>
-      <c r="N517" s="5" t="n"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="5" t="n"/>
@@ -8849,7 +8562,6 @@
       <c r="K518" s="5" t="n"/>
       <c r="L518" s="5" t="n"/>
       <c r="M518" s="5" t="n"/>
-      <c r="N518" s="5" t="n"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="5" t="n"/>
@@ -8865,7 +8577,6 @@
       <c r="K519" s="5" t="n"/>
       <c r="L519" s="5" t="n"/>
       <c r="M519" s="5" t="n"/>
-      <c r="N519" s="5" t="n"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="5" t="n"/>
@@ -8881,7 +8592,6 @@
       <c r="K520" s="5" t="n"/>
       <c r="L520" s="5" t="n"/>
       <c r="M520" s="5" t="n"/>
-      <c r="N520" s="5" t="n"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="5" t="n"/>
@@ -8897,7 +8607,6 @@
       <c r="K521" s="5" t="n"/>
       <c r="L521" s="5" t="n"/>
       <c r="M521" s="5" t="n"/>
-      <c r="N521" s="5" t="n"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="5" t="n"/>
@@ -8913,7 +8622,6 @@
       <c r="K522" s="5" t="n"/>
       <c r="L522" s="5" t="n"/>
       <c r="M522" s="5" t="n"/>
-      <c r="N522" s="5" t="n"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="5" t="n"/>
@@ -8929,7 +8637,6 @@
       <c r="K523" s="5" t="n"/>
       <c r="L523" s="5" t="n"/>
       <c r="M523" s="5" t="n"/>
-      <c r="N523" s="5" t="n"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="5" t="n"/>
@@ -8945,7 +8652,6 @@
       <c r="K524" s="5" t="n"/>
       <c r="L524" s="5" t="n"/>
       <c r="M524" s="5" t="n"/>
-      <c r="N524" s="5" t="n"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="5" t="n"/>
@@ -8961,7 +8667,6 @@
       <c r="K525" s="5" t="n"/>
       <c r="L525" s="5" t="n"/>
       <c r="M525" s="5" t="n"/>
-      <c r="N525" s="5" t="n"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="5" t="n"/>
@@ -8977,7 +8682,6 @@
       <c r="K526" s="5" t="n"/>
       <c r="L526" s="5" t="n"/>
       <c r="M526" s="5" t="n"/>
-      <c r="N526" s="5" t="n"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="5" t="n"/>
@@ -8993,7 +8697,6 @@
       <c r="K527" s="5" t="n"/>
       <c r="L527" s="5" t="n"/>
       <c r="M527" s="5" t="n"/>
-      <c r="N527" s="5" t="n"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="5" t="n"/>
@@ -9009,7 +8712,6 @@
       <c r="K528" s="5" t="n"/>
       <c r="L528" s="5" t="n"/>
       <c r="M528" s="5" t="n"/>
-      <c r="N528" s="5" t="n"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="5" t="n"/>
@@ -9025,7 +8727,6 @@
       <c r="K529" s="5" t="n"/>
       <c r="L529" s="5" t="n"/>
       <c r="M529" s="5" t="n"/>
-      <c r="N529" s="5" t="n"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="5" t="n"/>
@@ -9041,7 +8742,6 @@
       <c r="K530" s="5" t="n"/>
       <c r="L530" s="5" t="n"/>
       <c r="M530" s="5" t="n"/>
-      <c r="N530" s="5" t="n"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="5" t="n"/>
@@ -9057,7 +8757,6 @@
       <c r="K531" s="5" t="n"/>
       <c r="L531" s="5" t="n"/>
       <c r="M531" s="5" t="n"/>
-      <c r="N531" s="5" t="n"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="5" t="n"/>
@@ -9073,7 +8772,6 @@
       <c r="K532" s="5" t="n"/>
       <c r="L532" s="5" t="n"/>
       <c r="M532" s="5" t="n"/>
-      <c r="N532" s="5" t="n"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="5" t="n"/>
@@ -9089,7 +8787,6 @@
       <c r="K533" s="5" t="n"/>
       <c r="L533" s="5" t="n"/>
       <c r="M533" s="5" t="n"/>
-      <c r="N533" s="5" t="n"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="5" t="n"/>
@@ -9105,7 +8802,6 @@
       <c r="K534" s="5" t="n"/>
       <c r="L534" s="5" t="n"/>
       <c r="M534" s="5" t="n"/>
-      <c r="N534" s="5" t="n"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="5" t="n"/>
@@ -9121,7 +8817,6 @@
       <c r="K535" s="5" t="n"/>
       <c r="L535" s="5" t="n"/>
       <c r="M535" s="5" t="n"/>
-      <c r="N535" s="5" t="n"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="5" t="n"/>
@@ -9137,7 +8832,6 @@
       <c r="K536" s="5" t="n"/>
       <c r="L536" s="5" t="n"/>
       <c r="M536" s="5" t="n"/>
-      <c r="N536" s="5" t="n"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="5" t="n"/>
@@ -9153,7 +8847,6 @@
       <c r="K537" s="5" t="n"/>
       <c r="L537" s="5" t="n"/>
       <c r="M537" s="5" t="n"/>
-      <c r="N537" s="5" t="n"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="5" t="n"/>
@@ -9169,7 +8862,6 @@
       <c r="K538" s="5" t="n"/>
       <c r="L538" s="5" t="n"/>
       <c r="M538" s="5" t="n"/>
-      <c r="N538" s="5" t="n"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="5" t="n"/>
@@ -9185,7 +8877,6 @@
       <c r="K539" s="5" t="n"/>
       <c r="L539" s="5" t="n"/>
       <c r="M539" s="5" t="n"/>
-      <c r="N539" s="5" t="n"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="5" t="n"/>
@@ -9201,7 +8892,6 @@
       <c r="K540" s="5" t="n"/>
       <c r="L540" s="5" t="n"/>
       <c r="M540" s="5" t="n"/>
-      <c r="N540" s="5" t="n"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="5" t="n"/>
@@ -9217,7 +8907,6 @@
       <c r="K541" s="5" t="n"/>
       <c r="L541" s="5" t="n"/>
       <c r="M541" s="5" t="n"/>
-      <c r="N541" s="5" t="n"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="5" t="n"/>
@@ -9233,7 +8922,6 @@
       <c r="K542" s="5" t="n"/>
       <c r="L542" s="5" t="n"/>
       <c r="M542" s="5" t="n"/>
-      <c r="N542" s="5" t="n"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="5" t="n"/>
@@ -9249,7 +8937,6 @@
       <c r="K543" s="5" t="n"/>
       <c r="L543" s="5" t="n"/>
       <c r="M543" s="5" t="n"/>
-      <c r="N543" s="5" t="n"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="5" t="n"/>
@@ -9265,7 +8952,6 @@
       <c r="K544" s="5" t="n"/>
       <c r="L544" s="5" t="n"/>
       <c r="M544" s="5" t="n"/>
-      <c r="N544" s="5" t="n"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="5" t="n"/>
@@ -9281,7 +8967,6 @@
       <c r="K545" s="5" t="n"/>
       <c r="L545" s="5" t="n"/>
       <c r="M545" s="5" t="n"/>
-      <c r="N545" s="5" t="n"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="5" t="n"/>
@@ -9297,7 +8982,6 @@
       <c r="K546" s="5" t="n"/>
       <c r="L546" s="5" t="n"/>
       <c r="M546" s="5" t="n"/>
-      <c r="N546" s="5" t="n"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="5" t="n"/>
@@ -9313,7 +8997,6 @@
       <c r="K547" s="5" t="n"/>
       <c r="L547" s="5" t="n"/>
       <c r="M547" s="5" t="n"/>
-      <c r="N547" s="5" t="n"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="5" t="n"/>
@@ -9329,7 +9012,6 @@
       <c r="K548" s="5" t="n"/>
       <c r="L548" s="5" t="n"/>
       <c r="M548" s="5" t="n"/>
-      <c r="N548" s="5" t="n"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="5" t="n"/>
@@ -9345,7 +9027,6 @@
       <c r="K549" s="5" t="n"/>
       <c r="L549" s="5" t="n"/>
       <c r="M549" s="5" t="n"/>
-      <c r="N549" s="5" t="n"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="5" t="n"/>
@@ -9361,7 +9042,6 @@
       <c r="K550" s="5" t="n"/>
       <c r="L550" s="5" t="n"/>
       <c r="M550" s="5" t="n"/>
-      <c r="N550" s="5" t="n"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="5" t="n"/>
@@ -9377,7 +9057,6 @@
       <c r="K551" s="5" t="n"/>
       <c r="L551" s="5" t="n"/>
       <c r="M551" s="5" t="n"/>
-      <c r="N551" s="5" t="n"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="5" t="n"/>
@@ -9393,7 +9072,6 @@
       <c r="K552" s="5" t="n"/>
       <c r="L552" s="5" t="n"/>
       <c r="M552" s="5" t="n"/>
-      <c r="N552" s="5" t="n"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="5" t="n"/>
@@ -9409,7 +9087,6 @@
       <c r="K553" s="5" t="n"/>
       <c r="L553" s="5" t="n"/>
       <c r="M553" s="5" t="n"/>
-      <c r="N553" s="5" t="n"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="5" t="n"/>
@@ -9425,7 +9102,6 @@
       <c r="K554" s="5" t="n"/>
       <c r="L554" s="5" t="n"/>
       <c r="M554" s="5" t="n"/>
-      <c r="N554" s="5" t="n"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="5" t="n"/>
@@ -9441,7 +9117,6 @@
       <c r="K555" s="5" t="n"/>
       <c r="L555" s="5" t="n"/>
       <c r="M555" s="5" t="n"/>
-      <c r="N555" s="5" t="n"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="5" t="n"/>
@@ -9457,7 +9132,6 @@
       <c r="K556" s="5" t="n"/>
       <c r="L556" s="5" t="n"/>
       <c r="M556" s="5" t="n"/>
-      <c r="N556" s="5" t="n"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="5" t="n"/>
@@ -9473,7 +9147,6 @@
       <c r="K557" s="5" t="n"/>
       <c r="L557" s="5" t="n"/>
       <c r="M557" s="5" t="n"/>
-      <c r="N557" s="5" t="n"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="5" t="n"/>
@@ -9489,7 +9162,6 @@
       <c r="K558" s="5" t="n"/>
       <c r="L558" s="5" t="n"/>
       <c r="M558" s="5" t="n"/>
-      <c r="N558" s="5" t="n"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="5" t="n"/>
@@ -9505,7 +9177,6 @@
       <c r="K559" s="5" t="n"/>
       <c r="L559" s="5" t="n"/>
       <c r="M559" s="5" t="n"/>
-      <c r="N559" s="5" t="n"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="5" t="n"/>
@@ -9521,7 +9192,6 @@
       <c r="K560" s="5" t="n"/>
       <c r="L560" s="5" t="n"/>
       <c r="M560" s="5" t="n"/>
-      <c r="N560" s="5" t="n"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="5" t="n"/>
@@ -9537,7 +9207,6 @@
       <c r="K561" s="5" t="n"/>
       <c r="L561" s="5" t="n"/>
       <c r="M561" s="5" t="n"/>
-      <c r="N561" s="5" t="n"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="5" t="n"/>
@@ -9553,7 +9222,6 @@
       <c r="K562" s="5" t="n"/>
       <c r="L562" s="5" t="n"/>
       <c r="M562" s="5" t="n"/>
-      <c r="N562" s="5" t="n"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="5" t="n"/>
@@ -9569,7 +9237,6 @@
       <c r="K563" s="5" t="n"/>
       <c r="L563" s="5" t="n"/>
       <c r="M563" s="5" t="n"/>
-      <c r="N563" s="5" t="n"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="5" t="n"/>
@@ -9585,7 +9252,6 @@
       <c r="K564" s="5" t="n"/>
       <c r="L564" s="5" t="n"/>
       <c r="M564" s="5" t="n"/>
-      <c r="N564" s="5" t="n"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="5" t="n"/>
@@ -9601,7 +9267,6 @@
       <c r="K565" s="5" t="n"/>
       <c r="L565" s="5" t="n"/>
       <c r="M565" s="5" t="n"/>
-      <c r="N565" s="5" t="n"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="5" t="n"/>
@@ -9617,7 +9282,6 @@
       <c r="K566" s="5" t="n"/>
       <c r="L566" s="5" t="n"/>
       <c r="M566" s="5" t="n"/>
-      <c r="N566" s="5" t="n"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="5" t="n"/>
@@ -9633,7 +9297,6 @@
       <c r="K567" s="5" t="n"/>
       <c r="L567" s="5" t="n"/>
       <c r="M567" s="5" t="n"/>
-      <c r="N567" s="5" t="n"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="5" t="n"/>
@@ -9649,7 +9312,6 @@
       <c r="K568" s="5" t="n"/>
       <c r="L568" s="5" t="n"/>
       <c r="M568" s="5" t="n"/>
-      <c r="N568" s="5" t="n"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="5" t="n"/>
@@ -9665,7 +9327,6 @@
       <c r="K569" s="5" t="n"/>
       <c r="L569" s="5" t="n"/>
       <c r="M569" s="5" t="n"/>
-      <c r="N569" s="5" t="n"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="5" t="n"/>
@@ -9681,7 +9342,6 @@
       <c r="K570" s="5" t="n"/>
       <c r="L570" s="5" t="n"/>
       <c r="M570" s="5" t="n"/>
-      <c r="N570" s="5" t="n"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="5" t="n"/>
@@ -9697,7 +9357,6 @@
       <c r="K571" s="5" t="n"/>
       <c r="L571" s="5" t="n"/>
       <c r="M571" s="5" t="n"/>
-      <c r="N571" s="5" t="n"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="5" t="n"/>
@@ -9713,7 +9372,6 @@
       <c r="K572" s="5" t="n"/>
       <c r="L572" s="5" t="n"/>
       <c r="M572" s="5" t="n"/>
-      <c r="N572" s="5" t="n"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="5" t="n"/>
@@ -9729,7 +9387,6 @@
       <c r="K573" s="5" t="n"/>
       <c r="L573" s="5" t="n"/>
       <c r="M573" s="5" t="n"/>
-      <c r="N573" s="5" t="n"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="5" t="n"/>
@@ -9745,7 +9402,6 @@
       <c r="K574" s="5" t="n"/>
       <c r="L574" s="5" t="n"/>
       <c r="M574" s="5" t="n"/>
-      <c r="N574" s="5" t="n"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="5" t="n"/>
@@ -9761,7 +9417,6 @@
       <c r="K575" s="5" t="n"/>
       <c r="L575" s="5" t="n"/>
       <c r="M575" s="5" t="n"/>
-      <c r="N575" s="5" t="n"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="5" t="n"/>
@@ -9777,7 +9432,6 @@
       <c r="K576" s="5" t="n"/>
       <c r="L576" s="5" t="n"/>
       <c r="M576" s="5" t="n"/>
-      <c r="N576" s="5" t="n"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="5" t="n"/>
@@ -9793,7 +9447,6 @@
       <c r="K577" s="5" t="n"/>
       <c r="L577" s="5" t="n"/>
       <c r="M577" s="5" t="n"/>
-      <c r="N577" s="5" t="n"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="5" t="n"/>
@@ -9809,7 +9462,6 @@
       <c r="K578" s="5" t="n"/>
       <c r="L578" s="5" t="n"/>
       <c r="M578" s="5" t="n"/>
-      <c r="N578" s="5" t="n"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="5" t="n"/>
@@ -9825,7 +9477,6 @@
       <c r="K579" s="5" t="n"/>
       <c r="L579" s="5" t="n"/>
       <c r="M579" s="5" t="n"/>
-      <c r="N579" s="5" t="n"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="5" t="n"/>
@@ -9841,7 +9492,6 @@
       <c r="K580" s="5" t="n"/>
       <c r="L580" s="5" t="n"/>
       <c r="M580" s="5" t="n"/>
-      <c r="N580" s="5" t="n"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="5" t="n"/>
@@ -9857,7 +9507,6 @@
       <c r="K581" s="5" t="n"/>
       <c r="L581" s="5" t="n"/>
       <c r="M581" s="5" t="n"/>
-      <c r="N581" s="5" t="n"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="5" t="n"/>
@@ -9873,7 +9522,6 @@
       <c r="K582" s="5" t="n"/>
       <c r="L582" s="5" t="n"/>
       <c r="M582" s="5" t="n"/>
-      <c r="N582" s="5" t="n"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="5" t="n"/>
@@ -9889,7 +9537,6 @@
       <c r="K583" s="5" t="n"/>
       <c r="L583" s="5" t="n"/>
       <c r="M583" s="5" t="n"/>
-      <c r="N583" s="5" t="n"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="5" t="n"/>
@@ -9905,7 +9552,6 @@
       <c r="K584" s="5" t="n"/>
       <c r="L584" s="5" t="n"/>
       <c r="M584" s="5" t="n"/>
-      <c r="N584" s="5" t="n"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="5" t="n"/>
@@ -9921,7 +9567,6 @@
       <c r="K585" s="5" t="n"/>
       <c r="L585" s="5" t="n"/>
       <c r="M585" s="5" t="n"/>
-      <c r="N585" s="5" t="n"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="5" t="n"/>
@@ -9937,7 +9582,6 @@
       <c r="K586" s="5" t="n"/>
       <c r="L586" s="5" t="n"/>
       <c r="M586" s="5" t="n"/>
-      <c r="N586" s="5" t="n"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="5" t="n"/>
@@ -9953,7 +9597,6 @@
       <c r="K587" s="5" t="n"/>
       <c r="L587" s="5" t="n"/>
       <c r="M587" s="5" t="n"/>
-      <c r="N587" s="5" t="n"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="5" t="n"/>
@@ -9969,7 +9612,6 @@
       <c r="K588" s="5" t="n"/>
       <c r="L588" s="5" t="n"/>
       <c r="M588" s="5" t="n"/>
-      <c r="N588" s="5" t="n"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="5" t="n"/>
@@ -9985,7 +9627,6 @@
       <c r="K589" s="5" t="n"/>
       <c r="L589" s="5" t="n"/>
       <c r="M589" s="5" t="n"/>
-      <c r="N589" s="5" t="n"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="5" t="n"/>
@@ -10001,7 +9642,6 @@
       <c r="K590" s="5" t="n"/>
       <c r="L590" s="5" t="n"/>
       <c r="M590" s="5" t="n"/>
-      <c r="N590" s="5" t="n"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="5" t="n"/>
@@ -10017,7 +9657,6 @@
       <c r="K591" s="5" t="n"/>
       <c r="L591" s="5" t="n"/>
       <c r="M591" s="5" t="n"/>
-      <c r="N591" s="5" t="n"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="5" t="n"/>
@@ -10033,7 +9672,6 @@
       <c r="K592" s="5" t="n"/>
       <c r="L592" s="5" t="n"/>
       <c r="M592" s="5" t="n"/>
-      <c r="N592" s="5" t="n"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="5" t="n"/>
@@ -10049,7 +9687,6 @@
       <c r="K593" s="5" t="n"/>
       <c r="L593" s="5" t="n"/>
       <c r="M593" s="5" t="n"/>
-      <c r="N593" s="5" t="n"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="5" t="n"/>
@@ -10065,7 +9702,6 @@
       <c r="K594" s="5" t="n"/>
       <c r="L594" s="5" t="n"/>
       <c r="M594" s="5" t="n"/>
-      <c r="N594" s="5" t="n"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="5" t="n"/>
@@ -10081,7 +9717,6 @@
       <c r="K595" s="5" t="n"/>
       <c r="L595" s="5" t="n"/>
       <c r="M595" s="5" t="n"/>
-      <c r="N595" s="5" t="n"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="5" t="n"/>
@@ -10097,7 +9732,6 @@
       <c r="K596" s="5" t="n"/>
       <c r="L596" s="5" t="n"/>
       <c r="M596" s="5" t="n"/>
-      <c r="N596" s="5" t="n"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="5" t="n"/>
@@ -10113,7 +9747,6 @@
       <c r="K597" s="5" t="n"/>
       <c r="L597" s="5" t="n"/>
       <c r="M597" s="5" t="n"/>
-      <c r="N597" s="5" t="n"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="5" t="n"/>
@@ -10129,7 +9762,6 @@
       <c r="K598" s="5" t="n"/>
       <c r="L598" s="5" t="n"/>
       <c r="M598" s="5" t="n"/>
-      <c r="N598" s="5" t="n"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="5" t="n"/>
@@ -10145,7 +9777,6 @@
       <c r="K599" s="5" t="n"/>
       <c r="L599" s="5" t="n"/>
       <c r="M599" s="5" t="n"/>
-      <c r="N599" s="5" t="n"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="5" t="n"/>
@@ -10161,7 +9792,6 @@
       <c r="K600" s="5" t="n"/>
       <c r="L600" s="5" t="n"/>
       <c r="M600" s="5" t="n"/>
-      <c r="N600" s="5" t="n"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="5" t="n"/>
@@ -10177,7 +9807,6 @@
       <c r="K601" s="5" t="n"/>
       <c r="L601" s="5" t="n"/>
       <c r="M601" s="5" t="n"/>
-      <c r="N601" s="5" t="n"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="5" t="n"/>
@@ -10193,7 +9822,6 @@
       <c r="K602" s="5" t="n"/>
       <c r="L602" s="5" t="n"/>
       <c r="M602" s="5" t="n"/>
-      <c r="N602" s="5" t="n"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="5" t="n"/>
@@ -10209,7 +9837,6 @@
       <c r="K603" s="5" t="n"/>
       <c r="L603" s="5" t="n"/>
       <c r="M603" s="5" t="n"/>
-      <c r="N603" s="5" t="n"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="5" t="n"/>
@@ -10225,7 +9852,6 @@
       <c r="K604" s="5" t="n"/>
       <c r="L604" s="5" t="n"/>
       <c r="M604" s="5" t="n"/>
-      <c r="N604" s="5" t="n"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="5" t="n"/>
@@ -10241,7 +9867,6 @@
       <c r="K605" s="5" t="n"/>
       <c r="L605" s="5" t="n"/>
       <c r="M605" s="5" t="n"/>
-      <c r="N605" s="5" t="n"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="5" t="n"/>
@@ -10257,7 +9882,6 @@
       <c r="K606" s="5" t="n"/>
       <c r="L606" s="5" t="n"/>
       <c r="M606" s="5" t="n"/>
-      <c r="N606" s="5" t="n"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="5" t="n"/>
@@ -10273,7 +9897,6 @@
       <c r="K607" s="5" t="n"/>
       <c r="L607" s="5" t="n"/>
       <c r="M607" s="5" t="n"/>
-      <c r="N607" s="5" t="n"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="5" t="n"/>
@@ -10289,7 +9912,6 @@
       <c r="K608" s="5" t="n"/>
       <c r="L608" s="5" t="n"/>
       <c r="M608" s="5" t="n"/>
-      <c r="N608" s="5" t="n"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="5" t="n"/>
@@ -10305,7 +9927,6 @@
       <c r="K609" s="5" t="n"/>
       <c r="L609" s="5" t="n"/>
       <c r="M609" s="5" t="n"/>
-      <c r="N609" s="5" t="n"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="5" t="n"/>
@@ -10321,7 +9942,6 @@
       <c r="K610" s="5" t="n"/>
       <c r="L610" s="5" t="n"/>
       <c r="M610" s="5" t="n"/>
-      <c r="N610" s="5" t="n"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="5" t="n"/>
@@ -10337,7 +9957,6 @@
       <c r="K611" s="5" t="n"/>
       <c r="L611" s="5" t="n"/>
       <c r="M611" s="5" t="n"/>
-      <c r="N611" s="5" t="n"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="5" t="n"/>
@@ -10353,7 +9972,6 @@
       <c r="K612" s="5" t="n"/>
       <c r="L612" s="5" t="n"/>
       <c r="M612" s="5" t="n"/>
-      <c r="N612" s="5" t="n"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="5" t="n"/>
@@ -10369,7 +9987,6 @@
       <c r="K613" s="5" t="n"/>
       <c r="L613" s="5" t="n"/>
       <c r="M613" s="5" t="n"/>
-      <c r="N613" s="5" t="n"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="5" t="n"/>
@@ -10385,7 +10002,6 @@
       <c r="K614" s="5" t="n"/>
       <c r="L614" s="5" t="n"/>
       <c r="M614" s="5" t="n"/>
-      <c r="N614" s="5" t="n"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="5" t="n"/>
@@ -10401,7 +10017,6 @@
       <c r="K615" s="5" t="n"/>
       <c r="L615" s="5" t="n"/>
       <c r="M615" s="5" t="n"/>
-      <c r="N615" s="5" t="n"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="5" t="n"/>
@@ -10417,7 +10032,6 @@
       <c r="K616" s="5" t="n"/>
       <c r="L616" s="5" t="n"/>
       <c r="M616" s="5" t="n"/>
-      <c r="N616" s="5" t="n"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="5" t="n"/>
@@ -10433,7 +10047,6 @@
       <c r="K617" s="5" t="n"/>
       <c r="L617" s="5" t="n"/>
       <c r="M617" s="5" t="n"/>
-      <c r="N617" s="5" t="n"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="5" t="n"/>
@@ -10449,7 +10062,6 @@
       <c r="K618" s="5" t="n"/>
       <c r="L618" s="5" t="n"/>
       <c r="M618" s="5" t="n"/>
-      <c r="N618" s="5" t="n"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="5" t="n"/>
@@ -10465,7 +10077,6 @@
       <c r="K619" s="5" t="n"/>
       <c r="L619" s="5" t="n"/>
       <c r="M619" s="5" t="n"/>
-      <c r="N619" s="5" t="n"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="5" t="n"/>
@@ -10481,7 +10092,6 @@
       <c r="K620" s="5" t="n"/>
       <c r="L620" s="5" t="n"/>
       <c r="M620" s="5" t="n"/>
-      <c r="N620" s="5" t="n"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="5" t="n"/>
@@ -10497,7 +10107,6 @@
       <c r="K621" s="5" t="n"/>
       <c r="L621" s="5" t="n"/>
       <c r="M621" s="5" t="n"/>
-      <c r="N621" s="5" t="n"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="5" t="n"/>
@@ -10513,7 +10122,6 @@
       <c r="K622" s="5" t="n"/>
       <c r="L622" s="5" t="n"/>
       <c r="M622" s="5" t="n"/>
-      <c r="N622" s="5" t="n"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="5" t="n"/>
@@ -10529,7 +10137,6 @@
       <c r="K623" s="5" t="n"/>
       <c r="L623" s="5" t="n"/>
       <c r="M623" s="5" t="n"/>
-      <c r="N623" s="5" t="n"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="5" t="n"/>
@@ -10545,7 +10152,6 @@
       <c r="K624" s="5" t="n"/>
       <c r="L624" s="5" t="n"/>
       <c r="M624" s="5" t="n"/>
-      <c r="N624" s="5" t="n"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="5" t="n"/>
@@ -10561,7 +10167,6 @@
       <c r="K625" s="5" t="n"/>
       <c r="L625" s="5" t="n"/>
       <c r="M625" s="5" t="n"/>
-      <c r="N625" s="5" t="n"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="5" t="n"/>
@@ -10577,7 +10182,6 @@
       <c r="K626" s="5" t="n"/>
       <c r="L626" s="5" t="n"/>
       <c r="M626" s="5" t="n"/>
-      <c r="N626" s="5" t="n"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="5" t="n"/>
@@ -10593,7 +10197,6 @@
       <c r="K627" s="5" t="n"/>
       <c r="L627" s="5" t="n"/>
       <c r="M627" s="5" t="n"/>
-      <c r="N627" s="5" t="n"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="5" t="n"/>
@@ -10609,7 +10212,6 @@
       <c r="K628" s="5" t="n"/>
       <c r="L628" s="5" t="n"/>
       <c r="M628" s="5" t="n"/>
-      <c r="N628" s="5" t="n"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="5" t="n"/>
@@ -10625,7 +10227,6 @@
       <c r="K629" s="5" t="n"/>
       <c r="L629" s="5" t="n"/>
       <c r="M629" s="5" t="n"/>
-      <c r="N629" s="5" t="n"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="5" t="n"/>
@@ -10641,7 +10242,6 @@
       <c r="K630" s="5" t="n"/>
       <c r="L630" s="5" t="n"/>
       <c r="M630" s="5" t="n"/>
-      <c r="N630" s="5" t="n"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="5" t="n"/>
@@ -10657,7 +10257,6 @@
       <c r="K631" s="5" t="n"/>
       <c r="L631" s="5" t="n"/>
       <c r="M631" s="5" t="n"/>
-      <c r="N631" s="5" t="n"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="5" t="n"/>
@@ -10673,7 +10272,6 @@
       <c r="K632" s="5" t="n"/>
       <c r="L632" s="5" t="n"/>
       <c r="M632" s="5" t="n"/>
-      <c r="N632" s="5" t="n"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="5" t="n"/>
@@ -10689,7 +10287,6 @@
       <c r="K633" s="5" t="n"/>
       <c r="L633" s="5" t="n"/>
       <c r="M633" s="5" t="n"/>
-      <c r="N633" s="5" t="n"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="5" t="n"/>
@@ -10705,7 +10302,6 @@
       <c r="K634" s="5" t="n"/>
       <c r="L634" s="5" t="n"/>
       <c r="M634" s="5" t="n"/>
-      <c r="N634" s="5" t="n"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="5" t="n"/>
@@ -10721,7 +10317,6 @@
       <c r="K635" s="5" t="n"/>
       <c r="L635" s="5" t="n"/>
       <c r="M635" s="5" t="n"/>
-      <c r="N635" s="5" t="n"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="5" t="n"/>
@@ -10737,7 +10332,6 @@
       <c r="K636" s="5" t="n"/>
       <c r="L636" s="5" t="n"/>
       <c r="M636" s="5" t="n"/>
-      <c r="N636" s="5" t="n"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="5" t="n"/>
@@ -10753,7 +10347,6 @@
       <c r="K637" s="5" t="n"/>
       <c r="L637" s="5" t="n"/>
       <c r="M637" s="5" t="n"/>
-      <c r="N637" s="5" t="n"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="5" t="n"/>
@@ -10769,7 +10362,6 @@
       <c r="K638" s="5" t="n"/>
       <c r="L638" s="5" t="n"/>
       <c r="M638" s="5" t="n"/>
-      <c r="N638" s="5" t="n"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="5" t="n"/>
@@ -10785,7 +10377,6 @@
       <c r="K639" s="5" t="n"/>
       <c r="L639" s="5" t="n"/>
       <c r="M639" s="5" t="n"/>
-      <c r="N639" s="5" t="n"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="5" t="n"/>
@@ -10801,7 +10392,6 @@
       <c r="K640" s="5" t="n"/>
       <c r="L640" s="5" t="n"/>
       <c r="M640" s="5" t="n"/>
-      <c r="N640" s="5" t="n"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="5" t="n"/>
@@ -10817,7 +10407,6 @@
       <c r="K641" s="5" t="n"/>
       <c r="L641" s="5" t="n"/>
       <c r="M641" s="5" t="n"/>
-      <c r="N641" s="5" t="n"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="5" t="n"/>
@@ -10833,7 +10422,6 @@
       <c r="K642" s="5" t="n"/>
       <c r="L642" s="5" t="n"/>
       <c r="M642" s="5" t="n"/>
-      <c r="N642" s="5" t="n"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="5" t="n"/>
@@ -10849,7 +10437,6 @@
       <c r="K643" s="5" t="n"/>
       <c r="L643" s="5" t="n"/>
       <c r="M643" s="5" t="n"/>
-      <c r="N643" s="5" t="n"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="5" t="n"/>
@@ -10865,7 +10452,6 @@
       <c r="K644" s="5" t="n"/>
       <c r="L644" s="5" t="n"/>
       <c r="M644" s="5" t="n"/>
-      <c r="N644" s="5" t="n"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="5" t="n"/>
@@ -10881,7 +10467,6 @@
       <c r="K645" s="5" t="n"/>
       <c r="L645" s="5" t="n"/>
       <c r="M645" s="5" t="n"/>
-      <c r="N645" s="5" t="n"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="5" t="n"/>
@@ -10897,7 +10482,6 @@
       <c r="K646" s="5" t="n"/>
       <c r="L646" s="5" t="n"/>
       <c r="M646" s="5" t="n"/>
-      <c r="N646" s="5" t="n"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="5" t="n"/>
@@ -10913,7 +10497,6 @@
       <c r="K647" s="5" t="n"/>
       <c r="L647" s="5" t="n"/>
       <c r="M647" s="5" t="n"/>
-      <c r="N647" s="5" t="n"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="5" t="n"/>
@@ -10929,7 +10512,6 @@
       <c r="K648" s="5" t="n"/>
       <c r="L648" s="5" t="n"/>
       <c r="M648" s="5" t="n"/>
-      <c r="N648" s="5" t="n"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="5" t="n"/>
@@ -10945,7 +10527,6 @@
       <c r="K649" s="5" t="n"/>
       <c r="L649" s="5" t="n"/>
       <c r="M649" s="5" t="n"/>
-      <c r="N649" s="5" t="n"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="5" t="n"/>
@@ -10961,7 +10542,6 @@
       <c r="K650" s="5" t="n"/>
       <c r="L650" s="5" t="n"/>
       <c r="M650" s="5" t="n"/>
-      <c r="N650" s="5" t="n"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="5" t="n"/>
@@ -10977,7 +10557,6 @@
       <c r="K651" s="5" t="n"/>
       <c r="L651" s="5" t="n"/>
       <c r="M651" s="5" t="n"/>
-      <c r="N651" s="5" t="n"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="5" t="n"/>
@@ -10993,7 +10572,6 @@
       <c r="K652" s="5" t="n"/>
       <c r="L652" s="5" t="n"/>
       <c r="M652" s="5" t="n"/>
-      <c r="N652" s="5" t="n"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="5" t="n"/>
@@ -11009,7 +10587,6 @@
       <c r="K653" s="5" t="n"/>
       <c r="L653" s="5" t="n"/>
       <c r="M653" s="5" t="n"/>
-      <c r="N653" s="5" t="n"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="5" t="n"/>
@@ -11025,7 +10602,6 @@
       <c r="K654" s="5" t="n"/>
       <c r="L654" s="5" t="n"/>
       <c r="M654" s="5" t="n"/>
-      <c r="N654" s="5" t="n"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="5" t="n"/>
@@ -11041,7 +10617,6 @@
       <c r="K655" s="5" t="n"/>
       <c r="L655" s="5" t="n"/>
       <c r="M655" s="5" t="n"/>
-      <c r="N655" s="5" t="n"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="5" t="n"/>
@@ -11057,7 +10632,6 @@
       <c r="K656" s="5" t="n"/>
       <c r="L656" s="5" t="n"/>
       <c r="M656" s="5" t="n"/>
-      <c r="N656" s="5" t="n"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="5" t="n"/>
@@ -11073,7 +10647,6 @@
       <c r="K657" s="5" t="n"/>
       <c r="L657" s="5" t="n"/>
       <c r="M657" s="5" t="n"/>
-      <c r="N657" s="5" t="n"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="5" t="n"/>
@@ -11089,7 +10662,6 @@
       <c r="K658" s="5" t="n"/>
       <c r="L658" s="5" t="n"/>
       <c r="M658" s="5" t="n"/>
-      <c r="N658" s="5" t="n"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="5" t="n"/>
@@ -11105,7 +10677,6 @@
       <c r="K659" s="5" t="n"/>
       <c r="L659" s="5" t="n"/>
       <c r="M659" s="5" t="n"/>
-      <c r="N659" s="5" t="n"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="5" t="n"/>
@@ -11121,7 +10692,6 @@
       <c r="K660" s="5" t="n"/>
       <c r="L660" s="5" t="n"/>
       <c r="M660" s="5" t="n"/>
-      <c r="N660" s="5" t="n"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="5" t="n"/>
@@ -11137,7 +10707,6 @@
       <c r="K661" s="5" t="n"/>
       <c r="L661" s="5" t="n"/>
       <c r="M661" s="5" t="n"/>
-      <c r="N661" s="5" t="n"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="5" t="n"/>
@@ -11153,7 +10722,6 @@
       <c r="K662" s="5" t="n"/>
       <c r="L662" s="5" t="n"/>
       <c r="M662" s="5" t="n"/>
-      <c r="N662" s="5" t="n"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="5" t="n"/>
@@ -11169,7 +10737,6 @@
       <c r="K663" s="5" t="n"/>
       <c r="L663" s="5" t="n"/>
       <c r="M663" s="5" t="n"/>
-      <c r="N663" s="5" t="n"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="5" t="n"/>
@@ -11185,7 +10752,6 @@
       <c r="K664" s="5" t="n"/>
       <c r="L664" s="5" t="n"/>
       <c r="M664" s="5" t="n"/>
-      <c r="N664" s="5" t="n"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="5" t="n"/>
@@ -11201,7 +10767,6 @@
       <c r="K665" s="5" t="n"/>
       <c r="L665" s="5" t="n"/>
       <c r="M665" s="5" t="n"/>
-      <c r="N665" s="5" t="n"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="5" t="n"/>
@@ -11217,7 +10782,6 @@
       <c r="K666" s="5" t="n"/>
       <c r="L666" s="5" t="n"/>
       <c r="M666" s="5" t="n"/>
-      <c r="N666" s="5" t="n"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="5" t="n"/>
@@ -11233,7 +10797,6 @@
       <c r="K667" s="5" t="n"/>
       <c r="L667" s="5" t="n"/>
       <c r="M667" s="5" t="n"/>
-      <c r="N667" s="5" t="n"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="5" t="n"/>
@@ -11249,7 +10812,6 @@
       <c r="K668" s="5" t="n"/>
       <c r="L668" s="5" t="n"/>
       <c r="M668" s="5" t="n"/>
-      <c r="N668" s="5" t="n"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="5" t="n"/>
@@ -11265,7 +10827,6 @@
       <c r="K669" s="5" t="n"/>
       <c r="L669" s="5" t="n"/>
       <c r="M669" s="5" t="n"/>
-      <c r="N669" s="5" t="n"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="5" t="n"/>
@@ -11281,7 +10842,6 @@
       <c r="K670" s="5" t="n"/>
       <c r="L670" s="5" t="n"/>
       <c r="M670" s="5" t="n"/>
-      <c r="N670" s="5" t="n"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="5" t="n"/>
@@ -11297,7 +10857,6 @@
       <c r="K671" s="5" t="n"/>
       <c r="L671" s="5" t="n"/>
       <c r="M671" s="5" t="n"/>
-      <c r="N671" s="5" t="n"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="5" t="n"/>
@@ -11313,7 +10872,6 @@
       <c r="K672" s="5" t="n"/>
       <c r="L672" s="5" t="n"/>
       <c r="M672" s="5" t="n"/>
-      <c r="N672" s="5" t="n"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="5" t="n"/>
@@ -11329,7 +10887,6 @@
       <c r="K673" s="5" t="n"/>
       <c r="L673" s="5" t="n"/>
       <c r="M673" s="5" t="n"/>
-      <c r="N673" s="5" t="n"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="5" t="n"/>
@@ -11345,7 +10902,6 @@
       <c r="K674" s="5" t="n"/>
       <c r="L674" s="5" t="n"/>
       <c r="M674" s="5" t="n"/>
-      <c r="N674" s="5" t="n"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="5" t="n"/>
@@ -11361,7 +10917,6 @@
       <c r="K675" s="5" t="n"/>
       <c r="L675" s="5" t="n"/>
       <c r="M675" s="5" t="n"/>
-      <c r="N675" s="5" t="n"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="5" t="n"/>
@@ -11377,7 +10932,6 @@
       <c r="K676" s="5" t="n"/>
       <c r="L676" s="5" t="n"/>
       <c r="M676" s="5" t="n"/>
-      <c r="N676" s="5" t="n"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="5" t="n"/>
@@ -11393,7 +10947,6 @@
       <c r="K677" s="5" t="n"/>
       <c r="L677" s="5" t="n"/>
       <c r="M677" s="5" t="n"/>
-      <c r="N677" s="5" t="n"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="5" t="n"/>
@@ -11409,7 +10962,6 @@
       <c r="K678" s="5" t="n"/>
       <c r="L678" s="5" t="n"/>
       <c r="M678" s="5" t="n"/>
-      <c r="N678" s="5" t="n"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="5" t="n"/>
@@ -11425,7 +10977,6 @@
       <c r="K679" s="5" t="n"/>
       <c r="L679" s="5" t="n"/>
       <c r="M679" s="5" t="n"/>
-      <c r="N679" s="5" t="n"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="5" t="n"/>
@@ -11441,7 +10992,6 @@
       <c r="K680" s="5" t="n"/>
       <c r="L680" s="5" t="n"/>
       <c r="M680" s="5" t="n"/>
-      <c r="N680" s="5" t="n"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="5" t="n"/>
@@ -11457,7 +11007,6 @@
       <c r="K681" s="5" t="n"/>
       <c r="L681" s="5" t="n"/>
       <c r="M681" s="5" t="n"/>
-      <c r="N681" s="5" t="n"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="5" t="n"/>
@@ -11473,7 +11022,6 @@
       <c r="K682" s="5" t="n"/>
       <c r="L682" s="5" t="n"/>
       <c r="M682" s="5" t="n"/>
-      <c r="N682" s="5" t="n"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="5" t="n"/>
@@ -11489,7 +11037,6 @@
       <c r="K683" s="5" t="n"/>
       <c r="L683" s="5" t="n"/>
       <c r="M683" s="5" t="n"/>
-      <c r="N683" s="5" t="n"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="5" t="n"/>
@@ -11505,7 +11052,6 @@
       <c r="K684" s="5" t="n"/>
       <c r="L684" s="5" t="n"/>
       <c r="M684" s="5" t="n"/>
-      <c r="N684" s="5" t="n"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="5" t="n"/>
@@ -11521,7 +11067,6 @@
       <c r="K685" s="5" t="n"/>
       <c r="L685" s="5" t="n"/>
       <c r="M685" s="5" t="n"/>
-      <c r="N685" s="5" t="n"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="5" t="n"/>
@@ -11537,7 +11082,6 @@
       <c r="K686" s="5" t="n"/>
       <c r="L686" s="5" t="n"/>
       <c r="M686" s="5" t="n"/>
-      <c r="N686" s="5" t="n"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="5" t="n"/>
@@ -11553,7 +11097,6 @@
       <c r="K687" s="5" t="n"/>
       <c r="L687" s="5" t="n"/>
       <c r="M687" s="5" t="n"/>
-      <c r="N687" s="5" t="n"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="5" t="n"/>
@@ -11569,7 +11112,6 @@
       <c r="K688" s="5" t="n"/>
       <c r="L688" s="5" t="n"/>
       <c r="M688" s="5" t="n"/>
-      <c r="N688" s="5" t="n"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="5" t="n"/>
@@ -11585,7 +11127,6 @@
       <c r="K689" s="5" t="n"/>
       <c r="L689" s="5" t="n"/>
       <c r="M689" s="5" t="n"/>
-      <c r="N689" s="5" t="n"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="5" t="n"/>
@@ -11601,7 +11142,6 @@
       <c r="K690" s="5" t="n"/>
       <c r="L690" s="5" t="n"/>
       <c r="M690" s="5" t="n"/>
-      <c r="N690" s="5" t="n"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="5" t="n"/>
@@ -11617,7 +11157,6 @@
       <c r="K691" s="5" t="n"/>
       <c r="L691" s="5" t="n"/>
       <c r="M691" s="5" t="n"/>
-      <c r="N691" s="5" t="n"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="5" t="n"/>
@@ -11633,7 +11172,6 @@
       <c r="K692" s="5" t="n"/>
       <c r="L692" s="5" t="n"/>
       <c r="M692" s="5" t="n"/>
-      <c r="N692" s="5" t="n"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="5" t="n"/>
@@ -11649,7 +11187,6 @@
       <c r="K693" s="5" t="n"/>
       <c r="L693" s="5" t="n"/>
       <c r="M693" s="5" t="n"/>
-      <c r="N693" s="5" t="n"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="5" t="n"/>
@@ -11665,7 +11202,6 @@
       <c r="K694" s="5" t="n"/>
       <c r="L694" s="5" t="n"/>
       <c r="M694" s="5" t="n"/>
-      <c r="N694" s="5" t="n"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="5" t="n"/>
@@ -11681,7 +11217,6 @@
       <c r="K695" s="5" t="n"/>
       <c r="L695" s="5" t="n"/>
       <c r="M695" s="5" t="n"/>
-      <c r="N695" s="5" t="n"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="5" t="n"/>
@@ -11697,7 +11232,6 @@
       <c r="K696" s="5" t="n"/>
       <c r="L696" s="5" t="n"/>
       <c r="M696" s="5" t="n"/>
-      <c r="N696" s="5" t="n"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="5" t="n"/>
@@ -11713,7 +11247,6 @@
       <c r="K697" s="5" t="n"/>
       <c r="L697" s="5" t="n"/>
       <c r="M697" s="5" t="n"/>
-      <c r="N697" s="5" t="n"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="5" t="n"/>
@@ -11729,7 +11262,6 @@
       <c r="K698" s="5" t="n"/>
       <c r="L698" s="5" t="n"/>
       <c r="M698" s="5" t="n"/>
-      <c r="N698" s="5" t="n"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="5" t="n"/>
@@ -11745,7 +11277,6 @@
       <c r="K699" s="5" t="n"/>
       <c r="L699" s="5" t="n"/>
       <c r="M699" s="5" t="n"/>
-      <c r="N699" s="5" t="n"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="5" t="n"/>
@@ -11761,7 +11292,6 @@
       <c r="K700" s="5" t="n"/>
       <c r="L700" s="5" t="n"/>
       <c r="M700" s="5" t="n"/>
-      <c r="N700" s="5" t="n"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="5" t="n"/>
@@ -11777,7 +11307,6 @@
       <c r="K701" s="5" t="n"/>
       <c r="L701" s="5" t="n"/>
       <c r="M701" s="5" t="n"/>
-      <c r="N701" s="5" t="n"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="5" t="n"/>
@@ -11793,7 +11322,6 @@
       <c r="K702" s="5" t="n"/>
       <c r="L702" s="5" t="n"/>
       <c r="M702" s="5" t="n"/>
-      <c r="N702" s="5" t="n"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="5" t="n"/>
@@ -11809,7 +11337,6 @@
       <c r="K703" s="5" t="n"/>
       <c r="L703" s="5" t="n"/>
       <c r="M703" s="5" t="n"/>
-      <c r="N703" s="5" t="n"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="5" t="n"/>
@@ -11825,7 +11352,6 @@
       <c r="K704" s="5" t="n"/>
       <c r="L704" s="5" t="n"/>
       <c r="M704" s="5" t="n"/>
-      <c r="N704" s="5" t="n"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="5" t="n"/>
@@ -11841,7 +11367,6 @@
       <c r="K705" s="5" t="n"/>
       <c r="L705" s="5" t="n"/>
       <c r="M705" s="5" t="n"/>
-      <c r="N705" s="5" t="n"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="5" t="n"/>
@@ -11857,7 +11382,6 @@
       <c r="K706" s="5" t="n"/>
       <c r="L706" s="5" t="n"/>
       <c r="M706" s="5" t="n"/>
-      <c r="N706" s="5" t="n"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="5" t="n"/>
@@ -11873,7 +11397,6 @@
       <c r="K707" s="5" t="n"/>
       <c r="L707" s="5" t="n"/>
       <c r="M707" s="5" t="n"/>
-      <c r="N707" s="5" t="n"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="5" t="n"/>
@@ -11889,7 +11412,6 @@
       <c r="K708" s="5" t="n"/>
       <c r="L708" s="5" t="n"/>
       <c r="M708" s="5" t="n"/>
-      <c r="N708" s="5" t="n"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="5" t="n"/>
@@ -11905,7 +11427,6 @@
       <c r="K709" s="5" t="n"/>
       <c r="L709" s="5" t="n"/>
       <c r="M709" s="5" t="n"/>
-      <c r="N709" s="5" t="n"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="5" t="n"/>
@@ -11921,7 +11442,6 @@
       <c r="K710" s="5" t="n"/>
       <c r="L710" s="5" t="n"/>
       <c r="M710" s="5" t="n"/>
-      <c r="N710" s="5" t="n"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="5" t="n"/>
@@ -11937,7 +11457,6 @@
       <c r="K711" s="5" t="n"/>
       <c r="L711" s="5" t="n"/>
       <c r="M711" s="5" t="n"/>
-      <c r="N711" s="5" t="n"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="5" t="n"/>
@@ -11953,7 +11472,6 @@
       <c r="K712" s="5" t="n"/>
       <c r="L712" s="5" t="n"/>
       <c r="M712" s="5" t="n"/>
-      <c r="N712" s="5" t="n"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="5" t="n"/>
@@ -11969,7 +11487,6 @@
       <c r="K713" s="5" t="n"/>
       <c r="L713" s="5" t="n"/>
       <c r="M713" s="5" t="n"/>
-      <c r="N713" s="5" t="n"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="5" t="n"/>
@@ -11985,7 +11502,6 @@
       <c r="K714" s="5" t="n"/>
       <c r="L714" s="5" t="n"/>
       <c r="M714" s="5" t="n"/>
-      <c r="N714" s="5" t="n"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="5" t="n"/>
@@ -12001,7 +11517,6 @@
       <c r="K715" s="5" t="n"/>
       <c r="L715" s="5" t="n"/>
       <c r="M715" s="5" t="n"/>
-      <c r="N715" s="5" t="n"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="5" t="n"/>
@@ -12017,7 +11532,6 @@
       <c r="K716" s="5" t="n"/>
       <c r="L716" s="5" t="n"/>
       <c r="M716" s="5" t="n"/>
-      <c r="N716" s="5" t="n"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="5" t="n"/>
@@ -12033,7 +11547,6 @@
       <c r="K717" s="5" t="n"/>
       <c r="L717" s="5" t="n"/>
       <c r="M717" s="5" t="n"/>
-      <c r="N717" s="5" t="n"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="5" t="n"/>
@@ -12049,7 +11562,6 @@
       <c r="K718" s="5" t="n"/>
       <c r="L718" s="5" t="n"/>
       <c r="M718" s="5" t="n"/>
-      <c r="N718" s="5" t="n"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="5" t="n"/>
@@ -12065,7 +11577,6 @@
       <c r="K719" s="5" t="n"/>
       <c r="L719" s="5" t="n"/>
       <c r="M719" s="5" t="n"/>
-      <c r="N719" s="5" t="n"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="5" t="n"/>
@@ -12081,7 +11592,6 @@
       <c r="K720" s="5" t="n"/>
       <c r="L720" s="5" t="n"/>
       <c r="M720" s="5" t="n"/>
-      <c r="N720" s="5" t="n"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="5" t="n"/>
@@ -12097,7 +11607,6 @@
       <c r="K721" s="5" t="n"/>
       <c r="L721" s="5" t="n"/>
       <c r="M721" s="5" t="n"/>
-      <c r="N721" s="5" t="n"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="5" t="n"/>
@@ -12113,7 +11622,6 @@
       <c r="K722" s="5" t="n"/>
       <c r="L722" s="5" t="n"/>
       <c r="M722" s="5" t="n"/>
-      <c r="N722" s="5" t="n"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="5" t="n"/>
@@ -12129,7 +11637,6 @@
       <c r="K723" s="5" t="n"/>
       <c r="L723" s="5" t="n"/>
       <c r="M723" s="5" t="n"/>
-      <c r="N723" s="5" t="n"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="5" t="n"/>
@@ -12145,7 +11652,6 @@
       <c r="K724" s="5" t="n"/>
       <c r="L724" s="5" t="n"/>
       <c r="M724" s="5" t="n"/>
-      <c r="N724" s="5" t="n"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="5" t="n"/>
@@ -12161,7 +11667,6 @@
       <c r="K725" s="5" t="n"/>
       <c r="L725" s="5" t="n"/>
       <c r="M725" s="5" t="n"/>
-      <c r="N725" s="5" t="n"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="5" t="n"/>
@@ -12177,7 +11682,6 @@
       <c r="K726" s="5" t="n"/>
       <c r="L726" s="5" t="n"/>
       <c r="M726" s="5" t="n"/>
-      <c r="N726" s="5" t="n"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="5" t="n"/>
@@ -12193,7 +11697,6 @@
       <c r="K727" s="5" t="n"/>
       <c r="L727" s="5" t="n"/>
       <c r="M727" s="5" t="n"/>
-      <c r="N727" s="5" t="n"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="5" t="n"/>
@@ -12209,7 +11712,6 @@
       <c r="K728" s="5" t="n"/>
       <c r="L728" s="5" t="n"/>
       <c r="M728" s="5" t="n"/>
-      <c r="N728" s="5" t="n"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="5" t="n"/>
@@ -12225,7 +11727,6 @@
       <c r="K729" s="5" t="n"/>
       <c r="L729" s="5" t="n"/>
       <c r="M729" s="5" t="n"/>
-      <c r="N729" s="5" t="n"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="5" t="n"/>
@@ -12241,7 +11742,6 @@
       <c r="K730" s="5" t="n"/>
       <c r="L730" s="5" t="n"/>
       <c r="M730" s="5" t="n"/>
-      <c r="N730" s="5" t="n"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="5" t="n"/>
@@ -12257,7 +11757,6 @@
       <c r="K731" s="5" t="n"/>
       <c r="L731" s="5" t="n"/>
       <c r="M731" s="5" t="n"/>
-      <c r="N731" s="5" t="n"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="5" t="n"/>
@@ -12273,7 +11772,6 @@
       <c r="K732" s="5" t="n"/>
       <c r="L732" s="5" t="n"/>
       <c r="M732" s="5" t="n"/>
-      <c r="N732" s="5" t="n"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="5" t="n"/>
@@ -12289,7 +11787,6 @@
       <c r="K733" s="5" t="n"/>
       <c r="L733" s="5" t="n"/>
       <c r="M733" s="5" t="n"/>
-      <c r="N733" s="5" t="n"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="5" t="n"/>
@@ -12305,7 +11802,6 @@
       <c r="K734" s="5" t="n"/>
       <c r="L734" s="5" t="n"/>
       <c r="M734" s="5" t="n"/>
-      <c r="N734" s="5" t="n"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="5" t="n"/>
@@ -12321,7 +11817,6 @@
       <c r="K735" s="5" t="n"/>
       <c r="L735" s="5" t="n"/>
       <c r="M735" s="5" t="n"/>
-      <c r="N735" s="5" t="n"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="5" t="n"/>
@@ -12337,7 +11832,6 @@
       <c r="K736" s="5" t="n"/>
       <c r="L736" s="5" t="n"/>
       <c r="M736" s="5" t="n"/>
-      <c r="N736" s="5" t="n"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="5" t="n"/>
@@ -12353,7 +11847,6 @@
       <c r="K737" s="5" t="n"/>
       <c r="L737" s="5" t="n"/>
       <c r="M737" s="5" t="n"/>
-      <c r="N737" s="5" t="n"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="5" t="n"/>
@@ -12369,7 +11862,6 @@
       <c r="K738" s="5" t="n"/>
       <c r="L738" s="5" t="n"/>
       <c r="M738" s="5" t="n"/>
-      <c r="N738" s="5" t="n"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="5" t="n"/>
@@ -12385,7 +11877,6 @@
       <c r="K739" s="5" t="n"/>
       <c r="L739" s="5" t="n"/>
       <c r="M739" s="5" t="n"/>
-      <c r="N739" s="5" t="n"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="5" t="n"/>
@@ -12401,7 +11892,6 @@
       <c r="K740" s="5" t="n"/>
       <c r="L740" s="5" t="n"/>
       <c r="M740" s="5" t="n"/>
-      <c r="N740" s="5" t="n"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="5" t="n"/>
@@ -12417,7 +11907,6 @@
       <c r="K741" s="5" t="n"/>
       <c r="L741" s="5" t="n"/>
       <c r="M741" s="5" t="n"/>
-      <c r="N741" s="5" t="n"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="5" t="n"/>
@@ -12433,7 +11922,6 @@
       <c r="K742" s="5" t="n"/>
       <c r="L742" s="5" t="n"/>
       <c r="M742" s="5" t="n"/>
-      <c r="N742" s="5" t="n"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="5" t="n"/>
@@ -12449,7 +11937,6 @@
       <c r="K743" s="5" t="n"/>
       <c r="L743" s="5" t="n"/>
       <c r="M743" s="5" t="n"/>
-      <c r="N743" s="5" t="n"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="5" t="n"/>
@@ -12465,7 +11952,6 @@
       <c r="K744" s="5" t="n"/>
       <c r="L744" s="5" t="n"/>
       <c r="M744" s="5" t="n"/>
-      <c r="N744" s="5" t="n"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="5" t="n"/>
@@ -12481,7 +11967,6 @@
       <c r="K745" s="5" t="n"/>
       <c r="L745" s="5" t="n"/>
       <c r="M745" s="5" t="n"/>
-      <c r="N745" s="5" t="n"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="5" t="n"/>
@@ -12497,7 +11982,6 @@
       <c r="K746" s="5" t="n"/>
       <c r="L746" s="5" t="n"/>
       <c r="M746" s="5" t="n"/>
-      <c r="N746" s="5" t="n"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="5" t="n"/>
@@ -12513,7 +11997,6 @@
       <c r="K747" s="5" t="n"/>
       <c r="L747" s="5" t="n"/>
       <c r="M747" s="5" t="n"/>
-      <c r="N747" s="5" t="n"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="5" t="n"/>
@@ -12529,7 +12012,6 @@
       <c r="K748" s="5" t="n"/>
       <c r="L748" s="5" t="n"/>
       <c r="M748" s="5" t="n"/>
-      <c r="N748" s="5" t="n"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="5" t="n"/>
@@ -12545,7 +12027,6 @@
       <c r="K749" s="5" t="n"/>
       <c r="L749" s="5" t="n"/>
       <c r="M749" s="5" t="n"/>
-      <c r="N749" s="5" t="n"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="5" t="n"/>
@@ -12561,7 +12042,6 @@
       <c r="K750" s="5" t="n"/>
       <c r="L750" s="5" t="n"/>
       <c r="M750" s="5" t="n"/>
-      <c r="N750" s="5" t="n"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="5" t="n"/>
@@ -12577,7 +12057,6 @@
       <c r="K751" s="5" t="n"/>
       <c r="L751" s="5" t="n"/>
       <c r="M751" s="5" t="n"/>
-      <c r="N751" s="5" t="n"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="5" t="n"/>
@@ -12593,7 +12072,6 @@
       <c r="K752" s="5" t="n"/>
       <c r="L752" s="5" t="n"/>
       <c r="M752" s="5" t="n"/>
-      <c r="N752" s="5" t="n"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="5" t="n"/>
@@ -12609,7 +12087,6 @@
       <c r="K753" s="5" t="n"/>
       <c r="L753" s="5" t="n"/>
       <c r="M753" s="5" t="n"/>
-      <c r="N753" s="5" t="n"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="5" t="n"/>
@@ -12625,7 +12102,6 @@
       <c r="K754" s="5" t="n"/>
       <c r="L754" s="5" t="n"/>
       <c r="M754" s="5" t="n"/>
-      <c r="N754" s="5" t="n"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="5" t="n"/>
@@ -12641,7 +12117,6 @@
       <c r="K755" s="5" t="n"/>
       <c r="L755" s="5" t="n"/>
       <c r="M755" s="5" t="n"/>
-      <c r="N755" s="5" t="n"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="5" t="n"/>
@@ -12657,7 +12132,6 @@
       <c r="K756" s="5" t="n"/>
       <c r="L756" s="5" t="n"/>
       <c r="M756" s="5" t="n"/>
-      <c r="N756" s="5" t="n"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="5" t="n"/>
@@ -12673,7 +12147,6 @@
       <c r="K757" s="5" t="n"/>
       <c r="L757" s="5" t="n"/>
       <c r="M757" s="5" t="n"/>
-      <c r="N757" s="5" t="n"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="5" t="n"/>
@@ -12689,7 +12162,6 @@
       <c r="K758" s="5" t="n"/>
       <c r="L758" s="5" t="n"/>
       <c r="M758" s="5" t="n"/>
-      <c r="N758" s="5" t="n"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="5" t="n"/>
@@ -12705,7 +12177,6 @@
       <c r="K759" s="5" t="n"/>
       <c r="L759" s="5" t="n"/>
       <c r="M759" s="5" t="n"/>
-      <c r="N759" s="5" t="n"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="5" t="n"/>
@@ -12721,7 +12192,6 @@
       <c r="K760" s="5" t="n"/>
       <c r="L760" s="5" t="n"/>
       <c r="M760" s="5" t="n"/>
-      <c r="N760" s="5" t="n"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="5" t="n"/>
@@ -12737,7 +12207,6 @@
       <c r="K761" s="5" t="n"/>
       <c r="L761" s="5" t="n"/>
       <c r="M761" s="5" t="n"/>
-      <c r="N761" s="5" t="n"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="5" t="n"/>
@@ -12753,7 +12222,6 @@
       <c r="K762" s="5" t="n"/>
       <c r="L762" s="5" t="n"/>
       <c r="M762" s="5" t="n"/>
-      <c r="N762" s="5" t="n"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="5" t="n"/>
@@ -12769,7 +12237,6 @@
       <c r="K763" s="5" t="n"/>
       <c r="L763" s="5" t="n"/>
       <c r="M763" s="5" t="n"/>
-      <c r="N763" s="5" t="n"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="5" t="n"/>
@@ -12785,7 +12252,6 @@
       <c r="K764" s="5" t="n"/>
       <c r="L764" s="5" t="n"/>
       <c r="M764" s="5" t="n"/>
-      <c r="N764" s="5" t="n"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="5" t="n"/>
@@ -12801,7 +12267,6 @@
       <c r="K765" s="5" t="n"/>
       <c r="L765" s="5" t="n"/>
       <c r="M765" s="5" t="n"/>
-      <c r="N765" s="5" t="n"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="5" t="n"/>
@@ -12817,7 +12282,6 @@
       <c r="K766" s="5" t="n"/>
       <c r="L766" s="5" t="n"/>
       <c r="M766" s="5" t="n"/>
-      <c r="N766" s="5" t="n"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="5" t="n"/>
@@ -12833,7 +12297,6 @@
       <c r="K767" s="5" t="n"/>
       <c r="L767" s="5" t="n"/>
       <c r="M767" s="5" t="n"/>
-      <c r="N767" s="5" t="n"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="5" t="n"/>
@@ -12849,7 +12312,6 @@
       <c r="K768" s="5" t="n"/>
       <c r="L768" s="5" t="n"/>
       <c r="M768" s="5" t="n"/>
-      <c r="N768" s="5" t="n"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="5" t="n"/>
@@ -12865,7 +12327,6 @@
       <c r="K769" s="5" t="n"/>
       <c r="L769" s="5" t="n"/>
       <c r="M769" s="5" t="n"/>
-      <c r="N769" s="5" t="n"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="5" t="n"/>
@@ -12881,7 +12342,6 @@
       <c r="K770" s="5" t="n"/>
       <c r="L770" s="5" t="n"/>
       <c r="M770" s="5" t="n"/>
-      <c r="N770" s="5" t="n"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="5" t="n"/>
@@ -12897,7 +12357,6 @@
       <c r="K771" s="5" t="n"/>
       <c r="L771" s="5" t="n"/>
       <c r="M771" s="5" t="n"/>
-      <c r="N771" s="5" t="n"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="5" t="n"/>
@@ -12913,7 +12372,6 @@
       <c r="K772" s="5" t="n"/>
       <c r="L772" s="5" t="n"/>
       <c r="M772" s="5" t="n"/>
-      <c r="N772" s="5" t="n"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="5" t="n"/>
@@ -12929,7 +12387,6 @@
       <c r="K773" s="5" t="n"/>
       <c r="L773" s="5" t="n"/>
       <c r="M773" s="5" t="n"/>
-      <c r="N773" s="5" t="n"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="5" t="n"/>
@@ -12945,7 +12402,6 @@
       <c r="K774" s="5" t="n"/>
       <c r="L774" s="5" t="n"/>
       <c r="M774" s="5" t="n"/>
-      <c r="N774" s="5" t="n"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="5" t="n"/>
@@ -12961,7 +12417,6 @@
       <c r="K775" s="5" t="n"/>
       <c r="L775" s="5" t="n"/>
       <c r="M775" s="5" t="n"/>
-      <c r="N775" s="5" t="n"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="5" t="n"/>
@@ -12977,7 +12432,6 @@
       <c r="K776" s="5" t="n"/>
       <c r="L776" s="5" t="n"/>
       <c r="M776" s="5" t="n"/>
-      <c r="N776" s="5" t="n"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="5" t="n"/>
@@ -12993,7 +12447,6 @@
       <c r="K777" s="5" t="n"/>
       <c r="L777" s="5" t="n"/>
       <c r="M777" s="5" t="n"/>
-      <c r="N777" s="5" t="n"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="5" t="n"/>
@@ -13009,7 +12462,6 @@
       <c r="K778" s="5" t="n"/>
       <c r="L778" s="5" t="n"/>
       <c r="M778" s="5" t="n"/>
-      <c r="N778" s="5" t="n"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="5" t="n"/>
@@ -13025,7 +12477,6 @@
       <c r="K779" s="5" t="n"/>
       <c r="L779" s="5" t="n"/>
       <c r="M779" s="5" t="n"/>
-      <c r="N779" s="5" t="n"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="5" t="n"/>
@@ -13041,7 +12492,6 @@
       <c r="K780" s="5" t="n"/>
       <c r="L780" s="5" t="n"/>
       <c r="M780" s="5" t="n"/>
-      <c r="N780" s="5" t="n"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="5" t="n"/>
@@ -13057,7 +12507,6 @@
       <c r="K781" s="5" t="n"/>
       <c r="L781" s="5" t="n"/>
       <c r="M781" s="5" t="n"/>
-      <c r="N781" s="5" t="n"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="5" t="n"/>
@@ -13073,7 +12522,6 @@
       <c r="K782" s="5" t="n"/>
       <c r="L782" s="5" t="n"/>
       <c r="M782" s="5" t="n"/>
-      <c r="N782" s="5" t="n"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="5" t="n"/>
@@ -13089,7 +12537,6 @@
       <c r="K783" s="5" t="n"/>
       <c r="L783" s="5" t="n"/>
       <c r="M783" s="5" t="n"/>
-      <c r="N783" s="5" t="n"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="5" t="n"/>
@@ -13105,7 +12552,6 @@
       <c r="K784" s="5" t="n"/>
       <c r="L784" s="5" t="n"/>
       <c r="M784" s="5" t="n"/>
-      <c r="N784" s="5" t="n"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="5" t="n"/>
@@ -13121,7 +12567,6 @@
       <c r="K785" s="5" t="n"/>
       <c r="L785" s="5" t="n"/>
       <c r="M785" s="5" t="n"/>
-      <c r="N785" s="5" t="n"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="5" t="n"/>
@@ -13137,7 +12582,6 @@
       <c r="K786" s="5" t="n"/>
       <c r="L786" s="5" t="n"/>
       <c r="M786" s="5" t="n"/>
-      <c r="N786" s="5" t="n"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="5" t="n"/>
@@ -13153,7 +12597,6 @@
       <c r="K787" s="5" t="n"/>
       <c r="L787" s="5" t="n"/>
       <c r="M787" s="5" t="n"/>
-      <c r="N787" s="5" t="n"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="5" t="n"/>
@@ -13169,7 +12612,6 @@
       <c r="K788" s="5" t="n"/>
       <c r="L788" s="5" t="n"/>
       <c r="M788" s="5" t="n"/>
-      <c r="N788" s="5" t="n"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="5" t="n"/>
@@ -13185,7 +12627,6 @@
       <c r="K789" s="5" t="n"/>
       <c r="L789" s="5" t="n"/>
       <c r="M789" s="5" t="n"/>
-      <c r="N789" s="5" t="n"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="5" t="n"/>
@@ -13201,7 +12642,6 @@
       <c r="K790" s="5" t="n"/>
       <c r="L790" s="5" t="n"/>
       <c r="M790" s="5" t="n"/>
-      <c r="N790" s="5" t="n"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="5" t="n"/>
@@ -13217,7 +12657,6 @@
       <c r="K791" s="5" t="n"/>
       <c r="L791" s="5" t="n"/>
       <c r="M791" s="5" t="n"/>
-      <c r="N791" s="5" t="n"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="5" t="n"/>
@@ -13233,7 +12672,6 @@
       <c r="K792" s="5" t="n"/>
       <c r="L792" s="5" t="n"/>
       <c r="M792" s="5" t="n"/>
-      <c r="N792" s="5" t="n"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="5" t="n"/>
@@ -13249,7 +12687,6 @@
       <c r="K793" s="5" t="n"/>
       <c r="L793" s="5" t="n"/>
       <c r="M793" s="5" t="n"/>
-      <c r="N793" s="5" t="n"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="5" t="n"/>
@@ -13265,7 +12702,6 @@
       <c r="K794" s="5" t="n"/>
       <c r="L794" s="5" t="n"/>
       <c r="M794" s="5" t="n"/>
-      <c r="N794" s="5" t="n"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="5" t="n"/>
@@ -13281,7 +12717,6 @@
       <c r="K795" s="5" t="n"/>
       <c r="L795" s="5" t="n"/>
       <c r="M795" s="5" t="n"/>
-      <c r="N795" s="5" t="n"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="5" t="n"/>
@@ -13297,7 +12732,6 @@
       <c r="K796" s="5" t="n"/>
       <c r="L796" s="5" t="n"/>
       <c r="M796" s="5" t="n"/>
-      <c r="N796" s="5" t="n"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="5" t="n"/>
@@ -13313,7 +12747,6 @@
       <c r="K797" s="5" t="n"/>
       <c r="L797" s="5" t="n"/>
       <c r="M797" s="5" t="n"/>
-      <c r="N797" s="5" t="n"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="5" t="n"/>
@@ -13329,7 +12762,6 @@
       <c r="K798" s="5" t="n"/>
       <c r="L798" s="5" t="n"/>
       <c r="M798" s="5" t="n"/>
-      <c r="N798" s="5" t="n"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="5" t="n"/>
@@ -13345,7 +12777,6 @@
       <c r="K799" s="5" t="n"/>
       <c r="L799" s="5" t="n"/>
       <c r="M799" s="5" t="n"/>
-      <c r="N799" s="5" t="n"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="5" t="n"/>
@@ -13361,7 +12792,6 @@
       <c r="K800" s="5" t="n"/>
       <c r="L800" s="5" t="n"/>
       <c r="M800" s="5" t="n"/>
-      <c r="N800" s="5" t="n"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="5" t="n"/>
@@ -13377,7 +12807,6 @@
       <c r="K801" s="5" t="n"/>
       <c r="L801" s="5" t="n"/>
       <c r="M801" s="5" t="n"/>
-      <c r="N801" s="5" t="n"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="5" t="n"/>
@@ -13393,7 +12822,6 @@
       <c r="K802" s="5" t="n"/>
       <c r="L802" s="5" t="n"/>
       <c r="M802" s="5" t="n"/>
-      <c r="N802" s="5" t="n"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="5" t="n"/>
@@ -13409,7 +12837,6 @@
       <c r="K803" s="5" t="n"/>
       <c r="L803" s="5" t="n"/>
       <c r="M803" s="5" t="n"/>
-      <c r="N803" s="5" t="n"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="5" t="n"/>
@@ -13425,7 +12852,6 @@
       <c r="K804" s="5" t="n"/>
       <c r="L804" s="5" t="n"/>
       <c r="M804" s="5" t="n"/>
-      <c r="N804" s="5" t="n"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="5" t="n"/>
@@ -13441,7 +12867,6 @@
       <c r="K805" s="5" t="n"/>
       <c r="L805" s="5" t="n"/>
       <c r="M805" s="5" t="n"/>
-      <c r="N805" s="5" t="n"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="5" t="n"/>
@@ -13457,7 +12882,6 @@
       <c r="K806" s="5" t="n"/>
       <c r="L806" s="5" t="n"/>
       <c r="M806" s="5" t="n"/>
-      <c r="N806" s="5" t="n"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="5" t="n"/>
@@ -13473,7 +12897,6 @@
       <c r="K807" s="5" t="n"/>
       <c r="L807" s="5" t="n"/>
       <c r="M807" s="5" t="n"/>
-      <c r="N807" s="5" t="n"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="5" t="n"/>
@@ -13489,7 +12912,6 @@
       <c r="K808" s="5" t="n"/>
       <c r="L808" s="5" t="n"/>
       <c r="M808" s="5" t="n"/>
-      <c r="N808" s="5" t="n"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="5" t="n"/>
@@ -13505,7 +12927,6 @@
       <c r="K809" s="5" t="n"/>
       <c r="L809" s="5" t="n"/>
       <c r="M809" s="5" t="n"/>
-      <c r="N809" s="5" t="n"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="5" t="n"/>
@@ -13521,7 +12942,6 @@
       <c r="K810" s="5" t="n"/>
       <c r="L810" s="5" t="n"/>
       <c r="M810" s="5" t="n"/>
-      <c r="N810" s="5" t="n"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="5" t="n"/>
@@ -13537,7 +12957,6 @@
       <c r="K811" s="5" t="n"/>
       <c r="L811" s="5" t="n"/>
       <c r="M811" s="5" t="n"/>
-      <c r="N811" s="5" t="n"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="5" t="n"/>
@@ -13553,7 +12972,6 @@
       <c r="K812" s="5" t="n"/>
       <c r="L812" s="5" t="n"/>
       <c r="M812" s="5" t="n"/>
-      <c r="N812" s="5" t="n"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="5" t="n"/>
@@ -13569,7 +12987,6 @@
       <c r="K813" s="5" t="n"/>
       <c r="L813" s="5" t="n"/>
       <c r="M813" s="5" t="n"/>
-      <c r="N813" s="5" t="n"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="5" t="n"/>
@@ -13585,7 +13002,6 @@
       <c r="K814" s="5" t="n"/>
       <c r="L814" s="5" t="n"/>
       <c r="M814" s="5" t="n"/>
-      <c r="N814" s="5" t="n"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="5" t="n"/>
@@ -13601,7 +13017,6 @@
       <c r="K815" s="5" t="n"/>
       <c r="L815" s="5" t="n"/>
       <c r="M815" s="5" t="n"/>
-      <c r="N815" s="5" t="n"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="5" t="n"/>
@@ -13617,7 +13032,6 @@
       <c r="K816" s="5" t="n"/>
       <c r="L816" s="5" t="n"/>
       <c r="M816" s="5" t="n"/>
-      <c r="N816" s="5" t="n"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="5" t="n"/>
@@ -13633,7 +13047,6 @@
       <c r="K817" s="5" t="n"/>
       <c r="L817" s="5" t="n"/>
       <c r="M817" s="5" t="n"/>
-      <c r="N817" s="5" t="n"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="5" t="n"/>
@@ -13649,7 +13062,6 @@
       <c r="K818" s="5" t="n"/>
       <c r="L818" s="5" t="n"/>
       <c r="M818" s="5" t="n"/>
-      <c r="N818" s="5" t="n"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="5" t="n"/>
@@ -13665,7 +13077,6 @@
       <c r="K819" s="5" t="n"/>
       <c r="L819" s="5" t="n"/>
       <c r="M819" s="5" t="n"/>
-      <c r="N819" s="5" t="n"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="5" t="n"/>
@@ -13681,7 +13092,6 @@
       <c r="K820" s="5" t="n"/>
       <c r="L820" s="5" t="n"/>
       <c r="M820" s="5" t="n"/>
-      <c r="N820" s="5" t="n"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="5" t="n"/>
@@ -13697,7 +13107,6 @@
       <c r="K821" s="5" t="n"/>
       <c r="L821" s="5" t="n"/>
       <c r="M821" s="5" t="n"/>
-      <c r="N821" s="5" t="n"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="5" t="n"/>
@@ -13713,7 +13122,6 @@
       <c r="K822" s="5" t="n"/>
       <c r="L822" s="5" t="n"/>
       <c r="M822" s="5" t="n"/>
-      <c r="N822" s="5" t="n"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="5" t="n"/>
@@ -13729,7 +13137,6 @@
       <c r="K823" s="5" t="n"/>
       <c r="L823" s="5" t="n"/>
       <c r="M823" s="5" t="n"/>
-      <c r="N823" s="5" t="n"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="5" t="n"/>
@@ -13745,7 +13152,6 @@
       <c r="K824" s="5" t="n"/>
       <c r="L824" s="5" t="n"/>
       <c r="M824" s="5" t="n"/>
-      <c r="N824" s="5" t="n"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="5" t="n"/>
@@ -13761,7 +13167,6 @@
       <c r="K825" s="5" t="n"/>
       <c r="L825" s="5" t="n"/>
       <c r="M825" s="5" t="n"/>
-      <c r="N825" s="5" t="n"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="5" t="n"/>
@@ -13777,7 +13182,6 @@
       <c r="K826" s="5" t="n"/>
       <c r="L826" s="5" t="n"/>
       <c r="M826" s="5" t="n"/>
-      <c r="N826" s="5" t="n"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="5" t="n"/>
@@ -13793,7 +13197,6 @@
       <c r="K827" s="5" t="n"/>
       <c r="L827" s="5" t="n"/>
       <c r="M827" s="5" t="n"/>
-      <c r="N827" s="5" t="n"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="5" t="n"/>
@@ -13809,7 +13212,6 @@
       <c r="K828" s="5" t="n"/>
       <c r="L828" s="5" t="n"/>
       <c r="M828" s="5" t="n"/>
-      <c r="N828" s="5" t="n"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="5" t="n"/>
@@ -13825,7 +13227,6 @@
       <c r="K829" s="5" t="n"/>
       <c r="L829" s="5" t="n"/>
       <c r="M829" s="5" t="n"/>
-      <c r="N829" s="5" t="n"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="5" t="n"/>
@@ -13841,7 +13242,6 @@
       <c r="K830" s="5" t="n"/>
       <c r="L830" s="5" t="n"/>
       <c r="M830" s="5" t="n"/>
-      <c r="N830" s="5" t="n"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="5" t="n"/>
@@ -13857,7 +13257,6 @@
       <c r="K831" s="5" t="n"/>
       <c r="L831" s="5" t="n"/>
       <c r="M831" s="5" t="n"/>
-      <c r="N831" s="5" t="n"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="5" t="n"/>
@@ -13873,7 +13272,6 @@
       <c r="K832" s="5" t="n"/>
       <c r="L832" s="5" t="n"/>
       <c r="M832" s="5" t="n"/>
-      <c r="N832" s="5" t="n"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="5" t="n"/>
@@ -13889,7 +13287,6 @@
       <c r="K833" s="5" t="n"/>
       <c r="L833" s="5" t="n"/>
       <c r="M833" s="5" t="n"/>
-      <c r="N833" s="5" t="n"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="5" t="n"/>
@@ -13905,7 +13302,6 @@
       <c r="K834" s="5" t="n"/>
       <c r="L834" s="5" t="n"/>
       <c r="M834" s="5" t="n"/>
-      <c r="N834" s="5" t="n"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="5" t="n"/>
@@ -13921,7 +13317,6 @@
       <c r="K835" s="5" t="n"/>
       <c r="L835" s="5" t="n"/>
       <c r="M835" s="5" t="n"/>
-      <c r="N835" s="5" t="n"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="5" t="n"/>
@@ -13937,7 +13332,6 @@
       <c r="K836" s="5" t="n"/>
       <c r="L836" s="5" t="n"/>
       <c r="M836" s="5" t="n"/>
-      <c r="N836" s="5" t="n"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="5" t="n"/>
@@ -13953,7 +13347,6 @@
       <c r="K837" s="5" t="n"/>
       <c r="L837" s="5" t="n"/>
       <c r="M837" s="5" t="n"/>
-      <c r="N837" s="5" t="n"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="5" t="n"/>
@@ -13969,7 +13362,6 @@
       <c r="K838" s="5" t="n"/>
       <c r="L838" s="5" t="n"/>
       <c r="M838" s="5" t="n"/>
-      <c r="N838" s="5" t="n"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="5" t="n"/>
@@ -13985,7 +13377,6 @@
       <c r="K839" s="5" t="n"/>
       <c r="L839" s="5" t="n"/>
       <c r="M839" s="5" t="n"/>
-      <c r="N839" s="5" t="n"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="5" t="n"/>
@@ -14001,7 +13392,6 @@
       <c r="K840" s="5" t="n"/>
       <c r="L840" s="5" t="n"/>
       <c r="M840" s="5" t="n"/>
-      <c r="N840" s="5" t="n"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="5" t="n"/>
@@ -14017,7 +13407,6 @@
       <c r="K841" s="5" t="n"/>
       <c r="L841" s="5" t="n"/>
       <c r="M841" s="5" t="n"/>
-      <c r="N841" s="5" t="n"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="5" t="n"/>
@@ -14033,7 +13422,6 @@
       <c r="K842" s="5" t="n"/>
       <c r="L842" s="5" t="n"/>
       <c r="M842" s="5" t="n"/>
-      <c r="N842" s="5" t="n"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="5" t="n"/>
@@ -14049,7 +13437,6 @@
       <c r="K843" s="5" t="n"/>
       <c r="L843" s="5" t="n"/>
       <c r="M843" s="5" t="n"/>
-      <c r="N843" s="5" t="n"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="5" t="n"/>
@@ -14065,7 +13452,6 @@
       <c r="K844" s="5" t="n"/>
       <c r="L844" s="5" t="n"/>
       <c r="M844" s="5" t="n"/>
-      <c r="N844" s="5" t="n"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="5" t="n"/>
@@ -14081,7 +13467,6 @@
       <c r="K845" s="5" t="n"/>
       <c r="L845" s="5" t="n"/>
       <c r="M845" s="5" t="n"/>
-      <c r="N845" s="5" t="n"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="5" t="n"/>
@@ -14097,7 +13482,6 @@
       <c r="K846" s="5" t="n"/>
       <c r="L846" s="5" t="n"/>
       <c r="M846" s="5" t="n"/>
-      <c r="N846" s="5" t="n"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="5" t="n"/>
@@ -14113,7 +13497,6 @@
       <c r="K847" s="5" t="n"/>
       <c r="L847" s="5" t="n"/>
       <c r="M847" s="5" t="n"/>
-      <c r="N847" s="5" t="n"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="5" t="n"/>
@@ -14129,7 +13512,6 @@
       <c r="K848" s="5" t="n"/>
       <c r="L848" s="5" t="n"/>
       <c r="M848" s="5" t="n"/>
-      <c r="N848" s="5" t="n"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="5" t="n"/>
@@ -14145,7 +13527,6 @@
       <c r="K849" s="5" t="n"/>
       <c r="L849" s="5" t="n"/>
       <c r="M849" s="5" t="n"/>
-      <c r="N849" s="5" t="n"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="5" t="n"/>
@@ -14161,7 +13542,6 @@
       <c r="K850" s="5" t="n"/>
       <c r="L850" s="5" t="n"/>
       <c r="M850" s="5" t="n"/>
-      <c r="N850" s="5" t="n"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="5" t="n"/>
@@ -14177,7 +13557,6 @@
       <c r="K851" s="5" t="n"/>
       <c r="L851" s="5" t="n"/>
       <c r="M851" s="5" t="n"/>
-      <c r="N851" s="5" t="n"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="5" t="n"/>
@@ -14193,7 +13572,6 @@
       <c r="K852" s="5" t="n"/>
       <c r="L852" s="5" t="n"/>
       <c r="M852" s="5" t="n"/>
-      <c r="N852" s="5" t="n"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="5" t="n"/>
@@ -14209,7 +13587,6 @@
       <c r="K853" s="5" t="n"/>
       <c r="L853" s="5" t="n"/>
       <c r="M853" s="5" t="n"/>
-      <c r="N853" s="5" t="n"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="5" t="n"/>
@@ -14225,7 +13602,6 @@
       <c r="K854" s="5" t="n"/>
       <c r="L854" s="5" t="n"/>
       <c r="M854" s="5" t="n"/>
-      <c r="N854" s="5" t="n"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="5" t="n"/>
@@ -14241,7 +13617,6 @@
       <c r="K855" s="5" t="n"/>
       <c r="L855" s="5" t="n"/>
       <c r="M855" s="5" t="n"/>
-      <c r="N855" s="5" t="n"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="5" t="n"/>
@@ -14257,7 +13632,6 @@
       <c r="K856" s="5" t="n"/>
       <c r="L856" s="5" t="n"/>
       <c r="M856" s="5" t="n"/>
-      <c r="N856" s="5" t="n"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="5" t="n"/>
@@ -14273,7 +13647,6 @@
       <c r="K857" s="5" t="n"/>
       <c r="L857" s="5" t="n"/>
       <c r="M857" s="5" t="n"/>
-      <c r="N857" s="5" t="n"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="5" t="n"/>
@@ -14289,7 +13662,6 @@
       <c r="K858" s="5" t="n"/>
       <c r="L858" s="5" t="n"/>
       <c r="M858" s="5" t="n"/>
-      <c r="N858" s="5" t="n"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="5" t="n"/>
@@ -14305,7 +13677,6 @@
       <c r="K859" s="5" t="n"/>
       <c r="L859" s="5" t="n"/>
       <c r="M859" s="5" t="n"/>
-      <c r="N859" s="5" t="n"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="5" t="n"/>
@@ -14321,7 +13692,6 @@
       <c r="K860" s="5" t="n"/>
       <c r="L860" s="5" t="n"/>
       <c r="M860" s="5" t="n"/>
-      <c r="N860" s="5" t="n"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="5" t="n"/>
@@ -14337,7 +13707,6 @@
       <c r="K861" s="5" t="n"/>
       <c r="L861" s="5" t="n"/>
       <c r="M861" s="5" t="n"/>
-      <c r="N861" s="5" t="n"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="5" t="n"/>
@@ -14353,7 +13722,6 @@
       <c r="K862" s="5" t="n"/>
       <c r="L862" s="5" t="n"/>
       <c r="M862" s="5" t="n"/>
-      <c r="N862" s="5" t="n"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="5" t="n"/>
@@ -14369,7 +13737,6 @@
       <c r="K863" s="5" t="n"/>
       <c r="L863" s="5" t="n"/>
       <c r="M863" s="5" t="n"/>
-      <c r="N863" s="5" t="n"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="5" t="n"/>
@@ -14385,7 +13752,6 @@
       <c r="K864" s="5" t="n"/>
       <c r="L864" s="5" t="n"/>
       <c r="M864" s="5" t="n"/>
-      <c r="N864" s="5" t="n"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="5" t="n"/>
@@ -14401,7 +13767,6 @@
       <c r="K865" s="5" t="n"/>
       <c r="L865" s="5" t="n"/>
       <c r="M865" s="5" t="n"/>
-      <c r="N865" s="5" t="n"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="5" t="n"/>
@@ -14417,7 +13782,6 @@
       <c r="K866" s="5" t="n"/>
       <c r="L866" s="5" t="n"/>
       <c r="M866" s="5" t="n"/>
-      <c r="N866" s="5" t="n"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="5" t="n"/>
@@ -14433,7 +13797,6 @@
       <c r="K867" s="5" t="n"/>
       <c r="L867" s="5" t="n"/>
       <c r="M867" s="5" t="n"/>
-      <c r="N867" s="5" t="n"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="5" t="n"/>
@@ -14449,7 +13812,6 @@
       <c r="K868" s="5" t="n"/>
       <c r="L868" s="5" t="n"/>
       <c r="M868" s="5" t="n"/>
-      <c r="N868" s="5" t="n"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="5" t="n"/>
@@ -14465,7 +13827,6 @@
       <c r="K869" s="5" t="n"/>
       <c r="L869" s="5" t="n"/>
       <c r="M869" s="5" t="n"/>
-      <c r="N869" s="5" t="n"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="5" t="n"/>
@@ -14481,7 +13842,6 @@
       <c r="K870" s="5" t="n"/>
       <c r="L870" s="5" t="n"/>
       <c r="M870" s="5" t="n"/>
-      <c r="N870" s="5" t="n"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="5" t="n"/>
@@ -14497,7 +13857,6 @@
       <c r="K871" s="5" t="n"/>
       <c r="L871" s="5" t="n"/>
       <c r="M871" s="5" t="n"/>
-      <c r="N871" s="5" t="n"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="5" t="n"/>
@@ -14513,7 +13872,6 @@
       <c r="K872" s="5" t="n"/>
       <c r="L872" s="5" t="n"/>
       <c r="M872" s="5" t="n"/>
-      <c r="N872" s="5" t="n"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="5" t="n"/>
@@ -14529,7 +13887,6 @@
       <c r="K873" s="5" t="n"/>
       <c r="L873" s="5" t="n"/>
       <c r="M873" s="5" t="n"/>
-      <c r="N873" s="5" t="n"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="5" t="n"/>
@@ -14545,7 +13902,6 @@
       <c r="K874" s="5" t="n"/>
       <c r="L874" s="5" t="n"/>
       <c r="M874" s="5" t="n"/>
-      <c r="N874" s="5" t="n"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="5" t="n"/>
@@ -14561,7 +13917,6 @@
       <c r="K875" s="5" t="n"/>
       <c r="L875" s="5" t="n"/>
       <c r="M875" s="5" t="n"/>
-      <c r="N875" s="5" t="n"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="5" t="n"/>
@@ -14577,7 +13932,6 @@
       <c r="K876" s="5" t="n"/>
       <c r="L876" s="5" t="n"/>
       <c r="M876" s="5" t="n"/>
-      <c r="N876" s="5" t="n"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="5" t="n"/>
@@ -14593,7 +13947,6 @@
       <c r="K877" s="5" t="n"/>
       <c r="L877" s="5" t="n"/>
       <c r="M877" s="5" t="n"/>
-      <c r="N877" s="5" t="n"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="5" t="n"/>
@@ -14609,7 +13962,6 @@
       <c r="K878" s="5" t="n"/>
       <c r="L878" s="5" t="n"/>
       <c r="M878" s="5" t="n"/>
-      <c r="N878" s="5" t="n"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="5" t="n"/>
@@ -14625,7 +13977,6 @@
       <c r="K879" s="5" t="n"/>
       <c r="L879" s="5" t="n"/>
       <c r="M879" s="5" t="n"/>
-      <c r="N879" s="5" t="n"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="5" t="n"/>
@@ -14641,7 +13992,6 @@
       <c r="K880" s="5" t="n"/>
       <c r="L880" s="5" t="n"/>
       <c r="M880" s="5" t="n"/>
-      <c r="N880" s="5" t="n"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="5" t="n"/>
@@ -14657,7 +14007,6 @@
       <c r="K881" s="5" t="n"/>
       <c r="L881" s="5" t="n"/>
       <c r="M881" s="5" t="n"/>
-      <c r="N881" s="5" t="n"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="5" t="n"/>
@@ -14673,7 +14022,6 @@
       <c r="K882" s="5" t="n"/>
       <c r="L882" s="5" t="n"/>
       <c r="M882" s="5" t="n"/>
-      <c r="N882" s="5" t="n"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="5" t="n"/>
@@ -14689,7 +14037,6 @@
       <c r="K883" s="5" t="n"/>
       <c r="L883" s="5" t="n"/>
       <c r="M883" s="5" t="n"/>
-      <c r="N883" s="5" t="n"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="5" t="n"/>
@@ -14705,7 +14052,6 @@
       <c r="K884" s="5" t="n"/>
       <c r="L884" s="5" t="n"/>
       <c r="M884" s="5" t="n"/>
-      <c r="N884" s="5" t="n"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="5" t="n"/>
@@ -14721,7 +14067,6 @@
       <c r="K885" s="5" t="n"/>
       <c r="L885" s="5" t="n"/>
       <c r="M885" s="5" t="n"/>
-      <c r="N885" s="5" t="n"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="5" t="n"/>
@@ -14737,7 +14082,6 @@
       <c r="K886" s="5" t="n"/>
       <c r="L886" s="5" t="n"/>
       <c r="M886" s="5" t="n"/>
-      <c r="N886" s="5" t="n"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="5" t="n"/>
@@ -14753,7 +14097,6 @@
       <c r="K887" s="5" t="n"/>
       <c r="L887" s="5" t="n"/>
       <c r="M887" s="5" t="n"/>
-      <c r="N887" s="5" t="n"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="5" t="n"/>
@@ -14769,7 +14112,6 @@
       <c r="K888" s="5" t="n"/>
       <c r="L888" s="5" t="n"/>
       <c r="M888" s="5" t="n"/>
-      <c r="N888" s="5" t="n"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="5" t="n"/>
@@ -14785,7 +14127,6 @@
       <c r="K889" s="5" t="n"/>
       <c r="L889" s="5" t="n"/>
       <c r="M889" s="5" t="n"/>
-      <c r="N889" s="5" t="n"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="5" t="n"/>
@@ -14801,7 +14142,6 @@
       <c r="K890" s="5" t="n"/>
       <c r="L890" s="5" t="n"/>
       <c r="M890" s="5" t="n"/>
-      <c r="N890" s="5" t="n"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="5" t="n"/>
@@ -14817,7 +14157,6 @@
       <c r="K891" s="5" t="n"/>
       <c r="L891" s="5" t="n"/>
       <c r="M891" s="5" t="n"/>
-      <c r="N891" s="5" t="n"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="5" t="n"/>
@@ -14833,7 +14172,6 @@
       <c r="K892" s="5" t="n"/>
       <c r="L892" s="5" t="n"/>
       <c r="M892" s="5" t="n"/>
-      <c r="N892" s="5" t="n"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="5" t="n"/>
@@ -14849,7 +14187,6 @@
       <c r="K893" s="5" t="n"/>
       <c r="L893" s="5" t="n"/>
       <c r="M893" s="5" t="n"/>
-      <c r="N893" s="5" t="n"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="5" t="n"/>
@@ -14865,7 +14202,6 @@
       <c r="K894" s="5" t="n"/>
       <c r="L894" s="5" t="n"/>
       <c r="M894" s="5" t="n"/>
-      <c r="N894" s="5" t="n"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="5" t="n"/>
@@ -14881,7 +14217,6 @@
       <c r="K895" s="5" t="n"/>
       <c r="L895" s="5" t="n"/>
       <c r="M895" s="5" t="n"/>
-      <c r="N895" s="5" t="n"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="5" t="n"/>
@@ -14897,7 +14232,6 @@
       <c r="K896" s="5" t="n"/>
       <c r="L896" s="5" t="n"/>
       <c r="M896" s="5" t="n"/>
-      <c r="N896" s="5" t="n"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="5" t="n"/>
@@ -14913,7 +14247,6 @@
       <c r="K897" s="5" t="n"/>
       <c r="L897" s="5" t="n"/>
       <c r="M897" s="5" t="n"/>
-      <c r="N897" s="5" t="n"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="5" t="n"/>
@@ -14929,7 +14262,6 @@
       <c r="K898" s="5" t="n"/>
       <c r="L898" s="5" t="n"/>
       <c r="M898" s="5" t="n"/>
-      <c r="N898" s="5" t="n"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="5" t="n"/>
@@ -14945,7 +14277,6 @@
       <c r="K899" s="5" t="n"/>
       <c r="L899" s="5" t="n"/>
       <c r="M899" s="5" t="n"/>
-      <c r="N899" s="5" t="n"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="5" t="n"/>
@@ -14961,7 +14292,6 @@
       <c r="K900" s="5" t="n"/>
       <c r="L900" s="5" t="n"/>
       <c r="M900" s="5" t="n"/>
-      <c r="N900" s="5" t="n"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="5" t="n"/>
@@ -14977,7 +14307,6 @@
       <c r="K901" s="5" t="n"/>
       <c r="L901" s="5" t="n"/>
       <c r="M901" s="5" t="n"/>
-      <c r="N901" s="5" t="n"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="5" t="n"/>
@@ -14993,7 +14322,6 @@
       <c r="K902" s="5" t="n"/>
       <c r="L902" s="5" t="n"/>
       <c r="M902" s="5" t="n"/>
-      <c r="N902" s="5" t="n"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="5" t="n"/>
@@ -15009,7 +14337,6 @@
       <c r="K903" s="5" t="n"/>
       <c r="L903" s="5" t="n"/>
       <c r="M903" s="5" t="n"/>
-      <c r="N903" s="5" t="n"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="5" t="n"/>
@@ -15025,7 +14352,6 @@
       <c r="K904" s="5" t="n"/>
       <c r="L904" s="5" t="n"/>
       <c r="M904" s="5" t="n"/>
-      <c r="N904" s="5" t="n"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="5" t="n"/>
@@ -15041,7 +14367,6 @@
       <c r="K905" s="5" t="n"/>
       <c r="L905" s="5" t="n"/>
       <c r="M905" s="5" t="n"/>
-      <c r="N905" s="5" t="n"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="5" t="n"/>
@@ -15057,7 +14382,6 @@
       <c r="K906" s="5" t="n"/>
       <c r="L906" s="5" t="n"/>
       <c r="M906" s="5" t="n"/>
-      <c r="N906" s="5" t="n"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="5" t="n"/>
@@ -15073,7 +14397,6 @@
       <c r="K907" s="5" t="n"/>
       <c r="L907" s="5" t="n"/>
       <c r="M907" s="5" t="n"/>
-      <c r="N907" s="5" t="n"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="5" t="n"/>
@@ -15089,7 +14412,6 @@
       <c r="K908" s="5" t="n"/>
       <c r="L908" s="5" t="n"/>
       <c r="M908" s="5" t="n"/>
-      <c r="N908" s="5" t="n"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="5" t="n"/>
@@ -15105,7 +14427,6 @@
       <c r="K909" s="5" t="n"/>
       <c r="L909" s="5" t="n"/>
       <c r="M909" s="5" t="n"/>
-      <c r="N909" s="5" t="n"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="5" t="n"/>
@@ -15121,7 +14442,6 @@
       <c r="K910" s="5" t="n"/>
       <c r="L910" s="5" t="n"/>
       <c r="M910" s="5" t="n"/>
-      <c r="N910" s="5" t="n"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="5" t="n"/>
@@ -15137,7 +14457,6 @@
       <c r="K911" s="5" t="n"/>
       <c r="L911" s="5" t="n"/>
       <c r="M911" s="5" t="n"/>
-      <c r="N911" s="5" t="n"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="5" t="n"/>
@@ -15153,7 +14472,6 @@
       <c r="K912" s="5" t="n"/>
       <c r="L912" s="5" t="n"/>
       <c r="M912" s="5" t="n"/>
-      <c r="N912" s="5" t="n"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="5" t="n"/>
@@ -15169,7 +14487,6 @@
       <c r="K913" s="5" t="n"/>
       <c r="L913" s="5" t="n"/>
       <c r="M913" s="5" t="n"/>
-      <c r="N913" s="5" t="n"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="5" t="n"/>
@@ -15185,7 +14502,6 @@
       <c r="K914" s="5" t="n"/>
       <c r="L914" s="5" t="n"/>
       <c r="M914" s="5" t="n"/>
-      <c r="N914" s="5" t="n"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="5" t="n"/>
@@ -15201,7 +14517,6 @@
       <c r="K915" s="5" t="n"/>
       <c r="L915" s="5" t="n"/>
       <c r="M915" s="5" t="n"/>
-      <c r="N915" s="5" t="n"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="5" t="n"/>
@@ -15217,7 +14532,6 @@
       <c r="K916" s="5" t="n"/>
       <c r="L916" s="5" t="n"/>
       <c r="M916" s="5" t="n"/>
-      <c r="N916" s="5" t="n"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="5" t="n"/>
@@ -15233,7 +14547,6 @@
       <c r="K917" s="5" t="n"/>
       <c r="L917" s="5" t="n"/>
       <c r="M917" s="5" t="n"/>
-      <c r="N917" s="5" t="n"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="5" t="n"/>
@@ -15249,7 +14562,6 @@
       <c r="K918" s="5" t="n"/>
       <c r="L918" s="5" t="n"/>
       <c r="M918" s="5" t="n"/>
-      <c r="N918" s="5" t="n"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="5" t="n"/>
@@ -15265,7 +14577,6 @@
       <c r="K919" s="5" t="n"/>
       <c r="L919" s="5" t="n"/>
       <c r="M919" s="5" t="n"/>
-      <c r="N919" s="5" t="n"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="5" t="n"/>
@@ -15281,7 +14592,6 @@
       <c r="K920" s="5" t="n"/>
       <c r="L920" s="5" t="n"/>
       <c r="M920" s="5" t="n"/>
-      <c r="N920" s="5" t="n"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="5" t="n"/>
@@ -15297,7 +14607,6 @@
       <c r="K921" s="5" t="n"/>
       <c r="L921" s="5" t="n"/>
       <c r="M921" s="5" t="n"/>
-      <c r="N921" s="5" t="n"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="5" t="n"/>
@@ -15313,7 +14622,6 @@
       <c r="K922" s="5" t="n"/>
       <c r="L922" s="5" t="n"/>
       <c r="M922" s="5" t="n"/>
-      <c r="N922" s="5" t="n"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="5" t="n"/>
@@ -15329,7 +14637,6 @@
       <c r="K923" s="5" t="n"/>
       <c r="L923" s="5" t="n"/>
       <c r="M923" s="5" t="n"/>
-      <c r="N923" s="5" t="n"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="5" t="n"/>
@@ -15345,7 +14652,6 @@
       <c r="K924" s="5" t="n"/>
       <c r="L924" s="5" t="n"/>
       <c r="M924" s="5" t="n"/>
-      <c r="N924" s="5" t="n"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="5" t="n"/>
@@ -15361,7 +14667,6 @@
       <c r="K925" s="5" t="n"/>
       <c r="L925" s="5" t="n"/>
       <c r="M925" s="5" t="n"/>
-      <c r="N925" s="5" t="n"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="5" t="n"/>
@@ -15377,7 +14682,6 @@
       <c r="K926" s="5" t="n"/>
       <c r="L926" s="5" t="n"/>
       <c r="M926" s="5" t="n"/>
-      <c r="N926" s="5" t="n"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="5" t="n"/>
@@ -15393,7 +14697,6 @@
       <c r="K927" s="5" t="n"/>
       <c r="L927" s="5" t="n"/>
       <c r="M927" s="5" t="n"/>
-      <c r="N927" s="5" t="n"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="5" t="n"/>
@@ -15409,7 +14712,6 @@
       <c r="K928" s="5" t="n"/>
       <c r="L928" s="5" t="n"/>
       <c r="M928" s="5" t="n"/>
-      <c r="N928" s="5" t="n"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="5" t="n"/>
@@ -15425,7 +14727,6 @@
       <c r="K929" s="5" t="n"/>
       <c r="L929" s="5" t="n"/>
       <c r="M929" s="5" t="n"/>
-      <c r="N929" s="5" t="n"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="5" t="n"/>
@@ -15441,7 +14742,6 @@
       <c r="K930" s="5" t="n"/>
       <c r="L930" s="5" t="n"/>
       <c r="M930" s="5" t="n"/>
-      <c r="N930" s="5" t="n"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="5" t="n"/>
@@ -15457,7 +14757,6 @@
       <c r="K931" s="5" t="n"/>
       <c r="L931" s="5" t="n"/>
       <c r="M931" s="5" t="n"/>
-      <c r="N931" s="5" t="n"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="5" t="n"/>
@@ -15473,7 +14772,6 @@
       <c r="K932" s="5" t="n"/>
       <c r="L932" s="5" t="n"/>
       <c r="M932" s="5" t="n"/>
-      <c r="N932" s="5" t="n"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="5" t="n"/>
@@ -15489,7 +14787,6 @@
       <c r="K933" s="5" t="n"/>
       <c r="L933" s="5" t="n"/>
       <c r="M933" s="5" t="n"/>
-      <c r="N933" s="5" t="n"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="5" t="n"/>
@@ -15505,7 +14802,6 @@
       <c r="K934" s="5" t="n"/>
       <c r="L934" s="5" t="n"/>
       <c r="M934" s="5" t="n"/>
-      <c r="N934" s="5" t="n"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="5" t="n"/>
@@ -15521,7 +14817,6 @@
       <c r="K935" s="5" t="n"/>
       <c r="L935" s="5" t="n"/>
       <c r="M935" s="5" t="n"/>
-      <c r="N935" s="5" t="n"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="5" t="n"/>
@@ -15537,7 +14832,6 @@
       <c r="K936" s="5" t="n"/>
       <c r="L936" s="5" t="n"/>
       <c r="M936" s="5" t="n"/>
-      <c r="N936" s="5" t="n"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="5" t="n"/>
@@ -15553,7 +14847,6 @@
       <c r="K937" s="5" t="n"/>
       <c r="L937" s="5" t="n"/>
       <c r="M937" s="5" t="n"/>
-      <c r="N937" s="5" t="n"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="5" t="n"/>
@@ -15569,7 +14862,6 @@
       <c r="K938" s="5" t="n"/>
       <c r="L938" s="5" t="n"/>
       <c r="M938" s="5" t="n"/>
-      <c r="N938" s="5" t="n"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="5" t="n"/>
@@ -15585,7 +14877,6 @@
       <c r="K939" s="5" t="n"/>
       <c r="L939" s="5" t="n"/>
       <c r="M939" s="5" t="n"/>
-      <c r="N939" s="5" t="n"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="5" t="n"/>
@@ -15601,7 +14892,6 @@
       <c r="K940" s="5" t="n"/>
       <c r="L940" s="5" t="n"/>
       <c r="M940" s="5" t="n"/>
-      <c r="N940" s="5" t="n"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="5" t="n"/>
@@ -15617,7 +14907,6 @@
       <c r="K941" s="5" t="n"/>
       <c r="L941" s="5" t="n"/>
       <c r="M941" s="5" t="n"/>
-      <c r="N941" s="5" t="n"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="5" t="n"/>
@@ -15633,7 +14922,6 @@
       <c r="K942" s="5" t="n"/>
       <c r="L942" s="5" t="n"/>
       <c r="M942" s="5" t="n"/>
-      <c r="N942" s="5" t="n"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="5" t="n"/>
@@ -15649,7 +14937,6 @@
       <c r="K943" s="5" t="n"/>
       <c r="L943" s="5" t="n"/>
       <c r="M943" s="5" t="n"/>
-      <c r="N943" s="5" t="n"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="5" t="n"/>
@@ -15665,7 +14952,6 @@
       <c r="K944" s="5" t="n"/>
       <c r="L944" s="5" t="n"/>
       <c r="M944" s="5" t="n"/>
-      <c r="N944" s="5" t="n"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="5" t="n"/>
@@ -15681,7 +14967,6 @@
       <c r="K945" s="5" t="n"/>
       <c r="L945" s="5" t="n"/>
       <c r="M945" s="5" t="n"/>
-      <c r="N945" s="5" t="n"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="5" t="n"/>
@@ -15697,7 +14982,6 @@
       <c r="K946" s="5" t="n"/>
       <c r="L946" s="5" t="n"/>
       <c r="M946" s="5" t="n"/>
-      <c r="N946" s="5" t="n"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="5" t="n"/>
@@ -15713,7 +14997,6 @@
       <c r="K947" s="5" t="n"/>
       <c r="L947" s="5" t="n"/>
       <c r="M947" s="5" t="n"/>
-      <c r="N947" s="5" t="n"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="5" t="n"/>
@@ -15729,7 +15012,6 @@
       <c r="K948" s="5" t="n"/>
       <c r="L948" s="5" t="n"/>
       <c r="M948" s="5" t="n"/>
-      <c r="N948" s="5" t="n"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="5" t="n"/>
@@ -15745,7 +15027,6 @@
       <c r="K949" s="5" t="n"/>
       <c r="L949" s="5" t="n"/>
       <c r="M949" s="5" t="n"/>
-      <c r="N949" s="5" t="n"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="5" t="n"/>
@@ -15761,7 +15042,6 @@
       <c r="K950" s="5" t="n"/>
       <c r="L950" s="5" t="n"/>
       <c r="M950" s="5" t="n"/>
-      <c r="N950" s="5" t="n"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="5" t="n"/>
@@ -15777,7 +15057,6 @@
       <c r="K951" s="5" t="n"/>
       <c r="L951" s="5" t="n"/>
       <c r="M951" s="5" t="n"/>
-      <c r="N951" s="5" t="n"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="5" t="n"/>
@@ -15793,7 +15072,6 @@
       <c r="K952" s="5" t="n"/>
       <c r="L952" s="5" t="n"/>
       <c r="M952" s="5" t="n"/>
-      <c r="N952" s="5" t="n"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="5" t="n"/>
@@ -15809,7 +15087,6 @@
       <c r="K953" s="5" t="n"/>
       <c r="L953" s="5" t="n"/>
       <c r="M953" s="5" t="n"/>
-      <c r="N953" s="5" t="n"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="5" t="n"/>
@@ -15825,7 +15102,6 @@
       <c r="K954" s="5" t="n"/>
       <c r="L954" s="5" t="n"/>
       <c r="M954" s="5" t="n"/>
-      <c r="N954" s="5" t="n"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="5" t="n"/>
@@ -15841,7 +15117,6 @@
       <c r="K955" s="5" t="n"/>
       <c r="L955" s="5" t="n"/>
       <c r="M955" s="5" t="n"/>
-      <c r="N955" s="5" t="n"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="5" t="n"/>
@@ -15857,7 +15132,6 @@
       <c r="K956" s="5" t="n"/>
       <c r="L956" s="5" t="n"/>
       <c r="M956" s="5" t="n"/>
-      <c r="N956" s="5" t="n"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="5" t="n"/>
@@ -15873,7 +15147,6 @@
       <c r="K957" s="5" t="n"/>
       <c r="L957" s="5" t="n"/>
       <c r="M957" s="5" t="n"/>
-      <c r="N957" s="5" t="n"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="5" t="n"/>
@@ -15889,7 +15162,6 @@
       <c r="K958" s="5" t="n"/>
       <c r="L958" s="5" t="n"/>
       <c r="M958" s="5" t="n"/>
-      <c r="N958" s="5" t="n"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="5" t="n"/>
@@ -15905,7 +15177,6 @@
       <c r="K959" s="5" t="n"/>
       <c r="L959" s="5" t="n"/>
       <c r="M959" s="5" t="n"/>
-      <c r="N959" s="5" t="n"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="5" t="n"/>
@@ -15921,7 +15192,6 @@
       <c r="K960" s="5" t="n"/>
       <c r="L960" s="5" t="n"/>
       <c r="M960" s="5" t="n"/>
-      <c r="N960" s="5" t="n"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="5" t="n"/>
@@ -15937,7 +15207,6 @@
       <c r="K961" s="5" t="n"/>
       <c r="L961" s="5" t="n"/>
       <c r="M961" s="5" t="n"/>
-      <c r="N961" s="5" t="n"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="5" t="n"/>
@@ -15953,7 +15222,6 @@
       <c r="K962" s="5" t="n"/>
       <c r="L962" s="5" t="n"/>
       <c r="M962" s="5" t="n"/>
-      <c r="N962" s="5" t="n"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="5" t="n"/>
@@ -15969,7 +15237,6 @@
       <c r="K963" s="5" t="n"/>
       <c r="L963" s="5" t="n"/>
       <c r="M963" s="5" t="n"/>
-      <c r="N963" s="5" t="n"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="5" t="n"/>
@@ -15985,7 +15252,6 @@
       <c r="K964" s="5" t="n"/>
       <c r="L964" s="5" t="n"/>
       <c r="M964" s="5" t="n"/>
-      <c r="N964" s="5" t="n"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="5" t="n"/>
@@ -16001,7 +15267,6 @@
       <c r="K965" s="5" t="n"/>
       <c r="L965" s="5" t="n"/>
       <c r="M965" s="5" t="n"/>
-      <c r="N965" s="5" t="n"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="5" t="n"/>
@@ -16017,7 +15282,6 @@
       <c r="K966" s="5" t="n"/>
       <c r="L966" s="5" t="n"/>
       <c r="M966" s="5" t="n"/>
-      <c r="N966" s="5" t="n"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="5" t="n"/>
@@ -16033,7 +15297,6 @@
       <c r="K967" s="5" t="n"/>
       <c r="L967" s="5" t="n"/>
       <c r="M967" s="5" t="n"/>
-      <c r="N967" s="5" t="n"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="5" t="n"/>
@@ -16049,7 +15312,6 @@
       <c r="K968" s="5" t="n"/>
       <c r="L968" s="5" t="n"/>
       <c r="M968" s="5" t="n"/>
-      <c r="N968" s="5" t="n"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="5" t="n"/>
@@ -16065,7 +15327,6 @@
       <c r="K969" s="5" t="n"/>
       <c r="L969" s="5" t="n"/>
       <c r="M969" s="5" t="n"/>
-      <c r="N969" s="5" t="n"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="5" t="n"/>
@@ -16081,7 +15342,6 @@
       <c r="K970" s="5" t="n"/>
       <c r="L970" s="5" t="n"/>
       <c r="M970" s="5" t="n"/>
-      <c r="N970" s="5" t="n"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="5" t="n"/>
@@ -16097,7 +15357,6 @@
       <c r="K971" s="5" t="n"/>
       <c r="L971" s="5" t="n"/>
       <c r="M971" s="5" t="n"/>
-      <c r="N971" s="5" t="n"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="5" t="n"/>
@@ -16113,7 +15372,6 @@
       <c r="K972" s="5" t="n"/>
       <c r="L972" s="5" t="n"/>
       <c r="M972" s="5" t="n"/>
-      <c r="N972" s="5" t="n"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="5" t="n"/>
@@ -16129,7 +15387,6 @@
       <c r="K973" s="5" t="n"/>
       <c r="L973" s="5" t="n"/>
       <c r="M973" s="5" t="n"/>
-      <c r="N973" s="5" t="n"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="5" t="n"/>
@@ -16145,7 +15402,6 @@
       <c r="K974" s="5" t="n"/>
       <c r="L974" s="5" t="n"/>
       <c r="M974" s="5" t="n"/>
-      <c r="N974" s="5" t="n"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="5" t="n"/>
@@ -16161,7 +15417,6 @@
       <c r="K975" s="5" t="n"/>
       <c r="L975" s="5" t="n"/>
       <c r="M975" s="5" t="n"/>
-      <c r="N975" s="5" t="n"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="5" t="n"/>
@@ -16177,7 +15432,6 @@
       <c r="K976" s="5" t="n"/>
       <c r="L976" s="5" t="n"/>
       <c r="M976" s="5" t="n"/>
-      <c r="N976" s="5" t="n"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="5" t="n"/>
@@ -16193,7 +15447,6 @@
       <c r="K977" s="5" t="n"/>
       <c r="L977" s="5" t="n"/>
       <c r="M977" s="5" t="n"/>
-      <c r="N977" s="5" t="n"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="5" t="n"/>
@@ -16209,7 +15462,6 @@
       <c r="K978" s="5" t="n"/>
       <c r="L978" s="5" t="n"/>
       <c r="M978" s="5" t="n"/>
-      <c r="N978" s="5" t="n"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="5" t="n"/>
@@ -16225,7 +15477,6 @@
       <c r="K979" s="5" t="n"/>
       <c r="L979" s="5" t="n"/>
       <c r="M979" s="5" t="n"/>
-      <c r="N979" s="5" t="n"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="5" t="n"/>
@@ -16241,7 +15492,6 @@
       <c r="K980" s="5" t="n"/>
       <c r="L980" s="5" t="n"/>
       <c r="M980" s="5" t="n"/>
-      <c r="N980" s="5" t="n"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="5" t="n"/>
@@ -16257,7 +15507,6 @@
       <c r="K981" s="5" t="n"/>
       <c r="L981" s="5" t="n"/>
       <c r="M981" s="5" t="n"/>
-      <c r="N981" s="5" t="n"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="5" t="n"/>
@@ -16273,7 +15522,6 @@
       <c r="K982" s="5" t="n"/>
       <c r="L982" s="5" t="n"/>
       <c r="M982" s="5" t="n"/>
-      <c r="N982" s="5" t="n"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="5" t="n"/>
@@ -16289,7 +15537,6 @@
       <c r="K983" s="5" t="n"/>
       <c r="L983" s="5" t="n"/>
       <c r="M983" s="5" t="n"/>
-      <c r="N983" s="5" t="n"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="5" t="n"/>
@@ -16305,7 +15552,6 @@
       <c r="K984" s="5" t="n"/>
       <c r="L984" s="5" t="n"/>
       <c r="M984" s="5" t="n"/>
-      <c r="N984" s="5" t="n"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="5" t="n"/>
@@ -16321,7 +15567,6 @@
       <c r="K985" s="5" t="n"/>
       <c r="L985" s="5" t="n"/>
       <c r="M985" s="5" t="n"/>
-      <c r="N985" s="5" t="n"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="5" t="n"/>
@@ -16337,7 +15582,6 @@
       <c r="K986" s="5" t="n"/>
       <c r="L986" s="5" t="n"/>
       <c r="M986" s="5" t="n"/>
-      <c r="N986" s="5" t="n"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="5" t="n"/>
@@ -16353,7 +15597,6 @@
       <c r="K987" s="5" t="n"/>
       <c r="L987" s="5" t="n"/>
       <c r="M987" s="5" t="n"/>
-      <c r="N987" s="5" t="n"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="5" t="n"/>
@@ -16369,7 +15612,6 @@
       <c r="K988" s="5" t="n"/>
       <c r="L988" s="5" t="n"/>
       <c r="M988" s="5" t="n"/>
-      <c r="N988" s="5" t="n"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="5" t="n"/>
@@ -16385,7 +15627,6 @@
       <c r="K989" s="5" t="n"/>
       <c r="L989" s="5" t="n"/>
       <c r="M989" s="5" t="n"/>
-      <c r="N989" s="5" t="n"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="5" t="n"/>
@@ -16401,7 +15642,6 @@
       <c r="K990" s="5" t="n"/>
       <c r="L990" s="5" t="n"/>
       <c r="M990" s="5" t="n"/>
-      <c r="N990" s="5" t="n"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="5" t="n"/>
@@ -16417,7 +15657,6 @@
       <c r="K991" s="5" t="n"/>
       <c r="L991" s="5" t="n"/>
       <c r="M991" s="5" t="n"/>
-      <c r="N991" s="5" t="n"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="5" t="n"/>
@@ -16433,7 +15672,6 @@
       <c r="K992" s="5" t="n"/>
       <c r="L992" s="5" t="n"/>
       <c r="M992" s="5" t="n"/>
-      <c r="N992" s="5" t="n"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="5" t="n"/>
@@ -16449,7 +15687,6 @@
       <c r="K993" s="5" t="n"/>
       <c r="L993" s="5" t="n"/>
       <c r="M993" s="5" t="n"/>
-      <c r="N993" s="5" t="n"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="5" t="n"/>
@@ -16465,7 +15702,6 @@
       <c r="K994" s="5" t="n"/>
       <c r="L994" s="5" t="n"/>
       <c r="M994" s="5" t="n"/>
-      <c r="N994" s="5" t="n"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="5" t="n"/>
@@ -16481,7 +15717,6 @@
       <c r="K995" s="5" t="n"/>
       <c r="L995" s="5" t="n"/>
       <c r="M995" s="5" t="n"/>
-      <c r="N995" s="5" t="n"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="5" t="n"/>
@@ -16497,7 +15732,6 @@
       <c r="K996" s="5" t="n"/>
       <c r="L996" s="5" t="n"/>
       <c r="M996" s="5" t="n"/>
-      <c r="N996" s="5" t="n"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="5" t="n"/>
@@ -16513,7 +15747,6 @@
       <c r="K997" s="5" t="n"/>
       <c r="L997" s="5" t="n"/>
       <c r="M997" s="5" t="n"/>
-      <c r="N997" s="5" t="n"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="5" t="n"/>
@@ -16529,7 +15762,6 @@
       <c r="K998" s="5" t="n"/>
       <c r="L998" s="5" t="n"/>
       <c r="M998" s="5" t="n"/>
-      <c r="N998" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
